--- a/data/BondDeal/企业债.xlsx
+++ b/data/BondDeal/企业债.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="413">
   <si>
     <t>剩余期限</t>
   </si>
@@ -31,511 +31,1219 @@
     <t>year</t>
   </si>
   <si>
-    <t>0.82Y+2Y</t>
-  </si>
-  <si>
-    <t>302D</t>
-  </si>
-  <si>
-    <t>319D</t>
-  </si>
-  <si>
-    <t>326D</t>
-  </si>
-  <si>
-    <t>335D+1Y</t>
-  </si>
-  <si>
-    <t>338D</t>
-  </si>
-  <si>
-    <t>344D</t>
-  </si>
-  <si>
-    <t>1.12Y</t>
+    <t>300D+2Y</t>
+  </si>
+  <si>
+    <t>312D+2Y</t>
+  </si>
+  <si>
+    <t>319D+N(休2)</t>
+  </si>
+  <si>
+    <t>321D</t>
+  </si>
+  <si>
+    <t>325D</t>
+  </si>
+  <si>
+    <t>329D</t>
+  </si>
+  <si>
+    <t>330D+1Y</t>
+  </si>
+  <si>
+    <t>336D</t>
+  </si>
+  <si>
+    <t>340D+2Y</t>
+  </si>
+  <si>
+    <t>343D</t>
+  </si>
+  <si>
+    <t>347D+N(休2)</t>
+  </si>
+  <si>
+    <t>347D(休2)</t>
+  </si>
+  <si>
+    <t>347D+N</t>
+  </si>
+  <si>
+    <t>353D+N</t>
+  </si>
+  <si>
+    <t>1.05Y+3Y</t>
+  </si>
+  <si>
+    <t>1.1Y</t>
+  </si>
+  <si>
+    <t>1.13Y</t>
+  </si>
+  <si>
+    <t>1.13Y+2Y</t>
   </si>
   <si>
     <t>1.14Y</t>
   </si>
   <si>
-    <t>1.16Y</t>
+    <t>1.17Y</t>
+  </si>
+  <si>
+    <t>1.17Y+1Y</t>
+  </si>
+  <si>
+    <t>1.19Y</t>
+  </si>
+  <si>
+    <t>1.2Y+2Y</t>
+  </si>
+  <si>
+    <t>1.21Y+5Y</t>
+  </si>
+  <si>
+    <t>1.21Y+2Y</t>
+  </si>
+  <si>
+    <t>1.22Y</t>
   </si>
   <si>
     <t>1.22Y+2Y</t>
   </si>
   <si>
-    <t>1.44Y</t>
-  </si>
-  <si>
-    <t>1.52Y+N</t>
-  </si>
-  <si>
-    <t>1.55Y</t>
-  </si>
-  <si>
-    <t>1.57Y</t>
+    <t>1.26Y</t>
+  </si>
+  <si>
+    <t>1.26Y+4Y</t>
+  </si>
+  <si>
+    <t>1.27Y+N</t>
+  </si>
+  <si>
+    <t>1.3Y+2Y</t>
+  </si>
+  <si>
+    <t>1.3Y</t>
+  </si>
+  <si>
+    <t>1.36Y</t>
+  </si>
+  <si>
+    <t>1.38Y+5Y</t>
+  </si>
+  <si>
+    <t>1.45Y</t>
+  </si>
+  <si>
+    <t>1.51Y</t>
+  </si>
+  <si>
+    <t>1.51Y+N</t>
+  </si>
+  <si>
+    <t>1.51Y+2Y</t>
+  </si>
+  <si>
+    <t>1.53Y</t>
+  </si>
+  <si>
+    <t>1.53Y+1Y</t>
+  </si>
+  <si>
+    <t>1.55Y+2Y</t>
+  </si>
+  <si>
+    <t>1.6Y+2Y</t>
+  </si>
+  <si>
+    <t>1.6Y</t>
+  </si>
+  <si>
+    <t>1.61Y</t>
+  </si>
+  <si>
+    <t>1.68Y+2Y</t>
+  </si>
+  <si>
+    <t>1.68Y</t>
   </si>
   <si>
     <t>1.7Y</t>
   </si>
   <si>
-    <t>1.79Y+2Y</t>
-  </si>
-  <si>
-    <t>1.82Y+1Y</t>
+    <t>1.71Y</t>
+  </si>
+  <si>
+    <t>1.72Y</t>
+  </si>
+  <si>
+    <t>1.72Y+N</t>
+  </si>
+  <si>
+    <t>1.78Y+N</t>
+  </si>
+  <si>
+    <t>1.80Y+N</t>
+  </si>
+  <si>
+    <t>1.81Y</t>
+  </si>
+  <si>
+    <t>1.82Y+N</t>
+  </si>
+  <si>
+    <t>1.82Y</t>
+  </si>
+  <si>
+    <t>1.83Y+N</t>
   </si>
   <si>
     <t>1.87Y</t>
   </si>
   <si>
+    <t>1.88Y+5Y</t>
+  </si>
+  <si>
+    <t>1.89Y</t>
+  </si>
+  <si>
+    <t>1.9Y</t>
+  </si>
+  <si>
     <t>1.93Y</t>
   </si>
   <si>
     <t>1.94Y</t>
   </si>
   <si>
-    <t>1.94Y+2Y</t>
-  </si>
-  <si>
-    <t>1.98Y+N</t>
-  </si>
-  <si>
-    <t>2.04Y</t>
+    <t>1.95Y+N</t>
+  </si>
+  <si>
+    <t>1.96Y</t>
+  </si>
+  <si>
+    <t>1.98Y+2Y</t>
+  </si>
+  <si>
+    <t>1.98Y</t>
+  </si>
+  <si>
+    <t>2.07Y</t>
+  </si>
+  <si>
+    <t>2.16Y+2Y</t>
   </si>
   <si>
     <t>2.18Y+2Y</t>
   </si>
   <si>
+    <t>2.19Y+2Y</t>
+  </si>
+  <si>
+    <t>2.2Y</t>
+  </si>
+  <si>
+    <t>2.21Y</t>
+  </si>
+  <si>
+    <t>2.23Y+N</t>
+  </si>
+  <si>
+    <t>2.26Y</t>
+  </si>
+  <si>
+    <t>2.27Y</t>
+  </si>
+  <si>
+    <t>2.28Y</t>
+  </si>
+  <si>
+    <t>2.30Y+2Y</t>
+  </si>
+  <si>
     <t>2.31Y</t>
   </si>
   <si>
-    <t>2.32Y+N</t>
-  </si>
-  <si>
-    <t>2.32Y</t>
-  </si>
-  <si>
-    <t>2.32Y+NY</t>
-  </si>
-  <si>
-    <t>2.4Y</t>
-  </si>
-  <si>
-    <t>2.66Y+N</t>
-  </si>
-  <si>
-    <t>2.68Y+5Y</t>
-  </si>
-  <si>
-    <t>2.7Y+2Y</t>
-  </si>
-  <si>
-    <t>2.72Y</t>
-  </si>
-  <si>
-    <t>2.83Y</t>
+    <t>2.33Y+2Y</t>
+  </si>
+  <si>
+    <t>2.39Y+2Y</t>
+  </si>
+  <si>
+    <t>2.39Y</t>
+  </si>
+  <si>
+    <t>2.41Y+2Y</t>
+  </si>
+  <si>
+    <t>2.42Y</t>
+  </si>
+  <si>
+    <t>2.46Y+2Y</t>
+  </si>
+  <si>
+    <t>2.47Y+2Y</t>
+  </si>
+  <si>
+    <t>2.53Y</t>
+  </si>
+  <si>
+    <t>2.54Y</t>
+  </si>
+  <si>
+    <t>2.55Y</t>
+  </si>
+  <si>
+    <t>2.55Y+2Y</t>
+  </si>
+  <si>
+    <t>2.59Y</t>
+  </si>
+  <si>
+    <t>2.6Y</t>
+  </si>
+  <si>
+    <t>2.6Y+N</t>
+  </si>
+  <si>
+    <t>2.61Y+2Y</t>
+  </si>
+  <si>
+    <t>2.62Y</t>
+  </si>
+  <si>
+    <t>2.62Y+2Y</t>
+  </si>
+  <si>
+    <t>2.64Y</t>
+  </si>
+  <si>
+    <t>2.65Y+2Y</t>
+  </si>
+  <si>
+    <t>2.66Y</t>
+  </si>
+  <si>
+    <t>2.7Y</t>
+  </si>
+  <si>
+    <t>2.81Y</t>
+  </si>
+  <si>
+    <t>2.81Y+2Y</t>
+  </si>
+  <si>
+    <t>2.83Y+N</t>
+  </si>
+  <si>
+    <t>2.84Y+N</t>
   </si>
   <si>
     <t>2.84Y</t>
   </si>
   <si>
-    <t>2.84Y+2Y</t>
-  </si>
-  <si>
-    <t>2.87Y</t>
-  </si>
-  <si>
-    <t>2.91Y</t>
-  </si>
-  <si>
-    <t>2.93Y+6Y</t>
+    <t>2.85Y</t>
+  </si>
+  <si>
+    <t>2.88Y</t>
+  </si>
+  <si>
+    <t>2.89Y</t>
+  </si>
+  <si>
+    <t>2.91Y+N</t>
+  </si>
+  <si>
+    <t>2.92Y</t>
+  </si>
+  <si>
+    <t>2.93Y</t>
+  </si>
+  <si>
+    <t>2.94Y</t>
+  </si>
+  <si>
+    <t>2.95Y</t>
   </si>
   <si>
     <t>2.96Y</t>
   </si>
   <si>
-    <t>3.58Y+N</t>
-  </si>
-  <si>
-    <t>3.63Y+5Y</t>
-  </si>
-  <si>
-    <t>3.64Y</t>
-  </si>
-  <si>
-    <t>3.67Y+N</t>
-  </si>
-  <si>
-    <t>4.18Y+N</t>
-  </si>
-  <si>
-    <t>4.25Y</t>
-  </si>
-  <si>
-    <t>4.25Y+N</t>
+    <t>3.07Y+N</t>
+  </si>
+  <si>
+    <t>3.41Y+N</t>
+  </si>
+  <si>
+    <t>3.42Y+N</t>
+  </si>
+  <si>
+    <t>3.56Y+N</t>
+  </si>
+  <si>
+    <t>3.60Y</t>
+  </si>
+  <si>
+    <t>3.61Y+5Y</t>
+  </si>
+  <si>
+    <t>3.62Y+N</t>
+  </si>
+  <si>
+    <t>3.63Y+N</t>
+  </si>
+  <si>
+    <t>3.66Y</t>
+  </si>
+  <si>
+    <t>3.82Y+3Y</t>
+  </si>
+  <si>
+    <t>3.84Y+N</t>
+  </si>
+  <si>
+    <t>3.86Y+N</t>
+  </si>
+  <si>
+    <t>4.14Y</t>
+  </si>
+  <si>
+    <t>4.19Y+N</t>
+  </si>
+  <si>
+    <t>4.20Y</t>
+  </si>
+  <si>
+    <t>4.2Y+N</t>
   </si>
   <si>
     <t>4.28Y</t>
   </si>
   <si>
-    <t>4.52Y+N</t>
-  </si>
-  <si>
-    <t>4.73Y</t>
-  </si>
-  <si>
-    <t>4.74Y+5Y</t>
-  </si>
-  <si>
-    <t>4.9Y+N</t>
-  </si>
-  <si>
-    <t>4.98Y</t>
-  </si>
-  <si>
-    <t>6.72Y</t>
-  </si>
-  <si>
-    <t>8.69Y</t>
-  </si>
-  <si>
-    <t>8.9Y</t>
-  </si>
-  <si>
-    <t>18.61Y</t>
-  </si>
-  <si>
-    <t>16油服04</t>
-  </si>
-  <si>
-    <t>20平证04</t>
-  </si>
-  <si>
-    <t>18广核01</t>
-  </si>
-  <si>
-    <t>16交行绿色金融债02</t>
+    <t>4.29Y+N</t>
+  </si>
+  <si>
+    <t>4.3Y</t>
+  </si>
+  <si>
+    <t>4.31Y</t>
+  </si>
+  <si>
+    <t>4.35Y+N</t>
+  </si>
+  <si>
+    <t>4.68Y+2Y</t>
+  </si>
+  <si>
+    <t>4.71Y+N</t>
+  </si>
+  <si>
+    <t>4.73Y+5Y</t>
+  </si>
+  <si>
+    <t>4.78Y+N</t>
+  </si>
+  <si>
+    <t>4.87Y+N</t>
+  </si>
+  <si>
+    <t>4.93Y</t>
+  </si>
+  <si>
+    <t>4.94Y+N</t>
+  </si>
+  <si>
+    <t>5.14Y</t>
+  </si>
+  <si>
+    <t>5.78Y</t>
+  </si>
+  <si>
+    <t>18兴杭02</t>
+  </si>
+  <si>
+    <t>18邮政01</t>
+  </si>
+  <si>
+    <t>18蒙电Y1</t>
+  </si>
+  <si>
+    <t>18民生银行01</t>
+  </si>
+  <si>
+    <t>19荣盛G1</t>
+  </si>
+  <si>
+    <t>18交通银行小微债</t>
   </si>
   <si>
     <t>17绍交03</t>
   </si>
   <si>
-    <t>G18龙源2</t>
-  </si>
-  <si>
-    <t>18华发03</t>
-  </si>
-  <si>
-    <t>17远东一</t>
-  </si>
-  <si>
-    <t>19长电01</t>
-  </si>
-  <si>
-    <t>19广发03</t>
-  </si>
-  <si>
-    <t>19国新01</t>
-  </si>
-  <si>
-    <t>19建材07</t>
+    <t>16中关02</t>
+  </si>
+  <si>
+    <t>18粤控02</t>
+  </si>
+  <si>
+    <t>18民生银行02</t>
+  </si>
+  <si>
+    <t>20航控Y5</t>
+  </si>
+  <si>
+    <t>18卓越06</t>
+  </si>
+  <si>
+    <t>18化学Y1</t>
+  </si>
+  <si>
+    <t>19中海01</t>
+  </si>
+  <si>
+    <t>12鲁高速</t>
+  </si>
+  <si>
+    <t>19南航01</t>
+  </si>
+  <si>
+    <t>19南京银行01</t>
+  </si>
+  <si>
+    <t>19亚迪01</t>
+  </si>
+  <si>
+    <t>20国金01</t>
+  </si>
+  <si>
+    <t>19华融湘江银行01</t>
+  </si>
+  <si>
+    <t>20湘高01</t>
+  </si>
+  <si>
+    <t>12石油05</t>
+  </si>
+  <si>
+    <t>12中石油05</t>
+  </si>
+  <si>
+    <t>19洪政G1</t>
+  </si>
+  <si>
+    <t>17重庆银行二级</t>
+  </si>
+  <si>
+    <t>17邮储银行二级01</t>
+  </si>
+  <si>
+    <t>19杭纾01</t>
+  </si>
+  <si>
+    <t>19浦发银行小微债01</t>
+  </si>
+  <si>
+    <t>19新兴绿色债02</t>
+  </si>
+  <si>
+    <t>15国网01</t>
+  </si>
+  <si>
+    <t>19新工01</t>
+  </si>
+  <si>
+    <t>19大唐Y1</t>
+  </si>
+  <si>
+    <t>19朝纾01</t>
+  </si>
+  <si>
+    <t>19国科01</t>
+  </si>
+  <si>
+    <t>17穗发01</t>
+  </si>
+  <si>
+    <t>19中银01</t>
+  </si>
+  <si>
+    <t>17广州银行二级</t>
+  </si>
+  <si>
+    <t>19华电02</t>
+  </si>
+  <si>
+    <t>19联通01</t>
+  </si>
+  <si>
+    <t>19华能02</t>
+  </si>
+  <si>
+    <t>19招商银行小微债01</t>
   </si>
   <si>
     <t>19中交Y1</t>
   </si>
   <si>
-    <t>17平租01</t>
-  </si>
-  <si>
-    <t>17长证02</t>
-  </si>
-  <si>
-    <t>19贵阳银行绿色金融01</t>
-  </si>
-  <si>
-    <t>19中财01</t>
-  </si>
-  <si>
-    <t>20中金13</t>
-  </si>
-  <si>
-    <t>19安信G1</t>
-  </si>
-  <si>
-    <t>17陕能02</t>
+    <t>17光控02</t>
+  </si>
+  <si>
+    <t>19华电04</t>
+  </si>
+  <si>
+    <t>20复地02</t>
+  </si>
+  <si>
+    <t>19宁安01</t>
+  </si>
+  <si>
+    <t>19中核03</t>
+  </si>
+  <si>
+    <t>19宇通02</t>
+  </si>
+  <si>
+    <t>PR中关村</t>
+  </si>
+  <si>
+    <t>17涪陵01</t>
+  </si>
+  <si>
+    <t>19鲁资03</t>
+  </si>
+  <si>
+    <t>17联投01</t>
+  </si>
+  <si>
+    <t>19上汽01</t>
+  </si>
+  <si>
+    <t>20招证G4</t>
+  </si>
+  <si>
+    <t>19邮政03</t>
+  </si>
+  <si>
+    <t>19住总Y1</t>
+  </si>
+  <si>
+    <t>17电投Y3</t>
+  </si>
+  <si>
+    <t>19信保Y1</t>
+  </si>
+  <si>
+    <t>20招证G6</t>
+  </si>
+  <si>
+    <t>18新控05</t>
+  </si>
+  <si>
+    <t>17建集Y1</t>
+  </si>
+  <si>
+    <t>19长发01</t>
+  </si>
+  <si>
+    <t>20中化Y7</t>
+  </si>
+  <si>
+    <t>18龙控05</t>
+  </si>
+  <si>
+    <t>12国网04</t>
+  </si>
+  <si>
+    <t>17工商银行二级02</t>
+  </si>
+  <si>
+    <t>19广核01</t>
+  </si>
+  <si>
+    <t>20银河G3</t>
+  </si>
+  <si>
+    <t>17贵产01</t>
   </si>
   <si>
     <t>20华泰G8</t>
   </si>
   <si>
-    <t>19常高05</t>
-  </si>
-  <si>
-    <t>20上航Y2</t>
-  </si>
-  <si>
-    <t>20中租01</t>
-  </si>
-  <si>
-    <t>20绿城01</t>
-  </si>
-  <si>
-    <t>20兵装02</t>
-  </si>
-  <si>
-    <t>20中交Y1</t>
-  </si>
-  <si>
-    <t>20中船03</t>
-  </si>
-  <si>
-    <t>20兴业银行小微债03</t>
-  </si>
-  <si>
-    <t>20中保Y1</t>
-  </si>
-  <si>
-    <t>18中国银行二级01</t>
-  </si>
-  <si>
-    <t>20龙控04</t>
-  </si>
-  <si>
-    <t>20长江05</t>
-  </si>
-  <si>
-    <t>18洋河01</t>
-  </si>
-  <si>
-    <t>20东债03</t>
-  </si>
-  <si>
-    <t>20海资G1</t>
+    <t>20国信04</t>
+  </si>
+  <si>
+    <t>20首股Y2</t>
+  </si>
+  <si>
+    <t>12甬交投债</t>
+  </si>
+  <si>
+    <t>19诚通01</t>
+  </si>
+  <si>
+    <t>19兴信01</t>
+  </si>
+  <si>
+    <t>19天津银行债</t>
+  </si>
+  <si>
+    <t>18铁道03</t>
+  </si>
+  <si>
+    <t>20奥园01</t>
+  </si>
+  <si>
+    <t>20铁投G1</t>
+  </si>
+  <si>
+    <t>20建工01</t>
+  </si>
+  <si>
+    <t>20中国信达债02BC(品种一)</t>
+  </si>
+  <si>
+    <t>PR渝产债</t>
+  </si>
+  <si>
+    <t>20华电Y1</t>
+  </si>
+  <si>
+    <t>20浙商银行小微债02</t>
+  </si>
+  <si>
+    <t>20中证G6</t>
+  </si>
+  <si>
+    <t>18创投S2</t>
+  </si>
+  <si>
+    <t>20深资01</t>
+  </si>
+  <si>
+    <t>20浦发银行01</t>
+  </si>
+  <si>
+    <t>20一汽01</t>
+  </si>
+  <si>
+    <t>20西咸03</t>
+  </si>
+  <si>
+    <t>20融创02</t>
+  </si>
+  <si>
+    <t>20平安银行小微债01</t>
+  </si>
+  <si>
+    <t>20浦土01</t>
+  </si>
+  <si>
+    <t>PR海发债</t>
+  </si>
+  <si>
+    <t>20湘路02</t>
+  </si>
+  <si>
+    <t>20诚通15</t>
+  </si>
+  <si>
+    <t>20信达G1</t>
+  </si>
+  <si>
+    <t>20招商G1</t>
+  </si>
+  <si>
+    <t>08大唐债</t>
+  </si>
+  <si>
+    <t>20龙控03</t>
+  </si>
+  <si>
+    <t>20华夏银行小微债01</t>
+  </si>
+  <si>
+    <t>20交通银行01</t>
+  </si>
+  <si>
+    <t>20兴业银行小微债05</t>
+  </si>
+  <si>
+    <t>20电投Y7</t>
+  </si>
+  <si>
+    <t>G18广业2</t>
+  </si>
+  <si>
+    <t>20北京银行小微债03</t>
+  </si>
+  <si>
+    <t>18粤财03</t>
+  </si>
+  <si>
+    <t>20苏交G2</t>
+  </si>
+  <si>
+    <t>20中交01</t>
+  </si>
+  <si>
+    <t>20国君G5</t>
+  </si>
+  <si>
+    <t>18中铝02</t>
+  </si>
+  <si>
+    <t>20青港01</t>
+  </si>
+  <si>
+    <t>20湘路08</t>
+  </si>
+  <si>
+    <t>20信保Y1</t>
+  </si>
+  <si>
+    <t>20邮政Y5</t>
+  </si>
+  <si>
+    <t>20深铁06</t>
+  </si>
+  <si>
+    <t>20中海03</t>
   </si>
   <si>
     <t>20交通银行02</t>
   </si>
   <si>
+    <t>16光控04</t>
+  </si>
+  <si>
     <t>G18首股</t>
   </si>
   <si>
-    <t>20青城05</t>
+    <t>20鲁金Y1</t>
+  </si>
+  <si>
+    <t>20国君G9</t>
+  </si>
+  <si>
+    <t>20华泰G9</t>
+  </si>
+  <si>
+    <t>20安纾03</t>
   </si>
   <si>
     <t>20华夏银行</t>
   </si>
   <si>
-    <t>20安纾03</t>
+    <t>20路桥02</t>
+  </si>
+  <si>
+    <t>19中国银行永续债01</t>
+  </si>
+  <si>
+    <t>19民生银行永续债</t>
+  </si>
+  <si>
+    <t>行权</t>
   </si>
   <si>
     <t>19工商银行永续债</t>
   </si>
   <si>
-    <t>14建行二级01</t>
-  </si>
-  <si>
-    <t>19东航01</t>
-  </si>
-  <si>
-    <t>电投Y24</t>
-  </si>
-  <si>
-    <t>20新际Y1</t>
-  </si>
-  <si>
-    <t>15长沙轨道债01</t>
-  </si>
-  <si>
-    <t>20江苏银行永续债</t>
-  </si>
-  <si>
-    <t>20沪国01</t>
-  </si>
-  <si>
-    <t>20招商银行永续债01</t>
-  </si>
-  <si>
-    <t>18湖州城投债01</t>
+    <t>19扬子02</t>
+  </si>
+  <si>
+    <t>19交通银行二级01</t>
+  </si>
+  <si>
+    <t>19农业银行永续债01</t>
+  </si>
+  <si>
+    <t>电投Y22</t>
+  </si>
+  <si>
+    <t>19长电02</t>
+  </si>
+  <si>
+    <t>19青城G2</t>
+  </si>
+  <si>
+    <t>19建设银行永续债</t>
+  </si>
+  <si>
+    <t>20航控02</t>
+  </si>
+  <si>
+    <t>18钱投债</t>
+  </si>
+  <si>
+    <t>20新际Y2</t>
+  </si>
+  <si>
+    <t>20京洁02</t>
+  </si>
+  <si>
+    <t>20华融湘江永续债</t>
+  </si>
+  <si>
+    <t>20厦轨01</t>
+  </si>
+  <si>
+    <t>20华泰G3</t>
+  </si>
+  <si>
+    <t>20农业银行永续债01</t>
+  </si>
+  <si>
+    <t>20粤科01</t>
+  </si>
+  <si>
+    <t>20光大银行永续债</t>
   </si>
   <si>
     <t>20徽商银行二级01</t>
   </si>
   <si>
-    <t>20浦发银行永续债</t>
-  </si>
-  <si>
-    <t>15正定棚改项目债</t>
-  </si>
-  <si>
-    <t>20汇金01</t>
-  </si>
-  <si>
-    <t>19国新02</t>
-  </si>
-  <si>
-    <t>19山高02</t>
-  </si>
-  <si>
-    <t>19铁道06</t>
-  </si>
-  <si>
-    <t>3.29</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>20兴业银行永续债</t>
+  </si>
+  <si>
+    <t>20中国银行永续债02</t>
+  </si>
+  <si>
+    <t>20赣速03</t>
+  </si>
+  <si>
+    <t>20东方资本债01</t>
+  </si>
+  <si>
+    <t>16保利04</t>
+  </si>
+  <si>
+    <t>16长电01</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>3.02行权</t>
+  </si>
+  <si>
+    <t>3.68</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>3.07行权</t>
+  </si>
+  <si>
+    <t>2.91</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>3.63行权</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>4.00行权</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>3.51</t>
   </si>
   <si>
     <t>3.1</t>
   </si>
   <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>3.25</t>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>3.25行权</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>3.42</t>
   </si>
   <si>
     <t>3.18</t>
   </si>
   <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>3.66</t>
+  </si>
+  <si>
+    <t>4.09</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
     <t>4.2</t>
   </si>
   <si>
-    <t>3.88</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>4.14</t>
+    <t>4.51</t>
+  </si>
+  <si>
+    <t>3.73</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>3.68行权</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>6.72行权</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>3.54</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>3.62</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>4.55</t>
+  </si>
+  <si>
+    <t>3.385</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>3.69</t>
+  </si>
+  <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>3.405</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>4.21</t>
+  </si>
+  <si>
+    <t>3.87</t>
+  </si>
+  <si>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>4.28</t>
+  </si>
+  <si>
+    <t>4.25</t>
   </si>
   <si>
     <t>3.95</t>
   </si>
   <si>
-    <t>3.66</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>3.33行权</t>
-  </si>
-  <si>
-    <t>3.28</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>3.67</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>3.76</t>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>3.95行权</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>5.3</t>
   </si>
   <si>
     <t>4.40</t>
   </si>
   <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>4.44</t>
-  </si>
-  <si>
-    <t>3.42</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>4.27</t>
-  </si>
-  <si>
-    <t>3.88行权</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.65</t>
-  </si>
-  <si>
-    <t>4.20行权</t>
-  </si>
-  <si>
-    <t>3.46</t>
-  </si>
-  <si>
-    <t>3.69</t>
-  </si>
-  <si>
-    <t>3.41</t>
-  </si>
-  <si>
-    <t>3.43</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.05行权</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.70</t>
-  </si>
-  <si>
-    <t>3.84</t>
+    <t>4.07</t>
   </si>
   <si>
     <t>4.58</t>
   </si>
   <si>
-    <t>4.555</t>
-  </si>
-  <si>
-    <t>4.06</t>
-  </si>
-  <si>
-    <t>5.04</t>
-  </si>
-  <si>
-    <t>4.63</t>
-  </si>
-  <si>
-    <t>5.07</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>4.08</t>
+    <t>4.99行权</t>
+  </si>
+  <si>
+    <t>4.60</t>
+  </si>
+  <si>
+    <t>4.49</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>4.86</t>
+  </si>
+  <si>
+    <t>3.82</t>
   </si>
   <si>
     <t>AAA</t>
@@ -544,7 +1252,7 @@
     <t>AA+/AAA</t>
   </si>
   <si>
-    <t>AA/AAA</t>
+    <t>AAA/AA+</t>
   </si>
 </sst>
 </file>
@@ -902,7 +1610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -933,16 +1641,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F2">
-        <v>0.8200000000000001</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -953,16 +1661,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>303</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F3">
-        <v>0.8273972602739726</v>
+        <v>0.8547945205479452</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -970,19 +1678,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>304</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F4">
-        <v>0.8273972602739726</v>
+        <v>0.873972602739726</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -990,19 +1698,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="E5" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F5">
-        <v>0.873972602739726</v>
+        <v>0.8794520547945206</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1010,19 +1718,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>306</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F6">
-        <v>0.873972602739726</v>
+        <v>0.8904109589041096</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1030,19 +1738,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>305</v>
       </c>
       <c r="E7" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F7">
-        <v>0.8931506849315068</v>
+        <v>0.9013698630136986</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1050,19 +1758,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>307</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F8">
-        <v>0.8931506849315068</v>
+        <v>0.9041095890410958</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1070,19 +1778,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>308</v>
       </c>
       <c r="E9" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F9">
-        <v>0.8931506849315068</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1090,19 +1798,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>309</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F10">
-        <v>0.9178082191780822</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1110,19 +1818,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>309</v>
       </c>
       <c r="E11" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F11">
-        <v>0.9260273972602739</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1130,19 +1838,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>310</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F12">
-        <v>0.9424657534246575</v>
+        <v>0.9397260273972603</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1150,19 +1858,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>311</v>
       </c>
       <c r="E13" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F13">
-        <v>1.12</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1170,19 +1878,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>312</v>
       </c>
       <c r="E14" t="s">
-        <v>174</v>
+        <v>411</v>
       </c>
       <c r="F14">
-        <v>1.12</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1190,19 +1898,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>311</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F15">
-        <v>1.12</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1210,19 +1918,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>313</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F16">
-        <v>1.12</v>
+        <v>0.9671232876712329</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1230,19 +1938,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>313</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F17">
-        <v>1.14</v>
+        <v>0.9671232876712329</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1250,19 +1958,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>313</v>
       </c>
       <c r="E18" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F18">
-        <v>1.14</v>
+        <v>0.9671232876712329</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1270,19 +1978,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>314</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F19">
-        <v>1.16</v>
+        <v>1.04986301369863</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1290,19 +1998,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="E20" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F20">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1310,19 +2018,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>315</v>
       </c>
       <c r="E21" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F21">
-        <v>1.44</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1330,19 +2038,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="E22" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F22">
-        <v>1.52</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1350,19 +2058,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>316</v>
       </c>
       <c r="E23" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F23">
-        <v>1.55013698630137</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1370,19 +2078,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>317</v>
       </c>
       <c r="E24" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F24">
-        <v>1.57013698630137</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1390,19 +2098,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>316</v>
       </c>
       <c r="E25" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F25">
-        <v>1.7</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1413,16 +2121,16 @@
         <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>316</v>
       </c>
       <c r="E26" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F26">
-        <v>1.79013698630137</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1430,19 +2138,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>137</v>
+        <v>318</v>
       </c>
       <c r="E27" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F27">
-        <v>1.82</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1450,19 +2158,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>138</v>
+        <v>319</v>
       </c>
       <c r="E28" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F28">
-        <v>1.87013698630137</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1470,19 +2178,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>139</v>
+        <v>316</v>
       </c>
       <c r="E29" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F29">
-        <v>1.92986301369863</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1490,19 +2198,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>320</v>
       </c>
       <c r="E30" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F30">
-        <v>1.94</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1510,19 +2218,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>141</v>
+        <v>321</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F31">
-        <v>1.94</v>
+        <v>1.16986301369863</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1530,19 +2238,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
-        <v>141</v>
+        <v>321</v>
       </c>
       <c r="E32" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F32">
-        <v>1.94</v>
+        <v>1.16986301369863</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1550,19 +2258,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>322</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F33">
-        <v>1.94</v>
+        <v>1.16986301369863</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1570,19 +2278,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>143</v>
+        <v>323</v>
       </c>
       <c r="E34" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F34">
-        <v>1.98</v>
+        <v>1.18986301369863</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1590,19 +2298,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>144</v>
+        <v>323</v>
       </c>
       <c r="E35" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F35">
-        <v>2.04</v>
+        <v>1.18986301369863</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1610,19 +2318,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="D36" t="s">
-        <v>145</v>
+        <v>323</v>
       </c>
       <c r="E36" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F36">
-        <v>2.18</v>
+        <v>1.18986301369863</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1630,19 +2338,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
-        <v>145</v>
+        <v>324</v>
       </c>
       <c r="E37" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F37">
-        <v>2.18</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1650,19 +2358,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
-        <v>146</v>
+        <v>325</v>
       </c>
       <c r="E38" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F38">
-        <v>2.30986301369863</v>
+        <v>1.20986301369863</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1670,19 +2378,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
-        <v>147</v>
+        <v>326</v>
       </c>
       <c r="E39" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F39">
-        <v>2.32</v>
+        <v>1.20986301369863</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1690,19 +2398,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="D40" t="s">
-        <v>148</v>
+        <v>327</v>
       </c>
       <c r="E40" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F40">
-        <v>2.32</v>
+        <v>1.20986301369863</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1710,19 +2418,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>317</v>
       </c>
       <c r="E41" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F41">
-        <v>2.32</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1730,19 +2438,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="D42" t="s">
-        <v>149</v>
+        <v>328</v>
       </c>
       <c r="E42" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F42">
-        <v>2.4</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1750,19 +2458,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="D43" t="s">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F43">
-        <v>2.66</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1770,19 +2478,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="D44" t="s">
-        <v>151</v>
+        <v>330</v>
       </c>
       <c r="E44" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F44">
-        <v>2.68</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1790,19 +2498,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>329</v>
       </c>
       <c r="E45" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F45">
-        <v>2.68</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1810,19 +2518,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>152</v>
+        <v>329</v>
       </c>
       <c r="E46" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F46">
-        <v>2.7</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1830,19 +2538,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>331</v>
       </c>
       <c r="E47" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F47">
-        <v>2.72</v>
+        <v>1.27013698630137</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1850,19 +2558,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="D48" t="s">
-        <v>154</v>
+        <v>331</v>
       </c>
       <c r="E48" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F48">
-        <v>2.83013698630137</v>
+        <v>1.27013698630137</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1870,19 +2578,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>307</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F49">
-        <v>2.84</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1890,19 +2598,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>320</v>
       </c>
       <c r="E50" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F50">
-        <v>2.84</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1910,19 +2618,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="D51" t="s">
-        <v>148</v>
+        <v>332</v>
       </c>
       <c r="E51" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F51">
-        <v>2.86986301369863</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1930,19 +2638,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>182</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>332</v>
       </c>
       <c r="E52" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F52">
-        <v>2.91013698630137</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1950,19 +2658,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>183</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>314</v>
       </c>
       <c r="E53" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F53">
-        <v>2.93013698630137</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1970,19 +2678,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>325</v>
       </c>
       <c r="E54" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F54">
-        <v>2.96</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1990,19 +2698,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="D55" t="s">
-        <v>159</v>
+        <v>315</v>
       </c>
       <c r="E55" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F55">
-        <v>2.96</v>
+        <v>1.44986301369863</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2010,19 +2718,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="D56" t="s">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="E56" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F56">
-        <v>2.96</v>
+        <v>1.44986301369863</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2030,19 +2738,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="E57" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F57">
-        <v>2.96</v>
+        <v>1.50986301369863</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2050,19 +2758,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="D58" t="s">
-        <v>158</v>
+        <v>333</v>
       </c>
       <c r="E58" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F58">
-        <v>2.96</v>
+        <v>1.50986301369863</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2070,19 +2778,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>334</v>
       </c>
       <c r="E59" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F59">
-        <v>2.96</v>
+        <v>1.50986301369863</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2090,19 +2798,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>316</v>
       </c>
       <c r="E60" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F60">
-        <v>2.96</v>
+        <v>1.50986301369863</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2110,19 +2818,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>335</v>
       </c>
       <c r="E61" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F61">
-        <v>2.96</v>
+        <v>1.50986301369863</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2130,19 +2838,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="D62" t="s">
-        <v>158</v>
+        <v>336</v>
       </c>
       <c r="E62" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F62">
-        <v>2.96</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2150,19 +2858,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>192</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>337</v>
       </c>
       <c r="E63" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F63">
-        <v>2.96</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2170,19 +2878,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="D64" t="s">
-        <v>160</v>
+        <v>338</v>
       </c>
       <c r="E64" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F64">
-        <v>3.58</v>
+        <v>1.55013698630137</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2190,19 +2898,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C65" t="s">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="D65" t="s">
-        <v>160</v>
+        <v>338</v>
       </c>
       <c r="E65" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F65">
-        <v>3.58</v>
+        <v>1.55013698630137</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2210,19 +2918,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>161</v>
+        <v>338</v>
       </c>
       <c r="E66" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F66">
-        <v>3.63013698630137</v>
+        <v>1.55013698630137</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2230,19 +2938,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>338</v>
       </c>
       <c r="E67" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F67">
-        <v>3.63013698630137</v>
+        <v>1.55013698630137</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2250,19 +2958,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="D68" t="s">
-        <v>161</v>
+        <v>339</v>
       </c>
       <c r="E68" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F68">
-        <v>3.63013698630137</v>
+        <v>1.55013698630137</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2270,19 +2978,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="D69" t="s">
-        <v>154</v>
+        <v>340</v>
       </c>
       <c r="E69" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F69">
-        <v>3.64</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2290,19 +2998,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="D70" t="s">
-        <v>133</v>
+        <v>320</v>
       </c>
       <c r="E70" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F70">
-        <v>3.66986301369863</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2310,19 +3018,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="D71" t="s">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c r="E71" t="s">
-        <v>174</v>
+        <v>411</v>
       </c>
       <c r="F71">
-        <v>4.18</v>
+        <v>1.61013698630137</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2330,19 +3038,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>108</v>
+        <v>197</v>
       </c>
       <c r="D72" t="s">
-        <v>162</v>
+        <v>304</v>
       </c>
       <c r="E72" t="s">
-        <v>174</v>
+        <v>411</v>
       </c>
       <c r="F72">
-        <v>4.18</v>
+        <v>1.61013698630137</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2350,19 +3058,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="D73" t="s">
-        <v>142</v>
+        <v>341</v>
       </c>
       <c r="E73" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F73">
-        <v>4.24986301369863</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2370,19 +3078,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>110</v>
+        <v>199</v>
       </c>
       <c r="D74" t="s">
-        <v>163</v>
+        <v>342</v>
       </c>
       <c r="E74" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F74">
-        <v>4.24986301369863</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2390,19 +3098,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="D75" t="s">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="E75" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F75">
-        <v>4.28</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2410,19 +3118,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>307</v>
       </c>
       <c r="E76" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F76">
-        <v>4.52</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2430,19 +3138,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="D77" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
       <c r="E77" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F77">
-        <v>4.52</v>
+        <v>1.70986301369863</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2450,19 +3158,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>202</v>
       </c>
       <c r="D78" t="s">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c r="E78" t="s">
-        <v>175</v>
+        <v>410</v>
       </c>
       <c r="F78">
-        <v>4.73013698630137</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2470,19 +3178,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="D79" t="s">
-        <v>168</v>
+        <v>314</v>
       </c>
       <c r="E79" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F79">
-        <v>4.739999999999999</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2490,19 +3198,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="D80" t="s">
-        <v>169</v>
+        <v>314</v>
       </c>
       <c r="E80" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F80">
-        <v>4.9</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2510,19 +3218,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="D81" t="s">
-        <v>170</v>
+        <v>343</v>
       </c>
       <c r="E81" t="s">
-        <v>176</v>
+        <v>410</v>
       </c>
       <c r="F81">
-        <v>4.98</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2530,19 +3238,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="D82" t="s">
-        <v>171</v>
+        <v>344</v>
       </c>
       <c r="E82" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F82">
-        <v>6.720000000000001</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2550,19 +3258,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="D83" t="s">
-        <v>172</v>
+        <v>344</v>
       </c>
       <c r="E83" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F83">
-        <v>8.689863013698631</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2570,19 +3278,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="D84" t="s">
-        <v>173</v>
+        <v>344</v>
       </c>
       <c r="E84" t="s">
-        <v>174</v>
+        <v>410</v>
       </c>
       <c r="F84">
-        <v>8.9</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2590,19 +3298,3659 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" t="s">
+        <v>205</v>
+      </c>
+      <c r="D85" t="s">
+        <v>345</v>
+      </c>
+      <c r="E85" t="s">
+        <v>410</v>
+      </c>
+      <c r="F85">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" t="s">
+        <v>205</v>
+      </c>
+      <c r="D86" t="s">
+        <v>345</v>
+      </c>
+      <c r="E86" t="s">
+        <v>410</v>
+      </c>
+      <c r="F86">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" t="s">
+        <v>206</v>
+      </c>
+      <c r="D87" t="s">
+        <v>346</v>
+      </c>
+      <c r="E87" t="s">
+        <v>410</v>
+      </c>
+      <c r="F87">
+        <v>1.80986301369863</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" t="s">
+        <v>346</v>
+      </c>
+      <c r="E88" t="s">
+        <v>410</v>
+      </c>
+      <c r="F88">
+        <v>1.80986301369863</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" t="s">
+        <v>347</v>
+      </c>
+      <c r="E89" t="s">
+        <v>410</v>
+      </c>
+      <c r="F89">
+        <v>1.80986301369863</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" t="s">
+        <v>348</v>
+      </c>
+      <c r="E90" t="s">
+        <v>410</v>
+      </c>
+      <c r="F90">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>58</v>
+      </c>
+      <c r="C91" t="s">
+        <v>208</v>
+      </c>
+      <c r="D91" t="s">
+        <v>348</v>
+      </c>
+      <c r="E91" t="s">
+        <v>410</v>
+      </c>
+      <c r="F91">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" t="s">
+        <v>208</v>
+      </c>
+      <c r="D92" t="s">
+        <v>348</v>
+      </c>
+      <c r="E92" t="s">
+        <v>410</v>
+      </c>
+      <c r="F92">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" t="s">
+        <v>209</v>
+      </c>
+      <c r="D93" t="s">
+        <v>349</v>
+      </c>
+      <c r="E93" t="s">
+        <v>410</v>
+      </c>
+      <c r="F93">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>60</v>
+      </c>
+      <c r="C94" t="s">
+        <v>210</v>
+      </c>
+      <c r="D94" t="s">
+        <v>350</v>
+      </c>
+      <c r="E94" t="s">
+        <v>410</v>
+      </c>
+      <c r="F94">
+        <v>1.83013698630137</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" t="s">
+        <v>211</v>
+      </c>
+      <c r="D95" t="s">
+        <v>351</v>
+      </c>
+      <c r="E95" t="s">
+        <v>410</v>
+      </c>
+      <c r="F95">
+        <v>1.87013698630137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" t="s">
+        <v>211</v>
+      </c>
+      <c r="D96" t="s">
+        <v>351</v>
+      </c>
+      <c r="E96" t="s">
+        <v>410</v>
+      </c>
+      <c r="F96">
+        <v>1.87013698630137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" t="s">
+        <v>212</v>
+      </c>
+      <c r="D97" t="s">
+        <v>352</v>
+      </c>
+      <c r="E97" t="s">
+        <v>410</v>
+      </c>
+      <c r="F97">
+        <v>1.87013698630137</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
         <v>62</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C98" t="s">
+        <v>213</v>
+      </c>
+      <c r="D98" t="s">
+        <v>304</v>
+      </c>
+      <c r="E98" t="s">
+        <v>410</v>
+      </c>
+      <c r="F98">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>62</v>
+      </c>
+      <c r="C99" t="s">
+        <v>213</v>
+      </c>
+      <c r="D99" t="s">
+        <v>304</v>
+      </c>
+      <c r="E99" t="s">
+        <v>410</v>
+      </c>
+      <c r="F99">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>62</v>
+      </c>
+      <c r="C100" t="s">
+        <v>213</v>
+      </c>
+      <c r="D100" t="s">
+        <v>353</v>
+      </c>
+      <c r="E100" t="s">
+        <v>410</v>
+      </c>
+      <c r="F100">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>62</v>
+      </c>
+      <c r="C101" t="s">
+        <v>213</v>
+      </c>
+      <c r="D101" t="s">
+        <v>304</v>
+      </c>
+      <c r="E101" t="s">
+        <v>410</v>
+      </c>
+      <c r="F101">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>62</v>
+      </c>
+      <c r="C102" t="s">
+        <v>213</v>
+      </c>
+      <c r="D102" t="s">
+        <v>304</v>
+      </c>
+      <c r="E102" t="s">
+        <v>410</v>
+      </c>
+      <c r="F102">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" t="s">
+        <v>354</v>
+      </c>
+      <c r="E103" t="s">
+        <v>410</v>
+      </c>
+      <c r="F103">
+        <v>1.88986301369863</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" t="s">
+        <v>354</v>
+      </c>
+      <c r="E104" t="s">
+        <v>410</v>
+      </c>
+      <c r="F104">
+        <v>1.88986301369863</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" t="s">
+        <v>354</v>
+      </c>
+      <c r="E105" t="s">
+        <v>410</v>
+      </c>
+      <c r="F105">
+        <v>1.88986301369863</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>63</v>
+      </c>
+      <c r="C106" t="s">
+        <v>215</v>
+      </c>
+      <c r="D106" t="s">
+        <v>355</v>
+      </c>
+      <c r="E106" t="s">
+        <v>410</v>
+      </c>
+      <c r="F106">
+        <v>1.88986301369863</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>63</v>
+      </c>
+      <c r="C107" t="s">
+        <v>214</v>
+      </c>
+      <c r="D107" t="s">
+        <v>354</v>
+      </c>
+      <c r="E107" t="s">
+        <v>410</v>
+      </c>
+      <c r="F107">
+        <v>1.88986301369863</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>63</v>
+      </c>
+      <c r="C108" t="s">
+        <v>215</v>
+      </c>
+      <c r="D108" t="s">
+        <v>355</v>
+      </c>
+      <c r="E108" t="s">
+        <v>410</v>
+      </c>
+      <c r="F108">
+        <v>1.88986301369863</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>63</v>
+      </c>
+      <c r="C109" t="s">
+        <v>214</v>
+      </c>
+      <c r="D109" t="s">
+        <v>354</v>
+      </c>
+      <c r="E109" t="s">
+        <v>410</v>
+      </c>
+      <c r="F109">
+        <v>1.88986301369863</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>63</v>
+      </c>
+      <c r="C110" t="s">
+        <v>215</v>
+      </c>
+      <c r="D110" t="s">
+        <v>355</v>
+      </c>
+      <c r="E110" t="s">
+        <v>410</v>
+      </c>
+      <c r="F110">
+        <v>1.88986301369863</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>63</v>
+      </c>
+      <c r="C111" t="s">
+        <v>215</v>
+      </c>
+      <c r="D111" t="s">
+        <v>355</v>
+      </c>
+      <c r="E111" t="s">
+        <v>410</v>
+      </c>
+      <c r="F111">
+        <v>1.88986301369863</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>63</v>
+      </c>
+      <c r="C112" t="s">
+        <v>215</v>
+      </c>
+      <c r="D112" t="s">
+        <v>355</v>
+      </c>
+      <c r="E112" t="s">
+        <v>410</v>
+      </c>
+      <c r="F112">
+        <v>1.88986301369863</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" t="s">
+        <v>216</v>
+      </c>
+      <c r="D113" t="s">
+        <v>356</v>
+      </c>
+      <c r="E113" t="s">
+        <v>411</v>
+      </c>
+      <c r="F113">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" t="s">
+        <v>217</v>
+      </c>
+      <c r="D114" t="s">
+        <v>355</v>
+      </c>
+      <c r="E114" t="s">
+        <v>410</v>
+      </c>
+      <c r="F114">
+        <v>1.92986301369863</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" t="s">
+        <v>218</v>
+      </c>
+      <c r="D115" t="s">
+        <v>357</v>
+      </c>
+      <c r="E115" t="s">
+        <v>410</v>
+      </c>
+      <c r="F115">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" t="s">
+        <v>219</v>
+      </c>
+      <c r="D116" t="s">
+        <v>358</v>
+      </c>
+      <c r="E116" t="s">
+        <v>410</v>
+      </c>
+      <c r="F116">
+        <v>1.95013698630137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>68</v>
+      </c>
+      <c r="C117" t="s">
+        <v>220</v>
+      </c>
+      <c r="D117" t="s">
+        <v>359</v>
+      </c>
+      <c r="E117" t="s">
+        <v>410</v>
+      </c>
+      <c r="F117">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>68</v>
+      </c>
+      <c r="C118" t="s">
+        <v>220</v>
+      </c>
+      <c r="D118" t="s">
+        <v>359</v>
+      </c>
+      <c r="E118" t="s">
+        <v>410</v>
+      </c>
+      <c r="F118">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>68</v>
+      </c>
+      <c r="C119" t="s">
+        <v>221</v>
+      </c>
+      <c r="D119" t="s">
+        <v>313</v>
+      </c>
+      <c r="E119" t="s">
+        <v>410</v>
+      </c>
+      <c r="F119">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>69</v>
+      </c>
+      <c r="C120" t="s">
+        <v>222</v>
+      </c>
+      <c r="D120" t="s">
+        <v>360</v>
+      </c>
+      <c r="E120" t="s">
+        <v>410</v>
+      </c>
+      <c r="F120">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>70</v>
+      </c>
+      <c r="C121" t="s">
+        <v>223</v>
+      </c>
+      <c r="D121" t="s">
+        <v>361</v>
+      </c>
+      <c r="E121" t="s">
+        <v>410</v>
+      </c>
+      <c r="F121">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="D85" t="s">
+      <c r="B122" t="s">
+        <v>71</v>
+      </c>
+      <c r="C122" t="s">
+        <v>224</v>
+      </c>
+      <c r="D122" t="s">
+        <v>308</v>
+      </c>
+      <c r="E122" t="s">
+        <v>410</v>
+      </c>
+      <c r="F122">
+        <v>2.06986301369863</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>71</v>
+      </c>
+      <c r="C123" t="s">
+        <v>224</v>
+      </c>
+      <c r="D123" t="s">
+        <v>308</v>
+      </c>
+      <c r="E123" t="s">
+        <v>410</v>
+      </c>
+      <c r="F123">
+        <v>2.06986301369863</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>72</v>
+      </c>
+      <c r="C124" t="s">
+        <v>225</v>
+      </c>
+      <c r="D124" t="s">
+        <v>362</v>
+      </c>
+      <c r="E124" t="s">
+        <v>410</v>
+      </c>
+      <c r="F124">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>72</v>
+      </c>
+      <c r="C125" t="s">
+        <v>225</v>
+      </c>
+      <c r="D125" t="s">
+        <v>362</v>
+      </c>
+      <c r="E125" t="s">
+        <v>410</v>
+      </c>
+      <c r="F125">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>73</v>
+      </c>
+      <c r="C126" t="s">
+        <v>226</v>
+      </c>
+      <c r="D126" t="s">
+        <v>363</v>
+      </c>
+      <c r="E126" t="s">
+        <v>410</v>
+      </c>
+      <c r="F126">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>73</v>
+      </c>
+      <c r="C127" t="s">
+        <v>226</v>
+      </c>
+      <c r="D127" t="s">
+        <v>364</v>
+      </c>
+      <c r="E127" t="s">
+        <v>410</v>
+      </c>
+      <c r="F127">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>74</v>
+      </c>
+      <c r="C128" t="s">
+        <v>227</v>
+      </c>
+      <c r="D128" t="s">
+        <v>365</v>
+      </c>
+      <c r="E128" t="s">
+        <v>410</v>
+      </c>
+      <c r="F128">
+        <v>2.19013698630137</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>74</v>
+      </c>
+      <c r="C129" t="s">
+        <v>227</v>
+      </c>
+      <c r="D129" t="s">
+        <v>365</v>
+      </c>
+      <c r="E129" t="s">
+        <v>410</v>
+      </c>
+      <c r="F129">
+        <v>2.19013698630137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" t="s">
+        <v>227</v>
+      </c>
+      <c r="D130" t="s">
+        <v>365</v>
+      </c>
+      <c r="E130" t="s">
+        <v>410</v>
+      </c>
+      <c r="F130">
+        <v>2.19013698630137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>74</v>
+      </c>
+      <c r="C131" t="s">
+        <v>227</v>
+      </c>
+      <c r="D131" t="s">
+        <v>365</v>
+      </c>
+      <c r="E131" t="s">
+        <v>410</v>
+      </c>
+      <c r="F131">
+        <v>2.19013698630137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>75</v>
+      </c>
+      <c r="C132" t="s">
+        <v>228</v>
+      </c>
+      <c r="D132" t="s">
+        <v>340</v>
+      </c>
+      <c r="E132" t="s">
+        <v>410</v>
+      </c>
+      <c r="F132">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>76</v>
+      </c>
+      <c r="C133" t="s">
+        <v>229</v>
+      </c>
+      <c r="D133" t="s">
+        <v>359</v>
+      </c>
+      <c r="E133" t="s">
+        <v>410</v>
+      </c>
+      <c r="F133">
+        <v>2.20986301369863</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>77</v>
+      </c>
+      <c r="C134" t="s">
+        <v>230</v>
+      </c>
+      <c r="D134" t="s">
+        <v>361</v>
+      </c>
+      <c r="E134" t="s">
+        <v>410</v>
+      </c>
+      <c r="F134">
+        <v>2.23013698630137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="E85" t="s">
+      <c r="B135" t="s">
+        <v>77</v>
+      </c>
+      <c r="C135" t="s">
+        <v>230</v>
+      </c>
+      <c r="D135" t="s">
+        <v>361</v>
+      </c>
+      <c r="E135" t="s">
+        <v>410</v>
+      </c>
+      <c r="F135">
+        <v>2.23013698630137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>77</v>
+      </c>
+      <c r="C136" t="s">
+        <v>230</v>
+      </c>
+      <c r="D136" t="s">
+        <v>361</v>
+      </c>
+      <c r="E136" t="s">
+        <v>410</v>
+      </c>
+      <c r="F136">
+        <v>2.23013698630137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>78</v>
+      </c>
+      <c r="C137" t="s">
+        <v>231</v>
+      </c>
+      <c r="D137" t="s">
+        <v>330</v>
+      </c>
+      <c r="E137" t="s">
+        <v>410</v>
+      </c>
+      <c r="F137">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>79</v>
+      </c>
+      <c r="C138" t="s">
+        <v>232</v>
+      </c>
+      <c r="D138" t="s">
+        <v>366</v>
+      </c>
+      <c r="E138" t="s">
+        <v>410</v>
+      </c>
+      <c r="F138">
+        <v>2.26986301369863</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>80</v>
+      </c>
+      <c r="C139" t="s">
+        <v>233</v>
+      </c>
+      <c r="D139" t="s">
+        <v>367</v>
+      </c>
+      <c r="E139" t="s">
+        <v>410</v>
+      </c>
+      <c r="F139">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>81</v>
+      </c>
+      <c r="C140" t="s">
+        <v>234</v>
+      </c>
+      <c r="D140" t="s">
+        <v>368</v>
+      </c>
+      <c r="E140" t="s">
+        <v>410</v>
+      </c>
+      <c r="F140">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>81</v>
+      </c>
+      <c r="C141" t="s">
+        <v>234</v>
+      </c>
+      <c r="D141" t="s">
+        <v>368</v>
+      </c>
+      <c r="E141" t="s">
+        <v>410</v>
+      </c>
+      <c r="F141">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>82</v>
+      </c>
+      <c r="C142" t="s">
+        <v>235</v>
+      </c>
+      <c r="D142" t="s">
+        <v>369</v>
+      </c>
+      <c r="E142" t="s">
+        <v>410</v>
+      </c>
+      <c r="F142">
+        <v>2.30986301369863</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>82</v>
+      </c>
+      <c r="C143" t="s">
+        <v>236</v>
+      </c>
+      <c r="D143" t="s">
+        <v>359</v>
+      </c>
+      <c r="E143" t="s">
+        <v>410</v>
+      </c>
+      <c r="F143">
+        <v>2.30986301369863</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>83</v>
+      </c>
+      <c r="C144" t="s">
+        <v>237</v>
+      </c>
+      <c r="D144" t="s">
+        <v>370</v>
+      </c>
+      <c r="E144" t="s">
+        <v>410</v>
+      </c>
+      <c r="F144">
+        <v>2.33013698630137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>83</v>
+      </c>
+      <c r="C145" t="s">
+        <v>237</v>
+      </c>
+      <c r="D145" t="s">
+        <v>370</v>
+      </c>
+      <c r="E145" t="s">
+        <v>410</v>
+      </c>
+      <c r="F145">
+        <v>2.33013698630137</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>84</v>
+      </c>
+      <c r="C146" t="s">
+        <v>238</v>
+      </c>
+      <c r="D146" t="s">
+        <v>371</v>
+      </c>
+      <c r="E146" t="s">
+        <v>410</v>
+      </c>
+      <c r="F146">
+        <v>2.39013698630137</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>85</v>
+      </c>
+      <c r="C147" t="s">
+        <v>239</v>
+      </c>
+      <c r="D147" t="s">
+        <v>324</v>
+      </c>
+      <c r="E147" t="s">
+        <v>410</v>
+      </c>
+      <c r="F147">
+        <v>2.39013698630137</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>85</v>
+      </c>
+      <c r="C148" t="s">
+        <v>239</v>
+      </c>
+      <c r="D148" t="s">
+        <v>324</v>
+      </c>
+      <c r="E148" t="s">
+        <v>410</v>
+      </c>
+      <c r="F148">
+        <v>2.39013698630137</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>86</v>
+      </c>
+      <c r="C149" t="s">
+        <v>240</v>
+      </c>
+      <c r="D149" t="s">
+        <v>313</v>
+      </c>
+      <c r="E149" t="s">
+        <v>411</v>
+      </c>
+      <c r="F149">
+        <v>2.41013698630137</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>87</v>
+      </c>
+      <c r="C150" t="s">
+        <v>241</v>
+      </c>
+      <c r="D150" t="s">
+        <v>372</v>
+      </c>
+      <c r="E150" t="s">
+        <v>411</v>
+      </c>
+      <c r="F150">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>88</v>
+      </c>
+      <c r="C151" t="s">
+        <v>242</v>
+      </c>
+      <c r="D151" t="s">
+        <v>311</v>
+      </c>
+      <c r="E151" t="s">
+        <v>410</v>
+      </c>
+      <c r="F151">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>88</v>
+      </c>
+      <c r="C152" t="s">
+        <v>242</v>
+      </c>
+      <c r="D152" t="s">
+        <v>311</v>
+      </c>
+      <c r="E152" t="s">
+        <v>410</v>
+      </c>
+      <c r="F152">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>89</v>
+      </c>
+      <c r="C153" t="s">
+        <v>243</v>
+      </c>
+      <c r="D153" t="s">
+        <v>304</v>
+      </c>
+      <c r="E153" t="s">
+        <v>410</v>
+      </c>
+      <c r="F153">
+        <v>2.47013698630137</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>89</v>
+      </c>
+      <c r="C154" t="s">
+        <v>243</v>
+      </c>
+      <c r="D154" t="s">
+        <v>304</v>
+      </c>
+      <c r="E154" t="s">
+        <v>410</v>
+      </c>
+      <c r="F154">
+        <v>2.47013698630137</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>89</v>
+      </c>
+      <c r="C155" t="s">
+        <v>243</v>
+      </c>
+      <c r="D155" t="s">
+        <v>304</v>
+      </c>
+      <c r="E155" t="s">
+        <v>410</v>
+      </c>
+      <c r="F155">
+        <v>2.47013698630137</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>90</v>
+      </c>
+      <c r="C156" t="s">
+        <v>244</v>
+      </c>
+      <c r="D156" t="s">
+        <v>328</v>
+      </c>
+      <c r="E156" t="s">
+        <v>410</v>
+      </c>
+      <c r="F156">
+        <v>2.52986301369863</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>91</v>
+      </c>
+      <c r="C157" t="s">
+        <v>245</v>
+      </c>
+      <c r="D157" t="s">
+        <v>357</v>
+      </c>
+      <c r="E157" t="s">
+        <v>410</v>
+      </c>
+      <c r="F157">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>92</v>
+      </c>
+      <c r="C158" t="s">
+        <v>246</v>
+      </c>
+      <c r="D158" t="s">
+        <v>330</v>
+      </c>
+      <c r="E158" t="s">
+        <v>410</v>
+      </c>
+      <c r="F158">
+        <v>2.54986301369863</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>93</v>
+      </c>
+      <c r="C159" t="s">
+        <v>247</v>
+      </c>
+      <c r="D159" t="s">
+        <v>372</v>
+      </c>
+      <c r="E159" t="s">
+        <v>410</v>
+      </c>
+      <c r="F159">
+        <v>2.54986301369863</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>94</v>
+      </c>
+      <c r="C160" t="s">
+        <v>248</v>
+      </c>
+      <c r="D160" t="s">
+        <v>320</v>
+      </c>
+      <c r="E160" t="s">
+        <v>410</v>
+      </c>
+      <c r="F160">
+        <v>2.58986301369863</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>94</v>
+      </c>
+      <c r="C161" t="s">
+        <v>248</v>
+      </c>
+      <c r="D161" t="s">
+        <v>369</v>
+      </c>
+      <c r="E161" t="s">
+        <v>410</v>
+      </c>
+      <c r="F161">
+        <v>2.58986301369863</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>94</v>
+      </c>
+      <c r="C162" t="s">
+        <v>249</v>
+      </c>
+      <c r="D162" t="s">
+        <v>373</v>
+      </c>
+      <c r="E162" t="s">
+        <v>410</v>
+      </c>
+      <c r="F162">
+        <v>2.58986301369863</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>94</v>
+      </c>
+      <c r="C163" t="s">
+        <v>248</v>
+      </c>
+      <c r="D163" t="s">
+        <v>374</v>
+      </c>
+      <c r="E163" t="s">
+        <v>410</v>
+      </c>
+      <c r="F163">
+        <v>2.58986301369863</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>94</v>
+      </c>
+      <c r="C164" t="s">
+        <v>249</v>
+      </c>
+      <c r="D164" t="s">
+        <v>373</v>
+      </c>
+      <c r="E164" t="s">
+        <v>410</v>
+      </c>
+      <c r="F164">
+        <v>2.58986301369863</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>94</v>
+      </c>
+      <c r="C165" t="s">
+        <v>249</v>
+      </c>
+      <c r="D165" t="s">
+        <v>373</v>
+      </c>
+      <c r="E165" t="s">
+        <v>410</v>
+      </c>
+      <c r="F165">
+        <v>2.58986301369863</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>94</v>
+      </c>
+      <c r="C166" t="s">
+        <v>248</v>
+      </c>
+      <c r="D166" t="s">
+        <v>369</v>
+      </c>
+      <c r="E166" t="s">
+        <v>410</v>
+      </c>
+      <c r="F166">
+        <v>2.58986301369863</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>95</v>
+      </c>
+      <c r="C167" t="s">
+        <v>250</v>
+      </c>
+      <c r="D167" t="s">
+        <v>374</v>
+      </c>
+      <c r="E167" t="s">
+        <v>410</v>
+      </c>
+      <c r="F167">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>96</v>
+      </c>
+      <c r="C168" t="s">
+        <v>251</v>
+      </c>
+      <c r="D168" t="s">
+        <v>375</v>
+      </c>
+      <c r="E168" t="s">
+        <v>410</v>
+      </c>
+      <c r="F168">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>95</v>
+      </c>
+      <c r="C169" t="s">
+        <v>250</v>
+      </c>
+      <c r="D169" t="s">
+        <v>330</v>
+      </c>
+      <c r="E169" t="s">
+        <v>410</v>
+      </c>
+      <c r="F169">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>97</v>
+      </c>
+      <c r="C170" t="s">
+        <v>252</v>
+      </c>
+      <c r="D170" t="s">
+        <v>367</v>
+      </c>
+      <c r="E170" t="s">
+        <v>410</v>
+      </c>
+      <c r="F170">
+        <v>2.60986301369863</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>98</v>
+      </c>
+      <c r="C171" t="s">
+        <v>253</v>
+      </c>
+      <c r="D171" t="s">
+        <v>366</v>
+      </c>
+      <c r="E171" t="s">
+        <v>410</v>
+      </c>
+      <c r="F171">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>99</v>
+      </c>
+      <c r="C172" t="s">
+        <v>254</v>
+      </c>
+      <c r="D172" t="s">
+        <v>331</v>
+      </c>
+      <c r="E172" t="s">
+        <v>410</v>
+      </c>
+      <c r="F172">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>99</v>
+      </c>
+      <c r="C173" t="s">
+        <v>254</v>
+      </c>
+      <c r="D173" t="s">
+        <v>331</v>
+      </c>
+      <c r="E173" t="s">
+        <v>410</v>
+      </c>
+      <c r="F173">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>99</v>
+      </c>
+      <c r="C174" t="s">
+        <v>254</v>
+      </c>
+      <c r="D174" t="s">
+        <v>331</v>
+      </c>
+      <c r="E174" t="s">
+        <v>410</v>
+      </c>
+      <c r="F174">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>99</v>
+      </c>
+      <c r="C175" t="s">
+        <v>254</v>
+      </c>
+      <c r="D175" t="s">
+        <v>331</v>
+      </c>
+      <c r="E175" t="s">
+        <v>410</v>
+      </c>
+      <c r="F175">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="F85">
-        <v>18.60986301369863</v>
+      <c r="B176" t="s">
+        <v>98</v>
+      </c>
+      <c r="C176" t="s">
+        <v>253</v>
+      </c>
+      <c r="D176" t="s">
+        <v>366</v>
+      </c>
+      <c r="E176" t="s">
+        <v>410</v>
+      </c>
+      <c r="F176">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>100</v>
+      </c>
+      <c r="C177" t="s">
+        <v>255</v>
+      </c>
+      <c r="D177" t="s">
+        <v>376</v>
+      </c>
+      <c r="E177" t="s">
+        <v>410</v>
+      </c>
+      <c r="F177">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>100</v>
+      </c>
+      <c r="C178" t="s">
+        <v>255</v>
+      </c>
+      <c r="D178" t="s">
+        <v>376</v>
+      </c>
+      <c r="E178" t="s">
+        <v>410</v>
+      </c>
+      <c r="F178">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>101</v>
+      </c>
+      <c r="C179" t="s">
+        <v>256</v>
+      </c>
+      <c r="D179" t="s">
+        <v>357</v>
+      </c>
+      <c r="E179" t="s">
+        <v>410</v>
+      </c>
+      <c r="F179">
+        <v>2.64986301369863</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>101</v>
+      </c>
+      <c r="C180" t="s">
+        <v>256</v>
+      </c>
+      <c r="D180" t="s">
+        <v>357</v>
+      </c>
+      <c r="E180" t="s">
+        <v>410</v>
+      </c>
+      <c r="F180">
+        <v>2.64986301369863</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>101</v>
+      </c>
+      <c r="C181" t="s">
+        <v>256</v>
+      </c>
+      <c r="D181" t="s">
+        <v>357</v>
+      </c>
+      <c r="E181" t="s">
+        <v>410</v>
+      </c>
+      <c r="F181">
+        <v>2.64986301369863</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>102</v>
+      </c>
+      <c r="C182" t="s">
+        <v>257</v>
+      </c>
+      <c r="D182" t="s">
+        <v>366</v>
+      </c>
+      <c r="E182" t="s">
+        <v>410</v>
+      </c>
+      <c r="F182">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>102</v>
+      </c>
+      <c r="C183" t="s">
+        <v>257</v>
+      </c>
+      <c r="D183" t="s">
+        <v>366</v>
+      </c>
+      <c r="E183" t="s">
+        <v>410</v>
+      </c>
+      <c r="F183">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>103</v>
+      </c>
+      <c r="C184" t="s">
+        <v>258</v>
+      </c>
+      <c r="D184" t="s">
+        <v>311</v>
+      </c>
+      <c r="E184" t="s">
+        <v>410</v>
+      </c>
+      <c r="F184">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>104</v>
+      </c>
+      <c r="C185" t="s">
+        <v>259</v>
+      </c>
+      <c r="D185" t="s">
+        <v>377</v>
+      </c>
+      <c r="E185" t="s">
+        <v>410</v>
+      </c>
+      <c r="F185">
+        <v>2.81013698630137</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>105</v>
+      </c>
+      <c r="C186" t="s">
+        <v>260</v>
+      </c>
+      <c r="D186" t="s">
+        <v>378</v>
+      </c>
+      <c r="E186" t="s">
+        <v>410</v>
+      </c>
+      <c r="F186">
+        <v>2.81013698630137</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>105</v>
+      </c>
+      <c r="C187" t="s">
+        <v>260</v>
+      </c>
+      <c r="D187" t="s">
+        <v>378</v>
+      </c>
+      <c r="E187" t="s">
+        <v>410</v>
+      </c>
+      <c r="F187">
+        <v>2.81013698630137</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>105</v>
+      </c>
+      <c r="C188" t="s">
+        <v>260</v>
+      </c>
+      <c r="D188" t="s">
+        <v>378</v>
+      </c>
+      <c r="E188" t="s">
+        <v>410</v>
+      </c>
+      <c r="F188">
+        <v>2.81013698630137</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>105</v>
+      </c>
+      <c r="C189" t="s">
+        <v>260</v>
+      </c>
+      <c r="D189" t="s">
+        <v>378</v>
+      </c>
+      <c r="E189" t="s">
+        <v>410</v>
+      </c>
+      <c r="F189">
+        <v>2.81013698630137</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
+        <v>106</v>
+      </c>
+      <c r="C190" t="s">
+        <v>261</v>
+      </c>
+      <c r="D190" t="s">
+        <v>379</v>
+      </c>
+      <c r="E190" t="s">
+        <v>410</v>
+      </c>
+      <c r="F190">
+        <v>2.83013698630137</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
+        <v>107</v>
+      </c>
+      <c r="C191" t="s">
+        <v>262</v>
+      </c>
+      <c r="D191" t="s">
+        <v>378</v>
+      </c>
+      <c r="E191" t="s">
+        <v>410</v>
+      </c>
+      <c r="F191">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
+        <v>107</v>
+      </c>
+      <c r="C192" t="s">
+        <v>262</v>
+      </c>
+      <c r="D192" t="s">
+        <v>378</v>
+      </c>
+      <c r="E192" t="s">
+        <v>410</v>
+      </c>
+      <c r="F192">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
+        <v>107</v>
+      </c>
+      <c r="C193" t="s">
+        <v>262</v>
+      </c>
+      <c r="D193" t="s">
+        <v>378</v>
+      </c>
+      <c r="E193" t="s">
+        <v>410</v>
+      </c>
+      <c r="F193">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
+        <v>108</v>
+      </c>
+      <c r="C194" t="s">
+        <v>263</v>
+      </c>
+      <c r="D194" t="s">
+        <v>380</v>
+      </c>
+      <c r="E194" t="s">
+        <v>410</v>
+      </c>
+      <c r="F194">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
+        <v>108</v>
+      </c>
+      <c r="C195" t="s">
+        <v>263</v>
+      </c>
+      <c r="D195" t="s">
+        <v>380</v>
+      </c>
+      <c r="E195" t="s">
+        <v>410</v>
+      </c>
+      <c r="F195">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
+        <v>108</v>
+      </c>
+      <c r="C196" t="s">
+        <v>264</v>
+      </c>
+      <c r="D196" t="s">
+        <v>380</v>
+      </c>
+      <c r="E196" t="s">
+        <v>410</v>
+      </c>
+      <c r="F196">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
+        <v>109</v>
+      </c>
+      <c r="C197" t="s">
+        <v>265</v>
+      </c>
+      <c r="D197" t="s">
+        <v>381</v>
+      </c>
+      <c r="E197" t="s">
+        <v>410</v>
+      </c>
+      <c r="F197">
+        <v>2.84986301369863</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
+        <v>109</v>
+      </c>
+      <c r="C198" t="s">
+        <v>265</v>
+      </c>
+      <c r="D198" t="s">
+        <v>330</v>
+      </c>
+      <c r="E198" t="s">
+        <v>410</v>
+      </c>
+      <c r="F198">
+        <v>2.84986301369863</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
+        <v>109</v>
+      </c>
+      <c r="C199" t="s">
+        <v>265</v>
+      </c>
+      <c r="D199" t="s">
+        <v>382</v>
+      </c>
+      <c r="E199" t="s">
+        <v>410</v>
+      </c>
+      <c r="F199">
+        <v>2.84986301369863</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
+        <v>109</v>
+      </c>
+      <c r="C200" t="s">
+        <v>265</v>
+      </c>
+      <c r="D200" t="s">
+        <v>366</v>
+      </c>
+      <c r="E200" t="s">
+        <v>410</v>
+      </c>
+      <c r="F200">
+        <v>2.84986301369863</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>110</v>
+      </c>
+      <c r="C201" t="s">
+        <v>266</v>
+      </c>
+      <c r="D201" t="s">
+        <v>380</v>
+      </c>
+      <c r="E201" t="s">
+        <v>410</v>
+      </c>
+      <c r="F201">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>111</v>
+      </c>
+      <c r="C202" t="s">
+        <v>267</v>
+      </c>
+      <c r="D202" t="s">
+        <v>383</v>
+      </c>
+      <c r="E202" t="s">
+        <v>410</v>
+      </c>
+      <c r="F202">
+        <v>2.89013698630137</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
+        <v>112</v>
+      </c>
+      <c r="C203" t="s">
+        <v>268</v>
+      </c>
+      <c r="D203" t="s">
+        <v>384</v>
+      </c>
+      <c r="E203" t="s">
+        <v>410</v>
+      </c>
+      <c r="F203">
+        <v>2.91013698630137</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
+        <v>113</v>
+      </c>
+      <c r="C204" t="s">
+        <v>269</v>
+      </c>
+      <c r="D204" t="s">
+        <v>385</v>
+      </c>
+      <c r="E204" t="s">
+        <v>410</v>
+      </c>
+      <c r="F204">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
+        <v>113</v>
+      </c>
+      <c r="C205" t="s">
+        <v>269</v>
+      </c>
+      <c r="D205" t="s">
+        <v>385</v>
+      </c>
+      <c r="E205" t="s">
+        <v>410</v>
+      </c>
+      <c r="F205">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>114</v>
+      </c>
+      <c r="C206" t="s">
+        <v>270</v>
+      </c>
+      <c r="D206" t="s">
+        <v>385</v>
+      </c>
+      <c r="E206" t="s">
+        <v>410</v>
+      </c>
+      <c r="F206">
+        <v>2.93013698630137</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
+        <v>115</v>
+      </c>
+      <c r="C207" t="s">
+        <v>271</v>
+      </c>
+      <c r="D207" t="s">
+        <v>367</v>
+      </c>
+      <c r="E207" t="s">
+        <v>410</v>
+      </c>
+      <c r="F207">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
+        <v>115</v>
+      </c>
+      <c r="C208" t="s">
+        <v>271</v>
+      </c>
+      <c r="D208" t="s">
+        <v>367</v>
+      </c>
+      <c r="E208" t="s">
+        <v>410</v>
+      </c>
+      <c r="F208">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
+        <v>116</v>
+      </c>
+      <c r="C209" t="s">
+        <v>272</v>
+      </c>
+      <c r="D209" t="s">
+        <v>338</v>
+      </c>
+      <c r="E209" t="s">
+        <v>410</v>
+      </c>
+      <c r="F209">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
+        <v>116</v>
+      </c>
+      <c r="C210" t="s">
+        <v>272</v>
+      </c>
+      <c r="D210" t="s">
+        <v>338</v>
+      </c>
+      <c r="E210" t="s">
+        <v>410</v>
+      </c>
+      <c r="F210">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
+        <v>116</v>
+      </c>
+      <c r="C211" t="s">
+        <v>272</v>
+      </c>
+      <c r="D211" t="s">
+        <v>338</v>
+      </c>
+      <c r="E211" t="s">
+        <v>410</v>
+      </c>
+      <c r="F211">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
+        <v>116</v>
+      </c>
+      <c r="C212" t="s">
+        <v>272</v>
+      </c>
+      <c r="D212" t="s">
+        <v>338</v>
+      </c>
+      <c r="E212" t="s">
+        <v>410</v>
+      </c>
+      <c r="F212">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
+        <v>116</v>
+      </c>
+      <c r="C213" t="s">
+        <v>272</v>
+      </c>
+      <c r="D213" t="s">
+        <v>338</v>
+      </c>
+      <c r="E213" t="s">
+        <v>410</v>
+      </c>
+      <c r="F213">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
+        <v>116</v>
+      </c>
+      <c r="C214" t="s">
+        <v>272</v>
+      </c>
+      <c r="D214" t="s">
+        <v>338</v>
+      </c>
+      <c r="E214" t="s">
+        <v>410</v>
+      </c>
+      <c r="F214">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
+        <v>116</v>
+      </c>
+      <c r="C215" t="s">
+        <v>272</v>
+      </c>
+      <c r="D215" t="s">
+        <v>338</v>
+      </c>
+      <c r="E215" t="s">
+        <v>410</v>
+      </c>
+      <c r="F215">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
+        <v>116</v>
+      </c>
+      <c r="C216" t="s">
+        <v>272</v>
+      </c>
+      <c r="D216" t="s">
+        <v>386</v>
+      </c>
+      <c r="E216" t="s">
+        <v>410</v>
+      </c>
+      <c r="F216">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
+        <v>116</v>
+      </c>
+      <c r="C217" t="s">
+        <v>272</v>
+      </c>
+      <c r="D217" t="s">
+        <v>386</v>
+      </c>
+      <c r="E217" t="s">
+        <v>410</v>
+      </c>
+      <c r="F217">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
+        <v>116</v>
+      </c>
+      <c r="C218" t="s">
+        <v>272</v>
+      </c>
+      <c r="D218" t="s">
+        <v>386</v>
+      </c>
+      <c r="E218" t="s">
+        <v>410</v>
+      </c>
+      <c r="F218">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
+        <v>116</v>
+      </c>
+      <c r="C219" t="s">
+        <v>272</v>
+      </c>
+      <c r="D219" t="s">
+        <v>386</v>
+      </c>
+      <c r="E219" t="s">
+        <v>410</v>
+      </c>
+      <c r="F219">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
+        <v>116</v>
+      </c>
+      <c r="C220" t="s">
+        <v>272</v>
+      </c>
+      <c r="D220" t="s">
+        <v>386</v>
+      </c>
+      <c r="E220" t="s">
+        <v>410</v>
+      </c>
+      <c r="F220">
+        <v>2.95013698630137</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
+        <v>117</v>
+      </c>
+      <c r="C221" t="s">
+        <v>273</v>
+      </c>
+      <c r="D221" t="s">
+        <v>375</v>
+      </c>
+      <c r="E221" t="s">
+        <v>410</v>
+      </c>
+      <c r="F221">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
+        <v>118</v>
+      </c>
+      <c r="C222" t="s">
+        <v>274</v>
+      </c>
+      <c r="D222" t="s">
+        <v>387</v>
+      </c>
+      <c r="E222" t="s">
+        <v>410</v>
+      </c>
+      <c r="F222">
+        <v>3.06986301369863</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223" t="s">
+        <v>119</v>
+      </c>
+      <c r="C223" t="s">
+        <v>275</v>
+      </c>
+      <c r="D223" t="s">
+        <v>351</v>
+      </c>
+      <c r="E223" t="s">
+        <v>410</v>
+      </c>
+      <c r="F223">
+        <v>3.41013698630137</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
+        <v>119</v>
+      </c>
+      <c r="C224" t="s">
+        <v>275</v>
+      </c>
+      <c r="D224" t="s">
+        <v>351</v>
+      </c>
+      <c r="E224" t="s">
+        <v>410</v>
+      </c>
+      <c r="F224">
+        <v>3.41013698630137</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
+        <v>120</v>
+      </c>
+      <c r="C225" t="s">
+        <v>276</v>
+      </c>
+      <c r="D225" t="s">
+        <v>388</v>
+      </c>
+      <c r="E225" t="s">
+        <v>410</v>
+      </c>
+      <c r="F225">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
+        <v>120</v>
+      </c>
+      <c r="C226" t="s">
+        <v>276</v>
+      </c>
+      <c r="D226" t="s">
+        <v>388</v>
+      </c>
+      <c r="E226" t="s">
+        <v>410</v>
+      </c>
+      <c r="F226">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>121</v>
+      </c>
+      <c r="C227" t="s">
+        <v>277</v>
+      </c>
+      <c r="D227" t="s">
+        <v>389</v>
+      </c>
+      <c r="E227" t="s">
+        <v>410</v>
+      </c>
+      <c r="F227">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
+        <v>122</v>
+      </c>
+      <c r="C228" t="s">
+        <v>278</v>
+      </c>
+      <c r="D228" t="s">
+        <v>356</v>
+      </c>
+      <c r="E228" t="s">
+        <v>410</v>
+      </c>
+      <c r="F228">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C229" t="s">
+        <v>278</v>
+      </c>
+      <c r="D229" t="s">
+        <v>356</v>
+      </c>
+      <c r="E229" t="s">
+        <v>410</v>
+      </c>
+      <c r="F229">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
+        <v>122</v>
+      </c>
+      <c r="C230" t="s">
+        <v>278</v>
+      </c>
+      <c r="D230" t="s">
+        <v>356</v>
+      </c>
+      <c r="E230" t="s">
+        <v>410</v>
+      </c>
+      <c r="F230">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
+        <v>123</v>
+      </c>
+      <c r="C231" t="s">
+        <v>279</v>
+      </c>
+      <c r="D231" t="s">
+        <v>390</v>
+      </c>
+      <c r="E231" t="s">
+        <v>410</v>
+      </c>
+      <c r="F231">
+        <v>3.60986301369863</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
+        <v>124</v>
+      </c>
+      <c r="C232" t="s">
+        <v>280</v>
+      </c>
+      <c r="D232" t="s">
+        <v>391</v>
+      </c>
+      <c r="E232" t="s">
+        <v>410</v>
+      </c>
+      <c r="F232">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
+        <v>124</v>
+      </c>
+      <c r="C233" t="s">
+        <v>280</v>
+      </c>
+      <c r="D233" t="s">
+        <v>392</v>
+      </c>
+      <c r="E233" t="s">
+        <v>410</v>
+      </c>
+      <c r="F233">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
+        <v>125</v>
+      </c>
+      <c r="C234" t="s">
+        <v>281</v>
+      </c>
+      <c r="D234" t="s">
+        <v>393</v>
+      </c>
+      <c r="E234" t="s">
+        <v>410</v>
+      </c>
+      <c r="F234">
+        <v>3.63013698630137</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
+        <v>126</v>
+      </c>
+      <c r="C235" t="s">
+        <v>282</v>
+      </c>
+      <c r="D235" t="s">
+        <v>394</v>
+      </c>
+      <c r="E235" t="s">
+        <v>410</v>
+      </c>
+      <c r="F235">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
+        <v>126</v>
+      </c>
+      <c r="C236" t="s">
+        <v>282</v>
+      </c>
+      <c r="D236" t="s">
+        <v>394</v>
+      </c>
+      <c r="E236" t="s">
+        <v>410</v>
+      </c>
+      <c r="F236">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
+        <v>127</v>
+      </c>
+      <c r="C237" t="s">
+        <v>283</v>
+      </c>
+      <c r="D237" t="s">
+        <v>395</v>
+      </c>
+      <c r="E237" t="s">
+        <v>410</v>
+      </c>
+      <c r="F237">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
+        <v>128</v>
+      </c>
+      <c r="C238" t="s">
+        <v>276</v>
+      </c>
+      <c r="D238" t="s">
+        <v>396</v>
+      </c>
+      <c r="E238" t="s">
+        <v>410</v>
+      </c>
+      <c r="F238">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
+        <v>129</v>
+      </c>
+      <c r="C239" t="s">
+        <v>284</v>
+      </c>
+      <c r="D239" t="s">
+        <v>397</v>
+      </c>
+      <c r="E239" t="s">
+        <v>410</v>
+      </c>
+      <c r="F239">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
+        <v>129</v>
+      </c>
+      <c r="C240" t="s">
+        <v>284</v>
+      </c>
+      <c r="D240" t="s">
+        <v>397</v>
+      </c>
+      <c r="E240" t="s">
+        <v>410</v>
+      </c>
+      <c r="F240">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
+        <v>129</v>
+      </c>
+      <c r="C241" t="s">
+        <v>284</v>
+      </c>
+      <c r="D241" t="s">
+        <v>397</v>
+      </c>
+      <c r="E241" t="s">
+        <v>410</v>
+      </c>
+      <c r="F241">
+        <v>3.86</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
+        <v>130</v>
+      </c>
+      <c r="C242" t="s">
+        <v>285</v>
+      </c>
+      <c r="D242" t="s">
+        <v>398</v>
+      </c>
+      <c r="E242" t="s">
+        <v>410</v>
+      </c>
+      <c r="F242">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>131</v>
+      </c>
+      <c r="C243" t="s">
+        <v>276</v>
+      </c>
+      <c r="D243" t="s">
+        <v>393</v>
+      </c>
+      <c r="E243" t="s">
+        <v>410</v>
+      </c>
+      <c r="F243">
+        <v>4.19013698630137</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>132</v>
+      </c>
+      <c r="C244" t="s">
+        <v>286</v>
+      </c>
+      <c r="D244" t="s">
+        <v>311</v>
+      </c>
+      <c r="E244" t="s">
+        <v>410</v>
+      </c>
+      <c r="F244">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>133</v>
+      </c>
+      <c r="C245" t="s">
+        <v>287</v>
+      </c>
+      <c r="D245" t="s">
+        <v>399</v>
+      </c>
+      <c r="E245" t="s">
+        <v>410</v>
+      </c>
+      <c r="F245">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>133</v>
+      </c>
+      <c r="C246" t="s">
+        <v>287</v>
+      </c>
+      <c r="D246" t="s">
+        <v>399</v>
+      </c>
+      <c r="E246" t="s">
+        <v>410</v>
+      </c>
+      <c r="F246">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>134</v>
+      </c>
+      <c r="C247" t="s">
+        <v>288</v>
+      </c>
+      <c r="D247" t="s">
+        <v>375</v>
+      </c>
+      <c r="E247" t="s">
+        <v>410</v>
+      </c>
+      <c r="F247">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>135</v>
+      </c>
+      <c r="C248" t="s">
+        <v>289</v>
+      </c>
+      <c r="D248" t="s">
+        <v>400</v>
+      </c>
+      <c r="E248" t="s">
+        <v>412</v>
+      </c>
+      <c r="F248">
+        <v>4.28986301369863</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>135</v>
+      </c>
+      <c r="C249" t="s">
+        <v>289</v>
+      </c>
+      <c r="D249" t="s">
+        <v>400</v>
+      </c>
+      <c r="E249" t="s">
+        <v>412</v>
+      </c>
+      <c r="F249">
+        <v>4.28986301369863</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>136</v>
+      </c>
+      <c r="C250" t="s">
+        <v>290</v>
+      </c>
+      <c r="D250" t="s">
+        <v>356</v>
+      </c>
+      <c r="E250" t="s">
+        <v>410</v>
+      </c>
+      <c r="F250">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>137</v>
+      </c>
+      <c r="C251" t="s">
+        <v>291</v>
+      </c>
+      <c r="D251" t="s">
+        <v>375</v>
+      </c>
+      <c r="E251" t="s">
+        <v>410</v>
+      </c>
+      <c r="F251">
+        <v>4.30986301369863</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>138</v>
+      </c>
+      <c r="C252" t="s">
+        <v>292</v>
+      </c>
+      <c r="D252" t="s">
+        <v>401</v>
+      </c>
+      <c r="E252" t="s">
+        <v>410</v>
+      </c>
+      <c r="F252">
+        <v>4.34986301369863</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>139</v>
+      </c>
+      <c r="C253" t="s">
+        <v>293</v>
+      </c>
+      <c r="D253" t="s">
+        <v>402</v>
+      </c>
+      <c r="E253" t="s">
+        <v>410</v>
+      </c>
+      <c r="F253">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>140</v>
+      </c>
+      <c r="C254" t="s">
+        <v>294</v>
+      </c>
+      <c r="D254" t="s">
+        <v>403</v>
+      </c>
+      <c r="E254" t="s">
+        <v>410</v>
+      </c>
+      <c r="F254">
+        <v>4.71013698630137</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>140</v>
+      </c>
+      <c r="C255" t="s">
+        <v>294</v>
+      </c>
+      <c r="D255" t="s">
+        <v>403</v>
+      </c>
+      <c r="E255" t="s">
+        <v>410</v>
+      </c>
+      <c r="F255">
+        <v>4.71013698630137</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>141</v>
+      </c>
+      <c r="C256" t="s">
+        <v>295</v>
+      </c>
+      <c r="D256" t="s">
+        <v>404</v>
+      </c>
+      <c r="E256" t="s">
+        <v>410</v>
+      </c>
+      <c r="F256">
+        <v>4.73013698630137</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>142</v>
+      </c>
+      <c r="C257" t="s">
+        <v>296</v>
+      </c>
+      <c r="D257" t="s">
+        <v>405</v>
+      </c>
+      <c r="E257" t="s">
+        <v>410</v>
+      </c>
+      <c r="F257">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>143</v>
+      </c>
+      <c r="C258" t="s">
+        <v>297</v>
+      </c>
+      <c r="D258" t="s">
+        <v>406</v>
+      </c>
+      <c r="E258" t="s">
+        <v>410</v>
+      </c>
+      <c r="F258">
+        <v>4.86986301369863</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>144</v>
+      </c>
+      <c r="C259" t="s">
+        <v>298</v>
+      </c>
+      <c r="D259" t="s">
+        <v>407</v>
+      </c>
+      <c r="E259" t="s">
+        <v>410</v>
+      </c>
+      <c r="F259">
+        <v>4.929863013698631</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>144</v>
+      </c>
+      <c r="C260" t="s">
+        <v>298</v>
+      </c>
+      <c r="D260" t="s">
+        <v>407</v>
+      </c>
+      <c r="E260" t="s">
+        <v>410</v>
+      </c>
+      <c r="F260">
+        <v>4.929863013698631</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>144</v>
+      </c>
+      <c r="C261" t="s">
+        <v>298</v>
+      </c>
+      <c r="D261" t="s">
+        <v>407</v>
+      </c>
+      <c r="E261" t="s">
+        <v>410</v>
+      </c>
+      <c r="F261">
+        <v>4.929863013698631</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>144</v>
+      </c>
+      <c r="C262" t="s">
+        <v>298</v>
+      </c>
+      <c r="D262" t="s">
+        <v>407</v>
+      </c>
+      <c r="E262" t="s">
+        <v>410</v>
+      </c>
+      <c r="F262">
+        <v>4.929863013698631</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>144</v>
+      </c>
+      <c r="C263" t="s">
+        <v>298</v>
+      </c>
+      <c r="D263" t="s">
+        <v>407</v>
+      </c>
+      <c r="E263" t="s">
+        <v>410</v>
+      </c>
+      <c r="F263">
+        <v>4.929863013698631</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>144</v>
+      </c>
+      <c r="C264" t="s">
+        <v>298</v>
+      </c>
+      <c r="D264" t="s">
+        <v>407</v>
+      </c>
+      <c r="E264" t="s">
+        <v>410</v>
+      </c>
+      <c r="F264">
+        <v>4.929863013698631</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>145</v>
+      </c>
+      <c r="C265" t="s">
+        <v>299</v>
+      </c>
+      <c r="D265" t="s">
+        <v>408</v>
+      </c>
+      <c r="E265" t="s">
+        <v>410</v>
+      </c>
+      <c r="F265">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>146</v>
+      </c>
+      <c r="C266" t="s">
+        <v>300</v>
+      </c>
+      <c r="D266" t="s">
+        <v>407</v>
+      </c>
+      <c r="E266" t="s">
+        <v>410</v>
+      </c>
+      <c r="F266">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>147</v>
+      </c>
+      <c r="C267" t="s">
+        <v>301</v>
+      </c>
+      <c r="D267" t="s">
+        <v>409</v>
+      </c>
+      <c r="E267" t="s">
+        <v>410</v>
+      </c>
+      <c r="F267">
+        <v>5.779999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data/BondDeal/企业债.xlsx
+++ b/data/BondDeal/企业债.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="400">
   <si>
     <t>剩余期限</t>
   </si>
@@ -31,69 +31,48 @@
     <t>year</t>
   </si>
   <si>
-    <t>300D+2Y</t>
-  </si>
-  <si>
-    <t>312D+2Y</t>
-  </si>
-  <si>
-    <t>319D+N(休2)</t>
-  </si>
-  <si>
-    <t>321D</t>
-  </si>
-  <si>
-    <t>325D</t>
-  </si>
-  <si>
-    <t>329D</t>
-  </si>
-  <si>
-    <t>330D+1Y</t>
-  </si>
-  <si>
-    <t>336D</t>
-  </si>
-  <si>
-    <t>340D+2Y</t>
-  </si>
-  <si>
-    <t>343D</t>
-  </si>
-  <si>
-    <t>347D+N(休2)</t>
-  </si>
-  <si>
-    <t>347D(休2)</t>
-  </si>
-  <si>
-    <t>347D+N</t>
-  </si>
-  <si>
-    <t>353D+N</t>
-  </si>
-  <si>
-    <t>1.05Y+3Y</t>
-  </si>
-  <si>
-    <t>1.1Y</t>
-  </si>
-  <si>
-    <t>1.13Y</t>
+    <t>304D+2Y</t>
+  </si>
+  <si>
+    <t>320D</t>
+  </si>
+  <si>
+    <t>324D+2Y</t>
+  </si>
+  <si>
+    <t>324D</t>
+  </si>
+  <si>
+    <t>327D+N</t>
+  </si>
+  <si>
+    <t>339D+N(休2)</t>
+  </si>
+  <si>
+    <t>0.93Y+2Y</t>
+  </si>
+  <si>
+    <t>345D</t>
+  </si>
+  <si>
+    <t>355D+N</t>
+  </si>
+  <si>
+    <t>1.01Y</t>
+  </si>
+  <si>
+    <t>1.04Y</t>
+  </si>
+  <si>
+    <t>1.11Y+1Y</t>
   </si>
   <si>
     <t>1.13Y+2Y</t>
   </si>
   <si>
-    <t>1.14Y</t>
-  </si>
-  <si>
     <t>1.17Y</t>
   </si>
   <si>
-    <t>1.17Y+1Y</t>
-  </si>
-  <si>
     <t>1.19Y</t>
   </si>
   <si>
@@ -103,70 +82,73 @@
     <t>1.21Y+5Y</t>
   </si>
   <si>
-    <t>1.21Y+2Y</t>
-  </si>
-  <si>
     <t>1.22Y</t>
   </si>
   <si>
-    <t>1.22Y+2Y</t>
-  </si>
-  <si>
-    <t>1.26Y</t>
-  </si>
-  <si>
-    <t>1.26Y+4Y</t>
-  </si>
-  <si>
-    <t>1.27Y+N</t>
-  </si>
-  <si>
-    <t>1.3Y+2Y</t>
+    <t>1.24Y+2Y</t>
+  </si>
+  <si>
+    <t>1.26Y+N</t>
   </si>
   <si>
     <t>1.3Y</t>
   </si>
   <si>
-    <t>1.36Y</t>
-  </si>
-  <si>
-    <t>1.38Y+5Y</t>
-  </si>
-  <si>
-    <t>1.45Y</t>
-  </si>
-  <si>
-    <t>1.51Y</t>
-  </si>
-  <si>
-    <t>1.51Y+N</t>
-  </si>
-  <si>
-    <t>1.51Y+2Y</t>
+    <t>1.31Y</t>
+  </si>
+  <si>
+    <t>1.33Y+2Y</t>
+  </si>
+  <si>
+    <t>1.39Y</t>
+  </si>
+  <si>
+    <t>1.39Y+N</t>
+  </si>
+  <si>
+    <t>1.42Y+N</t>
   </si>
   <si>
     <t>1.53Y</t>
   </si>
   <si>
-    <t>1.53Y+1Y</t>
-  </si>
-  <si>
-    <t>1.55Y+2Y</t>
-  </si>
-  <si>
-    <t>1.6Y+2Y</t>
-  </si>
-  <si>
-    <t>1.6Y</t>
+    <t>1.53Y+2Y</t>
+  </si>
+  <si>
+    <t>1.56Y</t>
+  </si>
+  <si>
+    <t>1.56Y+1Y</t>
+  </si>
+  <si>
+    <t>1.57Y</t>
+  </si>
+  <si>
+    <t>1.59Y+5Y</t>
+  </si>
+  <si>
+    <t>1.59Y</t>
   </si>
   <si>
     <t>1.61Y</t>
   </si>
   <si>
-    <t>1.68Y+2Y</t>
-  </si>
-  <si>
-    <t>1.68Y</t>
+    <t>1.62Y+2Y</t>
+  </si>
+  <si>
+    <t>1.64Y+N</t>
+  </si>
+  <si>
+    <t>1.64Y</t>
+  </si>
+  <si>
+    <t>1.66Y</t>
+  </si>
+  <si>
+    <t>1.67Y+N</t>
+  </si>
+  <si>
+    <t>1.69Y</t>
   </si>
   <si>
     <t>1.7Y</t>
@@ -175,36 +157,42 @@
     <t>1.71Y</t>
   </si>
   <si>
+    <t>1.72Y+N</t>
+  </si>
+  <si>
     <t>1.72Y</t>
   </si>
   <si>
-    <t>1.72Y+N</t>
+    <t>1.77Y+2Y+1Y</t>
+  </si>
+  <si>
+    <t>1.78Y</t>
   </si>
   <si>
     <t>1.78Y+N</t>
   </si>
   <si>
-    <t>1.80Y+N</t>
-  </si>
-  <si>
-    <t>1.81Y</t>
-  </si>
-  <si>
-    <t>1.82Y+N</t>
-  </si>
-  <si>
-    <t>1.82Y</t>
-  </si>
-  <si>
-    <t>1.83Y+N</t>
+    <t>1.79Y</t>
+  </si>
+  <si>
+    <t>1.8Y+2Y</t>
+  </si>
+  <si>
+    <t>1.84Y+N</t>
+  </si>
+  <si>
+    <t>1.85Y+3Y</t>
+  </si>
+  <si>
+    <t>1.85Y+N</t>
+  </si>
+  <si>
+    <t>1.86Y</t>
   </si>
   <si>
     <t>1.87Y</t>
   </si>
   <si>
-    <t>1.88Y+5Y</t>
-  </si>
-  <si>
     <t>1.89Y</t>
   </si>
   <si>
@@ -214,43 +202,37 @@
     <t>1.93Y</t>
   </si>
   <si>
-    <t>1.94Y</t>
-  </si>
-  <si>
-    <t>1.95Y+N</t>
+    <t>1.95Y+2Y</t>
   </si>
   <si>
     <t>1.96Y</t>
   </si>
   <si>
-    <t>1.98Y+2Y</t>
-  </si>
-  <si>
-    <t>1.98Y</t>
-  </si>
-  <si>
-    <t>2.07Y</t>
-  </si>
-  <si>
-    <t>2.16Y+2Y</t>
-  </si>
-  <si>
-    <t>2.18Y+2Y</t>
-  </si>
-  <si>
-    <t>2.19Y+2Y</t>
-  </si>
-  <si>
-    <t>2.2Y</t>
+    <t>2.01Y</t>
+  </si>
+  <si>
+    <t>2.02Y+2Y</t>
+  </si>
+  <si>
+    <t>2.02Y</t>
+  </si>
+  <si>
+    <t>2.13Y</t>
+  </si>
+  <si>
+    <t>2.14Y+2Y</t>
+  </si>
+  <si>
+    <t>2.14Y+N</t>
+  </si>
+  <si>
+    <t>2.17Y</t>
   </si>
   <si>
     <t>2.21Y</t>
   </si>
   <si>
-    <t>2.23Y+N</t>
-  </si>
-  <si>
-    <t>2.26Y</t>
+    <t>2.22Y</t>
   </si>
   <si>
     <t>2.27Y</t>
@@ -259,94 +241,85 @@
     <t>2.28Y</t>
   </si>
   <si>
-    <t>2.30Y+2Y</t>
+    <t>2.29Y</t>
+  </si>
+  <si>
+    <t>2.29Y+N</t>
+  </si>
+  <si>
+    <t>2.3Y</t>
+  </si>
+  <si>
+    <t>2.3Y+5Y</t>
   </si>
   <si>
     <t>2.31Y</t>
   </si>
   <si>
-    <t>2.33Y+2Y</t>
-  </si>
-  <si>
-    <t>2.39Y+2Y</t>
-  </si>
-  <si>
-    <t>2.39Y</t>
-  </si>
-  <si>
-    <t>2.41Y+2Y</t>
-  </si>
-  <si>
-    <t>2.42Y</t>
+    <t>2.33Y+3Y</t>
+  </si>
+  <si>
+    <t>2.41Y</t>
+  </si>
+  <si>
+    <t>2.44Y+2Y</t>
+  </si>
+  <si>
+    <t>2.46Y+3Y</t>
+  </si>
+  <si>
+    <t>2.46Y</t>
   </si>
   <si>
     <t>2.46Y+2Y</t>
   </si>
   <si>
-    <t>2.47Y+2Y</t>
+    <t>2.52Y</t>
   </si>
   <si>
     <t>2.53Y</t>
   </si>
   <si>
-    <t>2.54Y</t>
-  </si>
-  <si>
-    <t>2.55Y</t>
-  </si>
-  <si>
     <t>2.55Y+2Y</t>
   </si>
   <si>
+    <t>2.56Y+2Y</t>
+  </si>
+  <si>
+    <t>2.58Y+NY</t>
+  </si>
+  <si>
     <t>2.59Y</t>
   </si>
   <si>
     <t>2.6Y</t>
   </si>
   <si>
-    <t>2.6Y+N</t>
-  </si>
-  <si>
-    <t>2.61Y+2Y</t>
-  </si>
-  <si>
-    <t>2.62Y</t>
-  </si>
-  <si>
-    <t>2.62Y+2Y</t>
+    <t>2.61Y</t>
+  </si>
+  <si>
+    <t>2.62Y+N</t>
+  </si>
+  <si>
+    <t>2.63Y+2Y</t>
   </si>
   <si>
     <t>2.64Y</t>
   </si>
   <si>
-    <t>2.65Y+2Y</t>
-  </si>
-  <si>
-    <t>2.66Y</t>
-  </si>
-  <si>
-    <t>2.7Y</t>
-  </si>
-  <si>
-    <t>2.81Y</t>
-  </si>
-  <si>
-    <t>2.81Y+2Y</t>
-  </si>
-  <si>
-    <t>2.83Y+N</t>
-  </si>
-  <si>
-    <t>2.84Y+N</t>
-  </si>
-  <si>
-    <t>2.84Y</t>
+    <t>2.71Y</t>
+  </si>
+  <si>
+    <t>2.79Y</t>
+  </si>
+  <si>
+    <t>2.8Y</t>
   </si>
   <si>
     <t>2.85Y</t>
   </si>
   <si>
-    <t>2.88Y</t>
+    <t>2.85Y+N</t>
   </si>
   <si>
     <t>2.89Y</t>
@@ -355,13 +328,7 @@
     <t>2.91Y+N</t>
   </si>
   <si>
-    <t>2.92Y</t>
-  </si>
-  <si>
-    <t>2.93Y</t>
-  </si>
-  <si>
-    <t>2.94Y</t>
+    <t>2.91Y</t>
   </si>
   <si>
     <t>2.95Y</t>
@@ -370,70 +337,79 @@
     <t>2.96Y</t>
   </si>
   <si>
-    <t>3.07Y+N</t>
-  </si>
-  <si>
-    <t>3.41Y+N</t>
-  </si>
-  <si>
-    <t>3.42Y+N</t>
+    <t>3.15Y+5Y</t>
+  </si>
+  <si>
+    <t>3.47Y</t>
+  </si>
+  <si>
+    <t>3.54Y</t>
   </si>
   <si>
     <t>3.56Y+N</t>
   </si>
   <si>
-    <t>3.60Y</t>
-  </si>
-  <si>
     <t>3.61Y+5Y</t>
   </si>
   <si>
+    <t>3.62Y</t>
+  </si>
+  <si>
     <t>3.62Y+N</t>
   </si>
   <si>
-    <t>3.63Y+N</t>
-  </si>
-  <si>
-    <t>3.66Y</t>
+    <t>3.67Y+N</t>
+  </si>
+  <si>
+    <t>3.72Y+N</t>
   </si>
   <si>
     <t>3.82Y+3Y</t>
   </si>
   <si>
-    <t>3.84Y+N</t>
-  </si>
-  <si>
-    <t>3.86Y+N</t>
-  </si>
-  <si>
-    <t>4.14Y</t>
-  </si>
-  <si>
-    <t>4.19Y+N</t>
-  </si>
-  <si>
-    <t>4.20Y</t>
+    <t>3.86Y+2Y</t>
+  </si>
+  <si>
+    <t>3.87Y+N</t>
+  </si>
+  <si>
+    <t>3.93Y+N</t>
+  </si>
+  <si>
+    <t>4.03Y+3Y</t>
+  </si>
+  <si>
+    <t>4.17Y</t>
+  </si>
+  <si>
+    <t>4.18Y+5Y</t>
+  </si>
+  <si>
+    <t>4.19Y</t>
   </si>
   <si>
     <t>4.2Y+N</t>
   </si>
   <si>
+    <t>4.25Y+3Y</t>
+  </si>
+  <si>
+    <t>4.27Y+5Y</t>
+  </si>
+  <si>
     <t>4.28Y</t>
   </si>
   <si>
-    <t>4.29Y+N</t>
-  </si>
-  <si>
-    <t>4.3Y</t>
-  </si>
-  <si>
-    <t>4.31Y</t>
-  </si>
-  <si>
-    <t>4.35Y+N</t>
-  </si>
-  <si>
-    <t>4.68Y+2Y</t>
+    <t>4.29Y</t>
+  </si>
+  <si>
+    <t>4.31Y+N</t>
+  </si>
+  <si>
+    <t>4.32Y</t>
+  </si>
+  <si>
+    <t>4.5Y+N</t>
   </si>
   <si>
     <t>4.71Y+N</t>
@@ -442,460 +418,469 @@
     <t>4.73Y+5Y</t>
   </si>
   <si>
-    <t>4.78Y+N</t>
-  </si>
-  <si>
-    <t>4.87Y+N</t>
-  </si>
-  <si>
-    <t>4.93Y</t>
+    <t>4.81Y+3Y</t>
+  </si>
+  <si>
+    <t>4.88Y+N</t>
+  </si>
+  <si>
+    <t>4.91Y+5Y</t>
   </si>
   <si>
     <t>4.94Y+N</t>
   </si>
   <si>
-    <t>5.14Y</t>
-  </si>
-  <si>
-    <t>5.78Y</t>
-  </si>
-  <si>
-    <t>18兴杭02</t>
-  </si>
-  <si>
-    <t>18邮政01</t>
-  </si>
-  <si>
-    <t>18蒙电Y1</t>
+    <t>4.96Y</t>
+  </si>
+  <si>
+    <t>9.18Y</t>
+  </si>
+  <si>
+    <t>18龙湖06</t>
+  </si>
+  <si>
+    <t>16交行绿色金融债02</t>
   </si>
   <si>
     <t>18民生银行01</t>
   </si>
   <si>
+    <t>18元禾02</t>
+  </si>
+  <si>
     <t>19荣盛G1</t>
   </si>
   <si>
-    <t>18交通银行小微债</t>
-  </si>
-  <si>
-    <t>17绍交03</t>
-  </si>
-  <si>
-    <t>16中关02</t>
-  </si>
-  <si>
-    <t>18粤控02</t>
-  </si>
-  <si>
-    <t>18民生银行02</t>
-  </si>
-  <si>
-    <t>20航控Y5</t>
-  </si>
-  <si>
-    <t>18卓越06</t>
-  </si>
-  <si>
-    <t>18化学Y1</t>
-  </si>
-  <si>
-    <t>19中海01</t>
-  </si>
-  <si>
-    <t>12鲁高速</t>
-  </si>
-  <si>
-    <t>19南航01</t>
-  </si>
-  <si>
-    <t>19南京银行01</t>
+    <t>18深能Y1</t>
+  </si>
+  <si>
+    <t>20航租Y1</t>
+  </si>
+  <si>
+    <t>18天马01</t>
+  </si>
+  <si>
+    <t>18晋商银行</t>
+  </si>
+  <si>
+    <t>18中电Y1</t>
+  </si>
+  <si>
+    <t>12中石油02</t>
+  </si>
+  <si>
+    <t>19新燃01</t>
+  </si>
+  <si>
+    <t>20复地01</t>
   </si>
   <si>
     <t>19亚迪01</t>
   </si>
   <si>
-    <t>20国金01</t>
-  </si>
-  <si>
-    <t>19华融湘江银行01</t>
-  </si>
-  <si>
-    <t>20湘高01</t>
-  </si>
-  <si>
-    <t>12石油05</t>
-  </si>
-  <si>
-    <t>12中石油05</t>
-  </si>
-  <si>
-    <t>19洪政G1</t>
-  </si>
-  <si>
-    <t>17重庆银行二级</t>
+    <t>19招商G1</t>
+  </si>
+  <si>
+    <t>17杭旅01</t>
+  </si>
+  <si>
+    <t>19永赢租赁债</t>
+  </si>
+  <si>
+    <t>19华股01</t>
   </si>
   <si>
     <t>17邮储银行二级01</t>
   </si>
   <si>
-    <t>19杭纾01</t>
-  </si>
-  <si>
     <t>19浦发银行小微债01</t>
   </si>
   <si>
-    <t>19新兴绿色债02</t>
-  </si>
-  <si>
-    <t>15国网01</t>
-  </si>
-  <si>
-    <t>19新工01</t>
+    <t>19平证03</t>
+  </si>
+  <si>
+    <t>19电投Y3</t>
   </si>
   <si>
     <t>19大唐Y1</t>
   </si>
   <si>
-    <t>19朝纾01</t>
-  </si>
-  <si>
-    <t>19国科01</t>
+    <t>19华融湘江小微债02</t>
   </si>
   <si>
     <t>17穗发01</t>
   </si>
   <si>
-    <t>19中银01</t>
-  </si>
-  <si>
-    <t>17广州银行二级</t>
-  </si>
-  <si>
-    <t>19华电02</t>
-  </si>
-  <si>
-    <t>19联通01</t>
-  </si>
-  <si>
-    <t>19华能02</t>
-  </si>
-  <si>
-    <t>19招商银行小微债01</t>
-  </si>
-  <si>
-    <t>19中交Y1</t>
-  </si>
-  <si>
-    <t>17光控02</t>
+    <t>19浦集01</t>
+  </si>
+  <si>
+    <t>19华电01</t>
+  </si>
+  <si>
+    <t>19兵装03</t>
+  </si>
+  <si>
+    <t>15建发债</t>
+  </si>
+  <si>
+    <t>电投Y11</t>
+  </si>
+  <si>
+    <t>19大唐Y3</t>
   </si>
   <si>
     <t>19华电04</t>
   </si>
   <si>
-    <t>20复地02</t>
-  </si>
-  <si>
-    <t>19宁安01</t>
-  </si>
-  <si>
-    <t>19中核03</t>
-  </si>
-  <si>
-    <t>19宇通02</t>
-  </si>
-  <si>
-    <t>PR中关村</t>
-  </si>
-  <si>
-    <t>17涪陵01</t>
-  </si>
-  <si>
-    <t>19鲁资03</t>
-  </si>
-  <si>
-    <t>17联投01</t>
+    <t>G19广铁2</t>
+  </si>
+  <si>
+    <t>19鲁能01</t>
+  </si>
+  <si>
+    <t>17皖交03</t>
+  </si>
+  <si>
+    <t>20国药01</t>
+  </si>
+  <si>
+    <t>17京资02</t>
+  </si>
+  <si>
+    <t>17广铁01</t>
+  </si>
+  <si>
+    <t>19兴港02</t>
+  </si>
+  <si>
+    <t>19国泰君安金融债01</t>
+  </si>
+  <si>
+    <t>17海通02</t>
+  </si>
+  <si>
+    <t>19华润02</t>
+  </si>
+  <si>
+    <t>20美置06</t>
+  </si>
+  <si>
+    <t>19深能Y1</t>
+  </si>
+  <si>
+    <t>19保利01</t>
+  </si>
+  <si>
+    <t>19海康01</t>
+  </si>
+  <si>
+    <t>20漳九Y1</t>
+  </si>
+  <si>
+    <t>15际华03</t>
   </si>
   <si>
     <t>19上汽01</t>
   </si>
   <si>
+    <t>19通用01</t>
+  </si>
+  <si>
     <t>20招证G4</t>
   </si>
   <si>
-    <t>19邮政03</t>
-  </si>
-  <si>
-    <t>19住总Y1</t>
-  </si>
-  <si>
-    <t>17电投Y3</t>
-  </si>
-  <si>
-    <t>19信保Y1</t>
-  </si>
-  <si>
-    <t>20招证G6</t>
-  </si>
-  <si>
-    <t>18新控05</t>
-  </si>
-  <si>
-    <t>17建集Y1</t>
-  </si>
-  <si>
-    <t>19长发01</t>
-  </si>
-  <si>
-    <t>20中化Y7</t>
+    <t>20中核Y5</t>
+  </si>
+  <si>
+    <t>19保利03</t>
+  </si>
+  <si>
+    <t>20阳城04</t>
+  </si>
+  <si>
+    <t>19国君G4</t>
+  </si>
+  <si>
+    <t>17建材Y2</t>
+  </si>
+  <si>
+    <t>19东风03</t>
+  </si>
+  <si>
+    <t>17蓉工01</t>
+  </si>
+  <si>
+    <t>19环球03</t>
+  </si>
+  <si>
+    <t>19通用Y1</t>
+  </si>
+  <si>
+    <t>20环球07</t>
+  </si>
+  <si>
+    <t>19润药Y1</t>
+  </si>
+  <si>
+    <t>19北汽11</t>
   </si>
   <si>
     <t>18龙控05</t>
   </si>
   <si>
-    <t>12国网04</t>
-  </si>
-  <si>
-    <t>17工商银行二级02</t>
-  </si>
-  <si>
-    <t>19广核01</t>
+    <t>19海康02</t>
   </si>
   <si>
     <t>20银河G3</t>
   </si>
   <si>
-    <t>17贵产01</t>
-  </si>
-  <si>
-    <t>20华泰G8</t>
-  </si>
-  <si>
-    <t>20国信04</t>
-  </si>
-  <si>
-    <t>20首股Y2</t>
-  </si>
-  <si>
-    <t>12甬交投债</t>
+    <t>19交通银行01</t>
+  </si>
+  <si>
+    <t>15洪市政</t>
+  </si>
+  <si>
+    <t>19交通银行02</t>
+  </si>
+  <si>
+    <t>G19广铁4</t>
   </si>
   <si>
     <t>19诚通01</t>
   </si>
   <si>
-    <t>19兴信01</t>
-  </si>
-  <si>
-    <t>19天津银行债</t>
-  </si>
-  <si>
-    <t>18铁道03</t>
-  </si>
-  <si>
-    <t>20奥园01</t>
-  </si>
-  <si>
-    <t>20铁投G1</t>
-  </si>
-  <si>
-    <t>20建工01</t>
-  </si>
-  <si>
-    <t>20中国信达债02BC(品种一)</t>
-  </si>
-  <si>
-    <t>PR渝产债</t>
-  </si>
-  <si>
-    <t>20华电Y1</t>
-  </si>
-  <si>
-    <t>20浙商银行小微债02</t>
+    <t>20深投01</t>
+  </si>
+  <si>
+    <t>20江城01</t>
+  </si>
+  <si>
+    <t>20国信01</t>
+  </si>
+  <si>
+    <t>20招联消费金融债01</t>
+  </si>
+  <si>
+    <t>20中证G1</t>
+  </si>
+  <si>
+    <t>20华股01</t>
+  </si>
+  <si>
+    <t>20厦贸Y1</t>
+  </si>
+  <si>
+    <t>20中证G3</t>
+  </si>
+  <si>
+    <t>20国电01</t>
+  </si>
+  <si>
+    <t>20邮政01</t>
+  </si>
+  <si>
+    <t>20华泰G1</t>
+  </si>
+  <si>
+    <t>20信达01</t>
+  </si>
+  <si>
+    <t>20信投G3</t>
   </si>
   <si>
     <t>20中证G6</t>
   </si>
   <si>
-    <t>18创投S2</t>
-  </si>
-  <si>
-    <t>20深资01</t>
+    <t>18蛇口01</t>
+  </si>
+  <si>
+    <t>20上汽通用债</t>
+  </si>
+  <si>
+    <t>20光大Y2</t>
+  </si>
+  <si>
+    <t>20徽商银行小微债01</t>
+  </si>
+  <si>
+    <t>13同煤债</t>
+  </si>
+  <si>
+    <t>18甬投01</t>
+  </si>
+  <si>
+    <t>20东航01</t>
   </si>
   <si>
     <t>20浦发银行01</t>
   </si>
   <si>
-    <t>20一汽01</t>
-  </si>
-  <si>
-    <t>20西咸03</t>
-  </si>
-  <si>
-    <t>20融创02</t>
-  </si>
-  <si>
-    <t>20平安银行小微债01</t>
-  </si>
-  <si>
-    <t>20浦土01</t>
-  </si>
-  <si>
-    <t>PR海发债</t>
+    <t>20中金G3</t>
+  </si>
+  <si>
+    <t>20北汽05</t>
+  </si>
+  <si>
+    <t>20招证C1</t>
+  </si>
+  <si>
+    <t>20际华01</t>
+  </si>
+  <si>
+    <t>20中金G5</t>
+  </si>
+  <si>
+    <t>20光证G1</t>
   </si>
   <si>
     <t>20湘路02</t>
   </si>
   <si>
-    <t>20诚通15</t>
+    <t>16苏南通一带债</t>
   </si>
   <si>
     <t>20信达G1</t>
   </si>
   <si>
-    <t>20招商G1</t>
-  </si>
-  <si>
-    <t>08大唐债</t>
-  </si>
-  <si>
     <t>20龙控03</t>
   </si>
   <si>
+    <t>20晋金01</t>
+  </si>
+  <si>
+    <t>20浦土02</t>
+  </si>
+  <si>
+    <t>20电投Y6</t>
+  </si>
+  <si>
     <t>20华夏银行小微债01</t>
   </si>
   <si>
-    <t>20交通银行01</t>
-  </si>
-  <si>
     <t>20兴业银行小微债05</t>
   </si>
   <si>
-    <t>20电投Y7</t>
-  </si>
-  <si>
-    <t>G18广业2</t>
-  </si>
-  <si>
-    <t>20北京银行小微债03</t>
-  </si>
-  <si>
-    <t>18粤财03</t>
-  </si>
-  <si>
-    <t>20苏交G2</t>
-  </si>
-  <si>
-    <t>20中交01</t>
-  </si>
-  <si>
-    <t>20国君G5</t>
-  </si>
-  <si>
-    <t>18中铝02</t>
-  </si>
-  <si>
-    <t>20青港01</t>
-  </si>
-  <si>
-    <t>20湘路08</t>
-  </si>
-  <si>
-    <t>20信保Y1</t>
-  </si>
-  <si>
-    <t>20邮政Y5</t>
-  </si>
-  <si>
-    <t>20深铁06</t>
-  </si>
-  <si>
-    <t>20中海03</t>
-  </si>
-  <si>
-    <t>20交通银行02</t>
-  </si>
-  <si>
-    <t>16光控04</t>
-  </si>
-  <si>
-    <t>G18首股</t>
+    <t>20新望01</t>
+  </si>
+  <si>
+    <t>20延长Y1</t>
+  </si>
+  <si>
+    <t>20金街03</t>
+  </si>
+  <si>
+    <t>20光证G5</t>
+  </si>
+  <si>
+    <t>20凤凰01</t>
+  </si>
+  <si>
+    <t>18电投09</t>
+  </si>
+  <si>
+    <t>18苏交04</t>
+  </si>
+  <si>
+    <t>18电投11</t>
+  </si>
+  <si>
+    <t>20大唐Y5</t>
+  </si>
+  <si>
+    <t>20华安G2</t>
   </si>
   <si>
     <t>20鲁金Y1</t>
   </si>
   <si>
-    <t>20国君G9</t>
-  </si>
-  <si>
-    <t>20华泰G9</t>
-  </si>
-  <si>
-    <t>20安纾03</t>
+    <t>18首置04</t>
   </si>
   <si>
     <t>20华夏银行</t>
   </si>
   <si>
+    <t>15投资01</t>
+  </si>
+  <si>
     <t>20路桥02</t>
   </si>
   <si>
-    <t>19中国银行永续债01</t>
-  </si>
-  <si>
-    <t>19民生银行永续债</t>
-  </si>
-  <si>
-    <t>行权</t>
+    <t>19民生银行二级01</t>
+  </si>
+  <si>
+    <t>19蛇口01</t>
+  </si>
+  <si>
+    <t>17桂阳城投债</t>
   </si>
   <si>
     <t>19工商银行永续债</t>
   </si>
   <si>
-    <t>19扬子02</t>
-  </si>
-  <si>
-    <t>19交通银行二级01</t>
+    <t>14建行二级01</t>
+  </si>
+  <si>
+    <t>19东航01</t>
   </si>
   <si>
     <t>19农业银行永续债01</t>
   </si>
   <si>
-    <t>电投Y22</t>
-  </si>
-  <si>
-    <t>19长电02</t>
+    <t>19华电Y2</t>
+  </si>
+  <si>
+    <t>19广发银行永续债</t>
   </si>
   <si>
     <t>19青城G2</t>
   </si>
   <si>
-    <t>19建设银行永续债</t>
-  </si>
-  <si>
-    <t>20航控02</t>
-  </si>
-  <si>
-    <t>18钱投债</t>
+    <t>19蓉产01</t>
+  </si>
+  <si>
+    <t>19铁建Y4</t>
+  </si>
+  <si>
+    <t>19青岛地铁绿色债02</t>
+  </si>
+  <si>
+    <t>19中信银行永续债</t>
+  </si>
+  <si>
+    <t>20青城G1</t>
+  </si>
+  <si>
+    <t>20建材01</t>
+  </si>
+  <si>
+    <t>20武金02</t>
+  </si>
+  <si>
+    <t>20济轨01</t>
   </si>
   <si>
     <t>20新际Y2</t>
   </si>
   <si>
-    <t>20京洁02</t>
-  </si>
-  <si>
-    <t>20华融湘江永续债</t>
-  </si>
-  <si>
-    <t>20厦轨01</t>
-  </si>
-  <si>
-    <t>20华泰G3</t>
-  </si>
-  <si>
-    <t>20农业银行永续债01</t>
-  </si>
-  <si>
-    <t>20粤科01</t>
+    <t>20青城G3</t>
+  </si>
+  <si>
+    <t>20京保01</t>
+  </si>
+  <si>
+    <t>20北汽01</t>
+  </si>
+  <si>
+    <t>20南京地铁绿色债01</t>
+  </si>
+  <si>
+    <t>20中国银行永续债01</t>
+  </si>
+  <si>
+    <t>20北汽03</t>
+  </si>
+  <si>
+    <t>20招商银行永续债01</t>
   </si>
   <si>
     <t>20光大银行永续债</t>
@@ -904,346 +889,322 @@
     <t>20徽商银行二级01</t>
   </si>
   <si>
-    <t>20兴业银行永续债</t>
-  </si>
-  <si>
-    <t>20中国银行永续债02</t>
-  </si>
-  <si>
-    <t>20赣速03</t>
+    <t>20青城04</t>
+  </si>
+  <si>
+    <t>20浦发银行永续债</t>
+  </si>
+  <si>
+    <t>20长沙银行二级</t>
   </si>
   <si>
     <t>20东方资本债01</t>
   </si>
   <si>
-    <t>16保利04</t>
-  </si>
-  <si>
-    <t>16长电01</t>
+    <t>PR长轨03</t>
+  </si>
+  <si>
+    <t>20武金01</t>
+  </si>
+  <si>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>3.44</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>3.48行权</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>3.51</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.4</t>
   </si>
   <si>
     <t>3.30</t>
   </si>
   <si>
-    <t>3.02行权</t>
+    <t>3.61</t>
+  </si>
+  <si>
+    <t>6.90行权</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>3.53</t>
+  </si>
+  <si>
+    <t>4.95</t>
+  </si>
+  <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>4.15</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>5.03</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>3.82</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.47</t>
+  </si>
+  <si>
+    <t>4.60</t>
   </si>
   <si>
     <t>3.68</t>
   </si>
   <si>
-    <t>2.9</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>3.21</t>
-  </si>
-  <si>
-    <t>3.07行权</t>
-  </si>
-  <si>
-    <t>2.91</t>
-  </si>
-  <si>
-    <t>3.74</t>
-  </si>
-  <si>
-    <t>6.6</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>3.22</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>3.05</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>4.01</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>3.31</t>
-  </si>
-  <si>
-    <t>3.63行权</t>
-  </si>
-  <si>
-    <t>3.12</t>
-  </si>
-  <si>
-    <t>3.33</t>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>3.49</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>4.35</t>
+  </si>
+  <si>
+    <t>3.81</t>
+  </si>
+  <si>
+    <t>4.20</t>
+  </si>
+  <si>
+    <t>3.73</t>
+  </si>
+  <si>
+    <t>6.35</t>
+  </si>
+  <si>
+    <t>4.21</t>
   </si>
   <si>
     <t>4.00行权</t>
   </si>
   <si>
-    <t>3.56</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>3.14</t>
-  </si>
-  <si>
-    <t>3.39</t>
-  </si>
-  <si>
-    <t>3.51</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>3.13</t>
+    <t>3.95</t>
+  </si>
+  <si>
+    <t>3.93</t>
+  </si>
+  <si>
+    <t>3.96</t>
+  </si>
+  <si>
+    <t>4.76</t>
+  </si>
+  <si>
+    <t>3.76</t>
+  </si>
+  <si>
+    <t>4.53</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>3.92</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>4.97行权</t>
   </si>
   <si>
     <t>4.06</t>
   </si>
   <si>
-    <t>3.25行权</t>
-  </si>
-  <si>
-    <t>3.19</t>
-  </si>
-  <si>
-    <t>4.22</t>
-  </si>
-  <si>
-    <t>3.42</t>
-  </si>
-  <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>3.86</t>
-  </si>
-  <si>
-    <t>4.30</t>
-  </si>
-  <si>
-    <t>3.66</t>
-  </si>
-  <si>
-    <t>4.09</t>
-  </si>
-  <si>
-    <t>3.24</t>
-  </si>
-  <si>
-    <t>6.04</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.51</t>
-  </si>
-  <si>
-    <t>3.73</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>3.68行权</t>
-  </si>
-  <si>
-    <t>3.28</t>
-  </si>
-  <si>
-    <t>3.27</t>
-  </si>
-  <si>
-    <t>3.85</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>3.78</t>
-  </si>
-  <si>
-    <t>6.72行权</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.58</t>
-  </si>
-  <si>
-    <t>3.54</t>
-  </si>
-  <si>
-    <t>3.38</t>
-  </si>
-  <si>
-    <t>3.65</t>
-  </si>
-  <si>
-    <t>3.62</t>
-  </si>
-  <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>4.19</t>
-  </si>
-  <si>
-    <t>5.9</t>
-  </si>
-  <si>
     <t>4.55</t>
   </si>
   <si>
-    <t>3.385</t>
-  </si>
-  <si>
-    <t>3.37</t>
-  </si>
-  <si>
-    <t>3.77</t>
-  </si>
-  <si>
-    <t>3.46</t>
-  </si>
-  <si>
-    <t>3.69</t>
-  </si>
-  <si>
-    <t>3.80</t>
-  </si>
-  <si>
-    <t>4.45</t>
-  </si>
-  <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>3.405</t>
-  </si>
-  <si>
-    <t>3.48</t>
-  </si>
-  <si>
-    <t>4.36</t>
-  </si>
-  <si>
-    <t>3.43</t>
-  </si>
-  <si>
-    <t>3.41</t>
-  </si>
-  <si>
-    <t>4.21</t>
-  </si>
-  <si>
-    <t>3.87</t>
-  </si>
-  <si>
-    <t>4.24</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>4.28</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>3.61</t>
-  </si>
-  <si>
-    <t>3.95行权</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>4.04</t>
-  </si>
-  <si>
-    <t>4.48</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>4.40</t>
-  </si>
-  <si>
-    <t>4.07</t>
-  </si>
-  <si>
-    <t>4.58</t>
-  </si>
-  <si>
-    <t>4.99行权</t>
-  </si>
-  <si>
-    <t>4.60</t>
-  </si>
-  <si>
-    <t>4.49</t>
-  </si>
-  <si>
-    <t>3.83</t>
+    <t>4.96行权</t>
   </si>
   <si>
     <t>4.86</t>
   </si>
   <si>
-    <t>3.82</t>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>5.35</t>
   </si>
   <si>
     <t>AAA</t>
@@ -1252,7 +1213,7 @@
     <t>AA+/AAA</t>
   </si>
   <si>
-    <t>AAA/AA+</t>
+    <t>AA/AAA</t>
   </si>
 </sst>
 </file>
@@ -1610,7 +1571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F267"/>
+  <dimension ref="A1:F242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1641,16 +1602,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F2">
-        <v>0.821917808219178</v>
+        <v>0.8328767123287671</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1661,16 +1622,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="E3" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F3">
-        <v>0.8547945205479452</v>
+        <v>0.8767123287671232</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1678,19 +1639,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F4">
-        <v>0.873972602739726</v>
+        <v>0.8767123287671232</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1698,19 +1659,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E5" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F5">
-        <v>0.8794520547945206</v>
+        <v>0.8876712328767123</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1718,19 +1679,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E6" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F6">
-        <v>0.8904109589041096</v>
+        <v>0.8876712328767123</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1738,19 +1699,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F7">
-        <v>0.9013698630136986</v>
+        <v>0.8958904109589041</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1758,19 +1719,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E8" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F8">
-        <v>0.9041095890410958</v>
+        <v>0.9287671232876712</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1778,19 +1739,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E9" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F9">
-        <v>0.9205479452054794</v>
+        <v>0.9287671232876712</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1798,19 +1759,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E10" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F10">
-        <v>0.9315068493150684</v>
+        <v>0.9301369863013699</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1818,19 +1779,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E11" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F11">
-        <v>0.9315068493150684</v>
+        <v>0.9301369863013699</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1838,19 +1799,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D12" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E12" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F12">
-        <v>0.9397260273972603</v>
+        <v>0.9452054794520548</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1858,19 +1819,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D13" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E13" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F13">
-        <v>0.9506849315068493</v>
+        <v>0.9726027397260274</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1878,19 +1839,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E14" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="F14">
-        <v>0.9506849315068493</v>
+        <v>1.00986301369863</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1898,19 +1859,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E15" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F15">
-        <v>0.9506849315068493</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1918,19 +1879,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D16" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E16" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F16">
-        <v>0.9671232876712329</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1938,19 +1899,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E17" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F17">
-        <v>0.9671232876712329</v>
+        <v>1.11013698630137</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1958,19 +1919,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E18" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F18">
-        <v>0.9671232876712329</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1978,19 +1939,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E19" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F19">
-        <v>1.04986301369863</v>
+        <v>1.16986301369863</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1998,19 +1959,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E20" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F20">
-        <v>1.1</v>
+        <v>1.18986301369863</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2018,19 +1979,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E21" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F21">
-        <v>1.1</v>
+        <v>1.18986301369863</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2038,19 +1999,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D22" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E22" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F22">
-        <v>1.12986301369863</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2061,16 +2022,16 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E23" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F23">
-        <v>1.12986301369863</v>
+        <v>1.20986301369863</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2078,19 +2039,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E24" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F24">
-        <v>1.12986301369863</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2098,19 +2059,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E25" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F25">
-        <v>1.12986301369863</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2118,19 +2079,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E26" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F26">
-        <v>1.12986301369863</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2138,19 +2099,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D27" t="s">
         <v>318</v>
       </c>
       <c r="E27" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F27">
-        <v>1.12986301369863</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2158,19 +2119,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E28" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F28">
-        <v>1.12986301369863</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2178,19 +2139,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E29" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F29">
-        <v>1.12986301369863</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2198,19 +2159,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D30" t="s">
         <v>320</v>
       </c>
       <c r="E30" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F30">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2218,19 +2179,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E31" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F31">
-        <v>1.16986301369863</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2238,19 +2199,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D32" t="s">
         <v>321</v>
       </c>
       <c r="E32" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F32">
-        <v>1.16986301369863</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2261,16 +2222,16 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D33" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E33" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F33">
-        <v>1.16986301369863</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2281,16 +2242,16 @@
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E34" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F34">
-        <v>1.18986301369863</v>
+        <v>1.31013698630137</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2298,19 +2259,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D35" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E35" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F35">
-        <v>1.18986301369863</v>
+        <v>1.33013698630137</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2318,19 +2279,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="E36" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F36">
-        <v>1.18986301369863</v>
+        <v>1.38986301369863</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2338,19 +2299,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D37" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="E37" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F37">
-        <v>1.2</v>
+        <v>1.38986301369863</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2361,16 +2322,16 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D38" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="E38" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F38">
-        <v>1.20986301369863</v>
+        <v>1.38986301369863</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2381,16 +2342,16 @@
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D39" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="E39" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F39">
-        <v>1.20986301369863</v>
+        <v>1.38986301369863</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2401,16 +2362,16 @@
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E40" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F40">
-        <v>1.20986301369863</v>
+        <v>1.38986301369863</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2421,16 +2382,16 @@
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E41" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F41">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2438,19 +2399,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E42" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F42">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2458,19 +2419,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E43" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F43">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2478,19 +2439,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D44" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E44" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F44">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2498,19 +2459,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D45" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E45" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F45">
-        <v>1.26</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2521,16 +2482,16 @@
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E46" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F46">
-        <v>1.26</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2538,19 +2499,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D47" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
       <c r="E47" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F47">
-        <v>1.27013698630137</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2558,19 +2519,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D48" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E48" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F48">
-        <v>1.27013698630137</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2578,19 +2539,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D49" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="E49" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F49">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2601,16 +2562,16 @@
         <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D50" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="E50" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F50">
-        <v>1.3</v>
+        <v>1.57013698630137</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2618,19 +2579,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D51" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E51" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F51">
-        <v>1.3</v>
+        <v>1.57013698630137</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2641,16 +2602,16 @@
         <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D52" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E52" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F52">
-        <v>1.3</v>
+        <v>1.59013698630137</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2661,16 +2622,16 @@
         <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D53" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="E53" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F53">
-        <v>1.36</v>
+        <v>1.59013698630137</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2678,19 +2639,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="E54" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F54">
-        <v>1.38</v>
+        <v>1.59013698630137</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2698,19 +2659,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C55" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="E55" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F55">
-        <v>1.44986301369863</v>
+        <v>1.59013698630137</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2718,19 +2679,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D56" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="E56" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F56">
-        <v>1.44986301369863</v>
+        <v>1.61013698630137</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2738,19 +2699,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D57" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="E57" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F57">
-        <v>1.50986301369863</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2761,16 +2722,16 @@
         <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D58" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="E58" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F58">
-        <v>1.50986301369863</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2781,16 +2742,16 @@
         <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E59" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F59">
-        <v>1.50986301369863</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2798,19 +2759,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D60" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="E60" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F60">
-        <v>1.50986301369863</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2821,16 +2782,16 @@
         <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D61" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="E61" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F61">
-        <v>1.50986301369863</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2841,16 +2802,16 @@
         <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E62" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F62">
-        <v>1.53013698630137</v>
+        <v>1.66986301369863</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2861,16 +2822,16 @@
         <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D63" t="s">
         <v>337</v>
       </c>
       <c r="E63" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F63">
-        <v>1.53013698630137</v>
+        <v>1.69013698630137</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2881,16 +2842,16 @@
         <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D64" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E64" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F64">
-        <v>1.55013698630137</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2898,19 +2859,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D65" t="s">
         <v>338</v>
       </c>
       <c r="E65" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F65">
-        <v>1.55013698630137</v>
+        <v>1.70986301369863</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2918,19 +2879,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D66" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="E66" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F66">
-        <v>1.55013698630137</v>
+        <v>1.70986301369863</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2938,19 +2899,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D67" t="s">
         <v>338</v>
       </c>
       <c r="E67" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F67">
-        <v>1.55013698630137</v>
+        <v>1.70986301369863</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2958,19 +2919,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D68" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E68" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F68">
-        <v>1.55013698630137</v>
+        <v>1.70986301369863</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2981,16 +2942,16 @@
         <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D69" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E69" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F69">
-        <v>1.6</v>
+        <v>1.70986301369863</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2998,19 +2959,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D70" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="E70" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F70">
-        <v>1.6</v>
+        <v>1.70986301369863</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3018,19 +2979,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C71" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D71" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="E71" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="F71">
-        <v>1.61013698630137</v>
+        <v>1.70986301369863</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3038,19 +2999,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C72" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="E72" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="F72">
-        <v>1.61013698630137</v>
+        <v>1.70986301369863</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3058,19 +3019,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C73" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D73" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E73" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F73">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3078,19 +3039,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D74" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="E74" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F74">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3098,19 +3059,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D75" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="E75" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F75">
-        <v>1.7</v>
+        <v>1.76986301369863</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3118,19 +3079,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C76" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D76" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="E76" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F76">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3138,19 +3099,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D77" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="E77" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F77">
-        <v>1.70986301369863</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3158,19 +3119,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D78" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="E78" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F78">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3178,19 +3139,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D79" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="E79" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F79">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3198,19 +3159,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C80" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D80" t="s">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="E80" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F80">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3218,19 +3179,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C81" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D81" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E81" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F81">
-        <v>1.72</v>
+        <v>1.79013698630137</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3238,19 +3199,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C82" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D82" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E82" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F82">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3258,19 +3219,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C83" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D83" t="s">
         <v>344</v>
       </c>
       <c r="E83" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F83">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3281,16 +3242,16 @@
         <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D84" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E84" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F84">
-        <v>1.78</v>
+        <v>1.84986301369863</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3298,19 +3259,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C85" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D85" t="s">
         <v>345</v>
       </c>
       <c r="E85" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F85">
-        <v>1.8</v>
+        <v>1.84986301369863</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3321,16 +3282,16 @@
         <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D86" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E86" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F86">
-        <v>1.8</v>
+        <v>1.84986301369863</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3341,16 +3302,16 @@
         <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D87" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E87" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F87">
-        <v>1.80986301369863</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3361,16 +3322,16 @@
         <v>57</v>
       </c>
       <c r="C88" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D88" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E88" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F88">
-        <v>1.80986301369863</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3378,19 +3339,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C89" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D89" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="E89" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F89">
-        <v>1.80986301369863</v>
+        <v>1.87013698630137</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3401,16 +3362,16 @@
         <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D90" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="E90" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F90">
-        <v>1.82</v>
+        <v>1.87013698630137</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3421,16 +3382,16 @@
         <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D91" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="E91" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F91">
-        <v>1.82</v>
+        <v>1.87013698630137</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3441,16 +3402,16 @@
         <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D92" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="E92" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F92">
-        <v>1.82</v>
+        <v>1.87013698630137</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3461,16 +3422,16 @@
         <v>59</v>
       </c>
       <c r="C93" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D93" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="E93" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F93">
-        <v>1.82</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3478,19 +3439,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C94" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D94" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="E94" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F94">
-        <v>1.83013698630137</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3498,19 +3459,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D95" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="E95" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F95">
-        <v>1.87013698630137</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3518,19 +3479,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C96" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D96" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="E96" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F96">
-        <v>1.87013698630137</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3538,19 +3499,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D97" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E97" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F97">
-        <v>1.87013698630137</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3558,19 +3519,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C98" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D98" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="E98" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F98">
-        <v>1.88</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3578,19 +3539,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C99" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D99" t="s">
-        <v>304</v>
+        <v>347</v>
       </c>
       <c r="E99" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F99">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3598,19 +3559,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D100" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E100" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F100">
-        <v>1.88</v>
+        <v>1.92986301369863</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3618,19 +3579,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C101" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D101" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="E101" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F101">
-        <v>1.88</v>
+        <v>1.92986301369863</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3638,19 +3599,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C102" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D102" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="E102" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F102">
-        <v>1.88</v>
+        <v>1.92986301369863</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3658,19 +3619,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C103" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D103" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E103" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F103">
-        <v>1.88986301369863</v>
+        <v>1.95013698630137</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3678,19 +3639,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C104" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D104" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E104" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F104">
-        <v>1.88986301369863</v>
+        <v>1.95013698630137</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3701,16 +3662,16 @@
         <v>63</v>
       </c>
       <c r="C105" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D105" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="E105" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F105">
-        <v>1.88986301369863</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3718,19 +3679,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C106" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D106" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="E106" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F106">
-        <v>1.88986301369863</v>
+        <v>2.00986301369863</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3738,19 +3699,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D107" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E107" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F107">
-        <v>1.88986301369863</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3758,19 +3719,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C108" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D108" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E108" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F108">
-        <v>1.88986301369863</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3778,19 +3739,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D109" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E109" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F109">
-        <v>1.88986301369863</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3798,19 +3759,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C110" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D110" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E110" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F110">
-        <v>1.88986301369863</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3818,19 +3779,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C111" t="s">
         <v>215</v>
       </c>
       <c r="D111" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="E111" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F111">
-        <v>1.88986301369863</v>
+        <v>2.12986301369863</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3838,19 +3799,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C112" t="s">
         <v>215</v>
       </c>
       <c r="D112" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="E112" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F112">
-        <v>1.88986301369863</v>
+        <v>2.12986301369863</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3858,19 +3819,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C113" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D113" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="E113" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="F113">
-        <v>1.9</v>
+        <v>2.12986301369863</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3878,19 +3839,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D114" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="E114" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F114">
-        <v>1.92986301369863</v>
+        <v>2.12986301369863</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3898,19 +3859,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C115" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D115" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="E115" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F115">
-        <v>1.94</v>
+        <v>2.12986301369863</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3918,19 +3879,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C116" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D116" t="s">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="E116" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F116">
-        <v>1.95013698630137</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3938,19 +3899,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C117" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D117" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E117" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F117">
-        <v>1.96</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3958,19 +3919,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C118" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D118" t="s">
-        <v>359</v>
+        <v>305</v>
       </c>
       <c r="E118" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F118">
-        <v>1.96</v>
+        <v>2.16986301369863</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3978,19 +3939,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C119" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D119" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="E119" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F119">
-        <v>1.96</v>
+        <v>2.16986301369863</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3998,19 +3959,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C120" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D120" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="E120" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F120">
-        <v>1.98</v>
+        <v>2.20986301369863</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4018,19 +3979,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C121" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D121" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="E121" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F121">
-        <v>1.98</v>
+        <v>2.20986301369863</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4038,19 +3999,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C122" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D122" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="E122" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F122">
-        <v>2.06986301369863</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4058,19 +4019,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C123" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D123" t="s">
         <v>308</v>
       </c>
       <c r="E123" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F123">
-        <v>2.06986301369863</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4078,19 +4039,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C124" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D124" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E124" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F124">
-        <v>2.16</v>
+        <v>2.26986301369863</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4098,19 +4059,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C125" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D125" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E125" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F125">
-        <v>2.16</v>
+        <v>2.26986301369863</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4118,19 +4079,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C126" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D126" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E126" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F126">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4138,19 +4099,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C127" t="s">
         <v>226</v>
       </c>
       <c r="D127" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="E127" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F127">
-        <v>2.18</v>
+        <v>2.29013698630137</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4158,19 +4119,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C128" t="s">
         <v>227</v>
       </c>
       <c r="D128" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E128" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F128">
-        <v>2.19013698630137</v>
+        <v>2.29013698630137</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4178,19 +4139,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C129" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D129" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="E129" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F129">
-        <v>2.19013698630137</v>
+        <v>2.29013698630137</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4198,19 +4159,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C130" t="s">
         <v>227</v>
       </c>
       <c r="D130" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E130" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F130">
-        <v>2.19013698630137</v>
+        <v>2.29013698630137</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4218,19 +4179,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C131" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D131" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E131" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F131">
-        <v>2.19013698630137</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4238,19 +4199,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C132" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D132" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="E132" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F132">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4258,19 +4219,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C133" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D133" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E133" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F133">
-        <v>2.20986301369863</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4278,19 +4239,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C134" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D134" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="E134" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F134">
-        <v>2.23013698630137</v>
+        <v>2.30986301369863</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4298,19 +4259,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C135" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D135" t="s">
-        <v>361</v>
+        <v>300</v>
       </c>
       <c r="E135" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F135">
-        <v>2.23013698630137</v>
+        <v>2.30986301369863</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4318,19 +4279,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C136" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D136" t="s">
         <v>361</v>
       </c>
       <c r="E136" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F136">
-        <v>2.23013698630137</v>
+        <v>2.33013698630137</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4338,19 +4299,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C137" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D137" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="E137" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F137">
-        <v>2.26</v>
+        <v>2.33013698630137</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4358,19 +4319,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C138" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D138" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="E138" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F138">
-        <v>2.26986301369863</v>
+        <v>2.41013698630137</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4378,19 +4339,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C139" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D139" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E139" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F139">
-        <v>2.28</v>
+        <v>2.41013698630137</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4404,13 +4365,13 @@
         <v>234</v>
       </c>
       <c r="D140" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="E140" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F140">
-        <v>2.3</v>
+        <v>2.41013698630137</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4418,19 +4379,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C141" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D141" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="E141" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F141">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4441,16 +4402,16 @@
         <v>82</v>
       </c>
       <c r="C142" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D142" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="E142" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F142">
-        <v>2.30986301369863</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4458,19 +4419,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C143" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D143" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="E143" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F143">
-        <v>2.30986301369863</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4484,13 +4445,13 @@
         <v>237</v>
       </c>
       <c r="D144" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="E144" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F144">
-        <v>2.33013698630137</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4498,19 +4459,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C145" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D145" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="E145" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F145">
-        <v>2.33013698630137</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4518,19 +4479,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C146" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D146" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="E146" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F146">
-        <v>2.39013698630137</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4544,13 +4505,13 @@
         <v>239</v>
       </c>
       <c r="D147" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="E147" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F147">
-        <v>2.39013698630137</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4558,19 +4519,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C148" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D148" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="E148" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F148">
-        <v>2.39013698630137</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4578,19 +4539,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C149" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D149" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="E149" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="F149">
-        <v>2.41013698630137</v>
+        <v>2.52986301369863</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4598,19 +4559,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C150" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D150" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E150" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="F150">
-        <v>2.42</v>
+        <v>2.54986301369863</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4618,19 +4579,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C151" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D151" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="E151" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F151">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4638,19 +4599,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C152" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D152" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="E152" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="F152">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4658,19 +4619,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C153" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D153" t="s">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="E153" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F153">
-        <v>2.47013698630137</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4678,19 +4639,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C154" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D154" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="E154" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F154">
-        <v>2.47013698630137</v>
+        <v>2.58986301369863</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4698,19 +4659,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C155" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D155" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="E155" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F155">
-        <v>2.47013698630137</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4718,19 +4679,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C156" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D156" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E156" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F156">
-        <v>2.52986301369863</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4738,19 +4699,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C157" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D157" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="E157" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F157">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4761,16 +4722,16 @@
         <v>92</v>
       </c>
       <c r="C158" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D158" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="E158" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F158">
-        <v>2.54986301369863</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4781,16 +4742,16 @@
         <v>93</v>
       </c>
       <c r="C159" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D159" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E159" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F159">
-        <v>2.54986301369863</v>
+        <v>2.60986301369863</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4801,16 +4762,16 @@
         <v>94</v>
       </c>
       <c r="C160" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D160" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="E160" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F160">
-        <v>2.58986301369863</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4821,16 +4782,16 @@
         <v>94</v>
       </c>
       <c r="C161" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D161" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E161" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F161">
-        <v>2.58986301369863</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4844,13 +4805,13 @@
         <v>249</v>
       </c>
       <c r="D162" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E162" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F162">
-        <v>2.58986301369863</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4858,19 +4819,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C163" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D163" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E163" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F163">
-        <v>2.58986301369863</v>
+        <v>2.62986301369863</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4878,19 +4839,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C164" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D164" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E164" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F164">
-        <v>2.58986301369863</v>
+        <v>2.62986301369863</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4898,19 +4859,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C165" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D165" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E165" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F165">
-        <v>2.58986301369863</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4918,19 +4879,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C166" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D166" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E166" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F166">
-        <v>2.58986301369863</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4938,19 +4899,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C167" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D167" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="E167" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F167">
-        <v>2.6</v>
+        <v>2.70986301369863</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4958,19 +4919,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C168" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D168" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="E168" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F168">
-        <v>2.6</v>
+        <v>2.70986301369863</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4978,19 +4939,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C169" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D169" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="E169" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F169">
-        <v>2.6</v>
+        <v>2.70986301369863</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5004,13 +4965,13 @@
         <v>252</v>
       </c>
       <c r="D170" t="s">
-        <v>367</v>
+        <v>318</v>
       </c>
       <c r="E170" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F170">
-        <v>2.60986301369863</v>
+        <v>2.70986301369863</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5018,19 +4979,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C171" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D171" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="E171" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F171">
-        <v>2.62</v>
+        <v>2.70986301369863</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -5038,19 +4999,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C172" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D172" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="E172" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F172">
-        <v>2.62</v>
+        <v>2.70986301369863</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5058,19 +5019,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C173" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D173" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E173" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F173">
-        <v>2.62</v>
+        <v>2.79013698630137</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5084,13 +5045,13 @@
         <v>254</v>
       </c>
       <c r="D174" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="E174" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F174">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5104,13 +5065,13 @@
         <v>254</v>
       </c>
       <c r="D175" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="E175" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F175">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5118,19 +5079,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C176" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D176" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="E176" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F176">
-        <v>2.62</v>
+        <v>2.84986301369863</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5138,19 +5099,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C177" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D177" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E177" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F177">
-        <v>2.64</v>
+        <v>2.84986301369863</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5158,19 +5119,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C178" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D178" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E178" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F178">
-        <v>2.64</v>
+        <v>2.84986301369863</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5178,19 +5139,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C179" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D179" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="E179" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F179">
-        <v>2.64986301369863</v>
+        <v>2.89013698630137</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5198,19 +5159,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C180" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D180" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="E180" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F180">
-        <v>2.64986301369863</v>
+        <v>2.91013698630137</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5218,19 +5179,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C181" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D181" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="E181" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F181">
-        <v>2.64986301369863</v>
+        <v>2.91013698630137</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5238,19 +5199,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C182" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D182" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E182" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F182">
-        <v>2.66</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5258,19 +5219,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C183" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D183" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E183" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F183">
-        <v>2.66</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5278,19 +5239,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C184" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D184" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="E184" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F184">
-        <v>2.7</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5298,19 +5259,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C185" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D185" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E185" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F185">
-        <v>2.81013698630137</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5318,19 +5279,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C186" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D186" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E186" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F186">
-        <v>2.81013698630137</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5338,19 +5299,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C187" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D187" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E187" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F187">
-        <v>2.81013698630137</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5358,19 +5319,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C188" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D188" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E188" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F188">
-        <v>2.81013698630137</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5378,19 +5339,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C189" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D189" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E189" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F189">
-        <v>2.81013698630137</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5398,19 +5359,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C190" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D190" t="s">
-        <v>379</v>
+        <v>303</v>
       </c>
       <c r="E190" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F190">
-        <v>2.83013698630137</v>
+        <v>3.15013698630137</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5418,19 +5379,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C191" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D191" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E191" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F191">
-        <v>2.84</v>
+        <v>3.47013698630137</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5438,19 +5399,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C192" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D192" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E192" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F192">
-        <v>2.84</v>
+        <v>3.47013698630137</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5458,19 +5419,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C193" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D193" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E193" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F193">
-        <v>2.84</v>
+        <v>3.47013698630137</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5478,19 +5439,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C194" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D194" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E194" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="F194">
-        <v>2.84</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5498,19 +5459,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C195" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D195" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E195" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F195">
-        <v>2.84</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5518,19 +5479,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C196" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D196" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E196" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F196">
-        <v>2.84</v>
+        <v>3.60986301369863</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5538,19 +5499,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C197" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D197" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E197" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F197">
-        <v>2.84986301369863</v>
+        <v>3.60986301369863</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5558,19 +5519,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C198" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D198" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="E198" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F198">
-        <v>2.84986301369863</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5578,19 +5539,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C199" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D199" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E199" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F199">
-        <v>2.84986301369863</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5598,19 +5559,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C200" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D200" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E200" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F200">
-        <v>2.84986301369863</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5618,19 +5579,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C201" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D201" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E201" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F201">
-        <v>2.88</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5638,19 +5599,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C202" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D202" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="E202" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F202">
-        <v>2.89013698630137</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5664,13 +5625,13 @@
         <v>268</v>
       </c>
       <c r="D203" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="E203" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F203">
-        <v>2.91013698630137</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5684,13 +5645,13 @@
         <v>269</v>
       </c>
       <c r="D204" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="E204" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F204">
-        <v>2.92</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5698,19 +5659,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C205" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D205" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="E205" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F205">
-        <v>2.92</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5718,19 +5679,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C206" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D206" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="E206" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F206">
-        <v>2.93013698630137</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5738,19 +5699,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C207" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D207" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="E207" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F207">
-        <v>2.94</v>
+        <v>3.66986301369863</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5758,19 +5719,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C208" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D208" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="E208" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F208">
-        <v>2.94</v>
+        <v>3.66986301369863</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5778,19 +5739,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C209" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D209" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="E209" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F209">
-        <v>2.95013698630137</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5804,13 +5765,13 @@
         <v>272</v>
       </c>
       <c r="D210" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="E210" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F210">
-        <v>2.95013698630137</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5818,19 +5779,19 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C211" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D211" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="E211" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F211">
-        <v>2.95013698630137</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5838,19 +5799,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C212" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D212" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="E212" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F212">
-        <v>2.95013698630137</v>
+        <v>3.86986301369863</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5858,19 +5819,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C213" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D213" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="E213" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F213">
-        <v>2.95013698630137</v>
+        <v>3.93013698630137</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5878,19 +5839,19 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C214" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D214" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="E214" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F214">
-        <v>2.95013698630137</v>
+        <v>3.93013698630137</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5898,19 +5859,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C215" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D215" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="E215" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F215">
-        <v>2.95013698630137</v>
+        <v>4.03013698630137</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5918,19 +5879,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C216" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D216" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E216" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F216">
-        <v>2.95013698630137</v>
+        <v>4.16986301369863</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5938,19 +5899,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C217" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D217" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E217" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F217">
-        <v>2.95013698630137</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5958,19 +5919,19 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C218" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D218" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E218" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F218">
-        <v>2.95013698630137</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5978,19 +5939,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C219" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D219" t="s">
         <v>386</v>
       </c>
       <c r="E219" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F219">
-        <v>2.95013698630137</v>
+        <v>4.19013698630137</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5998,19 +5959,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C220" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D220" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E220" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F220">
-        <v>2.95013698630137</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6018,19 +5979,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C221" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D221" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E221" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F221">
-        <v>2.96</v>
+        <v>4.24986301369863</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6038,19 +5999,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C222" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D222" t="s">
         <v>387</v>
       </c>
       <c r="E222" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F222">
-        <v>3.06986301369863</v>
+        <v>4.26986301369863</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6058,19 +6019,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C223" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="D223" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="E223" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F223">
-        <v>3.41013698630137</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6078,19 +6039,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C224" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D224" t="s">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="E224" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F224">
-        <v>3.41013698630137</v>
+        <v>4.28986301369863</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6098,19 +6059,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C225" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D225" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="E225" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F225">
-        <v>3.42</v>
+        <v>4.30986301369863</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6118,19 +6079,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C226" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D226" t="s">
-        <v>388</v>
+        <v>310</v>
       </c>
       <c r="E226" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F226">
-        <v>3.42</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6138,19 +6099,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C227" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="D227" t="s">
-        <v>389</v>
+        <v>310</v>
       </c>
       <c r="E227" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F227">
-        <v>3.56</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6158,19 +6119,19 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C228" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D228" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="E228" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F228">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6178,19 +6139,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C229" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="D229" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="E229" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F229">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6198,19 +6159,19 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C230" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="D230" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E230" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F230">
-        <v>3.6</v>
+        <v>4.71013698630137</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6218,19 +6179,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C231" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D231" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="E231" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F231">
-        <v>3.60986301369863</v>
+        <v>4.71013698630137</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6238,19 +6199,19 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C232" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D232" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="E232" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F232">
-        <v>3.62</v>
+        <v>4.71013698630137</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6258,19 +6219,19 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C233" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D233" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E233" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F233">
-        <v>3.62</v>
+        <v>4.73013698630137</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6278,19 +6239,19 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C234" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="D234" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E234" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F234">
-        <v>3.63013698630137</v>
+        <v>4.80986301369863</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6298,19 +6259,19 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C235" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D235" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E235" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F235">
-        <v>3.66</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6318,19 +6279,19 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C236" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D236" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E236" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F236">
-        <v>3.66</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6338,19 +6299,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C237" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="D237" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E237" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F237">
-        <v>3.82</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6358,19 +6319,19 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C238" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="D238" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E238" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F238">
-        <v>3.84</v>
+        <v>4.91013698630137</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6378,19 +6339,19 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C239" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D239" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E239" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F239">
-        <v>3.86</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6398,19 +6359,19 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C240" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="D240" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E240" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F240">
-        <v>3.86</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6418,19 +6379,19 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C241" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="D241" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E241" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F241">
-        <v>3.86</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6438,519 +6399,19 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C242" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="D242" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E242" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="F242">
-        <v>4.14</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" t="s">
-        <v>131</v>
-      </c>
-      <c r="C243" t="s">
-        <v>276</v>
-      </c>
-      <c r="D243" t="s">
-        <v>393</v>
-      </c>
-      <c r="E243" t="s">
-        <v>410</v>
-      </c>
-      <c r="F243">
-        <v>4.19013698630137</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" t="s">
-        <v>132</v>
-      </c>
-      <c r="C244" t="s">
-        <v>286</v>
-      </c>
-      <c r="D244" t="s">
-        <v>311</v>
-      </c>
-      <c r="E244" t="s">
-        <v>410</v>
-      </c>
-      <c r="F244">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245" t="s">
-        <v>133</v>
-      </c>
-      <c r="C245" t="s">
-        <v>287</v>
-      </c>
-      <c r="D245" t="s">
-        <v>399</v>
-      </c>
-      <c r="E245" t="s">
-        <v>410</v>
-      </c>
-      <c r="F245">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246" t="s">
-        <v>133</v>
-      </c>
-      <c r="C246" t="s">
-        <v>287</v>
-      </c>
-      <c r="D246" t="s">
-        <v>399</v>
-      </c>
-      <c r="E246" t="s">
-        <v>410</v>
-      </c>
-      <c r="F246">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247" t="s">
-        <v>134</v>
-      </c>
-      <c r="C247" t="s">
-        <v>288</v>
-      </c>
-      <c r="D247" t="s">
-        <v>375</v>
-      </c>
-      <c r="E247" t="s">
-        <v>410</v>
-      </c>
-      <c r="F247">
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248" t="s">
-        <v>135</v>
-      </c>
-      <c r="C248" t="s">
-        <v>289</v>
-      </c>
-      <c r="D248" t="s">
-        <v>400</v>
-      </c>
-      <c r="E248" t="s">
-        <v>412</v>
-      </c>
-      <c r="F248">
-        <v>4.28986301369863</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249" t="s">
-        <v>135</v>
-      </c>
-      <c r="C249" t="s">
-        <v>289</v>
-      </c>
-      <c r="D249" t="s">
-        <v>400</v>
-      </c>
-      <c r="E249" t="s">
-        <v>412</v>
-      </c>
-      <c r="F249">
-        <v>4.28986301369863</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250" t="s">
-        <v>136</v>
-      </c>
-      <c r="C250" t="s">
-        <v>290</v>
-      </c>
-      <c r="D250" t="s">
-        <v>356</v>
-      </c>
-      <c r="E250" t="s">
-        <v>410</v>
-      </c>
-      <c r="F250">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251" t="s">
-        <v>137</v>
-      </c>
-      <c r="C251" t="s">
-        <v>291</v>
-      </c>
-      <c r="D251" t="s">
-        <v>375</v>
-      </c>
-      <c r="E251" t="s">
-        <v>410</v>
-      </c>
-      <c r="F251">
-        <v>4.30986301369863</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" t="s">
-        <v>138</v>
-      </c>
-      <c r="C252" t="s">
-        <v>292</v>
-      </c>
-      <c r="D252" t="s">
-        <v>401</v>
-      </c>
-      <c r="E252" t="s">
-        <v>410</v>
-      </c>
-      <c r="F252">
-        <v>4.34986301369863</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253" t="s">
-        <v>139</v>
-      </c>
-      <c r="C253" t="s">
-        <v>293</v>
-      </c>
-      <c r="D253" t="s">
-        <v>402</v>
-      </c>
-      <c r="E253" t="s">
-        <v>410</v>
-      </c>
-      <c r="F253">
-        <v>4.68</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254" t="s">
-        <v>140</v>
-      </c>
-      <c r="C254" t="s">
-        <v>294</v>
-      </c>
-      <c r="D254" t="s">
-        <v>403</v>
-      </c>
-      <c r="E254" t="s">
-        <v>410</v>
-      </c>
-      <c r="F254">
-        <v>4.71013698630137</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255" t="s">
-        <v>140</v>
-      </c>
-      <c r="C255" t="s">
-        <v>294</v>
-      </c>
-      <c r="D255" t="s">
-        <v>403</v>
-      </c>
-      <c r="E255" t="s">
-        <v>410</v>
-      </c>
-      <c r="F255">
-        <v>4.71013698630137</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256" t="s">
-        <v>141</v>
-      </c>
-      <c r="C256" t="s">
-        <v>295</v>
-      </c>
-      <c r="D256" t="s">
-        <v>404</v>
-      </c>
-      <c r="E256" t="s">
-        <v>410</v>
-      </c>
-      <c r="F256">
-        <v>4.73013698630137</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257" t="s">
-        <v>142</v>
-      </c>
-      <c r="C257" t="s">
-        <v>296</v>
-      </c>
-      <c r="D257" t="s">
-        <v>405</v>
-      </c>
-      <c r="E257" t="s">
-        <v>410</v>
-      </c>
-      <c r="F257">
-        <v>4.78</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258" t="s">
-        <v>143</v>
-      </c>
-      <c r="C258" t="s">
-        <v>297</v>
-      </c>
-      <c r="D258" t="s">
-        <v>406</v>
-      </c>
-      <c r="E258" t="s">
-        <v>410</v>
-      </c>
-      <c r="F258">
-        <v>4.86986301369863</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259" t="s">
-        <v>144</v>
-      </c>
-      <c r="C259" t="s">
-        <v>298</v>
-      </c>
-      <c r="D259" t="s">
-        <v>407</v>
-      </c>
-      <c r="E259" t="s">
-        <v>410</v>
-      </c>
-      <c r="F259">
-        <v>4.929863013698631</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260" t="s">
-        <v>144</v>
-      </c>
-      <c r="C260" t="s">
-        <v>298</v>
-      </c>
-      <c r="D260" t="s">
-        <v>407</v>
-      </c>
-      <c r="E260" t="s">
-        <v>410</v>
-      </c>
-      <c r="F260">
-        <v>4.929863013698631</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261" t="s">
-        <v>144</v>
-      </c>
-      <c r="C261" t="s">
-        <v>298</v>
-      </c>
-      <c r="D261" t="s">
-        <v>407</v>
-      </c>
-      <c r="E261" t="s">
-        <v>410</v>
-      </c>
-      <c r="F261">
-        <v>4.929863013698631</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262" s="1">
-        <v>260</v>
-      </c>
-      <c r="B262" t="s">
-        <v>144</v>
-      </c>
-      <c r="C262" t="s">
-        <v>298</v>
-      </c>
-      <c r="D262" t="s">
-        <v>407</v>
-      </c>
-      <c r="E262" t="s">
-        <v>410</v>
-      </c>
-      <c r="F262">
-        <v>4.929863013698631</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263" s="1">
-        <v>261</v>
-      </c>
-      <c r="B263" t="s">
-        <v>144</v>
-      </c>
-      <c r="C263" t="s">
-        <v>298</v>
-      </c>
-      <c r="D263" t="s">
-        <v>407</v>
-      </c>
-      <c r="E263" t="s">
-        <v>410</v>
-      </c>
-      <c r="F263">
-        <v>4.929863013698631</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264" s="1">
-        <v>262</v>
-      </c>
-      <c r="B264" t="s">
-        <v>144</v>
-      </c>
-      <c r="C264" t="s">
-        <v>298</v>
-      </c>
-      <c r="D264" t="s">
-        <v>407</v>
-      </c>
-      <c r="E264" t="s">
-        <v>410</v>
-      </c>
-      <c r="F264">
-        <v>4.929863013698631</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="A265" s="1">
-        <v>263</v>
-      </c>
-      <c r="B265" t="s">
-        <v>145</v>
-      </c>
-      <c r="C265" t="s">
-        <v>299</v>
-      </c>
-      <c r="D265" t="s">
-        <v>408</v>
-      </c>
-      <c r="E265" t="s">
-        <v>410</v>
-      </c>
-      <c r="F265">
-        <v>4.94</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="B266" t="s">
-        <v>146</v>
-      </c>
-      <c r="C266" t="s">
-        <v>300</v>
-      </c>
-      <c r="D266" t="s">
-        <v>407</v>
-      </c>
-      <c r="E266" t="s">
-        <v>410</v>
-      </c>
-      <c r="F266">
-        <v>5.14</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267" t="s">
-        <v>147</v>
-      </c>
-      <c r="C267" t="s">
-        <v>301</v>
-      </c>
-      <c r="D267" t="s">
-        <v>409</v>
-      </c>
-      <c r="E267" t="s">
-        <v>410</v>
-      </c>
-      <c r="F267">
-        <v>5.779999999999999</v>
+        <v>9.18</v>
       </c>
     </row>
   </sheetData>

--- a/data/BondDeal/企业债.xlsx
+++ b/data/BondDeal/企业债.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="413">
   <si>
     <t>剩余期限</t>
   </si>
@@ -31,48 +31,69 @@
     <t>year</t>
   </si>
   <si>
-    <t>304D+2Y</t>
-  </si>
-  <si>
-    <t>320D</t>
-  </si>
-  <si>
-    <t>324D+2Y</t>
-  </si>
-  <si>
-    <t>324D</t>
-  </si>
-  <si>
-    <t>327D+N</t>
-  </si>
-  <si>
-    <t>339D+N(休2)</t>
-  </si>
-  <si>
-    <t>0.93Y+2Y</t>
-  </si>
-  <si>
-    <t>345D</t>
-  </si>
-  <si>
-    <t>355D+N</t>
-  </si>
-  <si>
-    <t>1.01Y</t>
-  </si>
-  <si>
-    <t>1.04Y</t>
-  </si>
-  <si>
-    <t>1.11Y+1Y</t>
+    <t>300D+2Y</t>
+  </si>
+  <si>
+    <t>312D+2Y</t>
+  </si>
+  <si>
+    <t>319D+N(休2)</t>
+  </si>
+  <si>
+    <t>321D</t>
+  </si>
+  <si>
+    <t>325D</t>
+  </si>
+  <si>
+    <t>329D</t>
+  </si>
+  <si>
+    <t>330D+1Y</t>
+  </si>
+  <si>
+    <t>336D</t>
+  </si>
+  <si>
+    <t>340D+2Y</t>
+  </si>
+  <si>
+    <t>343D</t>
+  </si>
+  <si>
+    <t>347D+N(休2)</t>
+  </si>
+  <si>
+    <t>347D(休2)</t>
+  </si>
+  <si>
+    <t>347D+N</t>
+  </si>
+  <si>
+    <t>353D+N</t>
+  </si>
+  <si>
+    <t>1.05Y+3Y</t>
+  </si>
+  <si>
+    <t>1.1Y</t>
+  </si>
+  <si>
+    <t>1.13Y</t>
   </si>
   <si>
     <t>1.13Y+2Y</t>
   </si>
   <si>
+    <t>1.14Y</t>
+  </si>
+  <si>
     <t>1.17Y</t>
   </si>
   <si>
+    <t>1.17Y+1Y</t>
+  </si>
+  <si>
     <t>1.19Y</t>
   </si>
   <si>
@@ -82,73 +103,70 @@
     <t>1.21Y+5Y</t>
   </si>
   <si>
+    <t>1.21Y+2Y</t>
+  </si>
+  <si>
     <t>1.22Y</t>
   </si>
   <si>
-    <t>1.24Y+2Y</t>
-  </si>
-  <si>
-    <t>1.26Y+N</t>
+    <t>1.22Y+2Y</t>
+  </si>
+  <si>
+    <t>1.26Y</t>
+  </si>
+  <si>
+    <t>1.26Y+4Y</t>
+  </si>
+  <si>
+    <t>1.27Y+N</t>
+  </si>
+  <si>
+    <t>1.3Y+2Y</t>
   </si>
   <si>
     <t>1.3Y</t>
   </si>
   <si>
-    <t>1.31Y</t>
-  </si>
-  <si>
-    <t>1.33Y+2Y</t>
-  </si>
-  <si>
-    <t>1.39Y</t>
-  </si>
-  <si>
-    <t>1.39Y+N</t>
-  </si>
-  <si>
-    <t>1.42Y+N</t>
+    <t>1.36Y</t>
+  </si>
+  <si>
+    <t>1.38Y+5Y</t>
+  </si>
+  <si>
+    <t>1.45Y</t>
+  </si>
+  <si>
+    <t>1.51Y</t>
+  </si>
+  <si>
+    <t>1.51Y+N</t>
+  </si>
+  <si>
+    <t>1.51Y+2Y</t>
   </si>
   <si>
     <t>1.53Y</t>
   </si>
   <si>
-    <t>1.53Y+2Y</t>
-  </si>
-  <si>
-    <t>1.56Y</t>
-  </si>
-  <si>
-    <t>1.56Y+1Y</t>
-  </si>
-  <si>
-    <t>1.57Y</t>
-  </si>
-  <si>
-    <t>1.59Y+5Y</t>
-  </si>
-  <si>
-    <t>1.59Y</t>
+    <t>1.53Y+1Y</t>
+  </si>
+  <si>
+    <t>1.55Y+2Y</t>
+  </si>
+  <si>
+    <t>1.6Y+2Y</t>
+  </si>
+  <si>
+    <t>1.6Y</t>
   </si>
   <si>
     <t>1.61Y</t>
   </si>
   <si>
-    <t>1.62Y+2Y</t>
-  </si>
-  <si>
-    <t>1.64Y+N</t>
-  </si>
-  <si>
-    <t>1.64Y</t>
-  </si>
-  <si>
-    <t>1.66Y</t>
-  </si>
-  <si>
-    <t>1.67Y+N</t>
-  </si>
-  <si>
-    <t>1.69Y</t>
+    <t>1.68Y+2Y</t>
+  </si>
+  <si>
+    <t>1.68Y</t>
   </si>
   <si>
     <t>1.7Y</t>
@@ -157,42 +175,36 @@
     <t>1.71Y</t>
   </si>
   <si>
+    <t>1.72Y</t>
+  </si>
+  <si>
     <t>1.72Y+N</t>
   </si>
   <si>
-    <t>1.72Y</t>
-  </si>
-  <si>
-    <t>1.77Y+2Y+1Y</t>
-  </si>
-  <si>
-    <t>1.78Y</t>
-  </si>
-  <si>
     <t>1.78Y+N</t>
   </si>
   <si>
-    <t>1.79Y</t>
-  </si>
-  <si>
-    <t>1.8Y+2Y</t>
-  </si>
-  <si>
-    <t>1.84Y+N</t>
-  </si>
-  <si>
-    <t>1.85Y+3Y</t>
-  </si>
-  <si>
-    <t>1.85Y+N</t>
-  </si>
-  <si>
-    <t>1.86Y</t>
+    <t>1.80Y+N</t>
+  </si>
+  <si>
+    <t>1.81Y</t>
+  </si>
+  <si>
+    <t>1.82Y+N</t>
+  </si>
+  <si>
+    <t>1.82Y</t>
+  </si>
+  <si>
+    <t>1.83Y+N</t>
   </si>
   <si>
     <t>1.87Y</t>
   </si>
   <si>
+    <t>1.88Y+5Y</t>
+  </si>
+  <si>
     <t>1.89Y</t>
   </si>
   <si>
@@ -202,37 +214,43 @@
     <t>1.93Y</t>
   </si>
   <si>
-    <t>1.95Y+2Y</t>
+    <t>1.94Y</t>
+  </si>
+  <si>
+    <t>1.95Y+N</t>
   </si>
   <si>
     <t>1.96Y</t>
   </si>
   <si>
-    <t>2.01Y</t>
-  </si>
-  <si>
-    <t>2.02Y+2Y</t>
-  </si>
-  <si>
-    <t>2.02Y</t>
-  </si>
-  <si>
-    <t>2.13Y</t>
-  </si>
-  <si>
-    <t>2.14Y+2Y</t>
-  </si>
-  <si>
-    <t>2.14Y+N</t>
-  </si>
-  <si>
-    <t>2.17Y</t>
+    <t>1.98Y+2Y</t>
+  </si>
+  <si>
+    <t>1.98Y</t>
+  </si>
+  <si>
+    <t>2.07Y</t>
+  </si>
+  <si>
+    <t>2.16Y+2Y</t>
+  </si>
+  <si>
+    <t>2.18Y+2Y</t>
+  </si>
+  <si>
+    <t>2.19Y+2Y</t>
+  </si>
+  <si>
+    <t>2.2Y</t>
   </si>
   <si>
     <t>2.21Y</t>
   </si>
   <si>
-    <t>2.22Y</t>
+    <t>2.23Y+N</t>
+  </si>
+  <si>
+    <t>2.26Y</t>
   </si>
   <si>
     <t>2.27Y</t>
@@ -241,85 +259,94 @@
     <t>2.28Y</t>
   </si>
   <si>
-    <t>2.29Y</t>
-  </si>
-  <si>
-    <t>2.29Y+N</t>
-  </si>
-  <si>
-    <t>2.3Y</t>
-  </si>
-  <si>
-    <t>2.3Y+5Y</t>
+    <t>2.30Y+2Y</t>
   </si>
   <si>
     <t>2.31Y</t>
   </si>
   <si>
-    <t>2.33Y+3Y</t>
-  </si>
-  <si>
-    <t>2.41Y</t>
-  </si>
-  <si>
-    <t>2.44Y+2Y</t>
-  </si>
-  <si>
-    <t>2.46Y+3Y</t>
-  </si>
-  <si>
-    <t>2.46Y</t>
+    <t>2.33Y+2Y</t>
+  </si>
+  <si>
+    <t>2.39Y+2Y</t>
+  </si>
+  <si>
+    <t>2.39Y</t>
+  </si>
+  <si>
+    <t>2.41Y+2Y</t>
+  </si>
+  <si>
+    <t>2.42Y</t>
   </si>
   <si>
     <t>2.46Y+2Y</t>
   </si>
   <si>
-    <t>2.52Y</t>
+    <t>2.47Y+2Y</t>
   </si>
   <si>
     <t>2.53Y</t>
   </si>
   <si>
+    <t>2.54Y</t>
+  </si>
+  <si>
+    <t>2.55Y</t>
+  </si>
+  <si>
     <t>2.55Y+2Y</t>
   </si>
   <si>
-    <t>2.56Y+2Y</t>
-  </si>
-  <si>
-    <t>2.58Y+NY</t>
-  </si>
-  <si>
     <t>2.59Y</t>
   </si>
   <si>
     <t>2.6Y</t>
   </si>
   <si>
-    <t>2.61Y</t>
-  </si>
-  <si>
-    <t>2.62Y+N</t>
-  </si>
-  <si>
-    <t>2.63Y+2Y</t>
+    <t>2.6Y+N</t>
+  </si>
+  <si>
+    <t>2.61Y+2Y</t>
+  </si>
+  <si>
+    <t>2.62Y</t>
+  </si>
+  <si>
+    <t>2.62Y+2Y</t>
   </si>
   <si>
     <t>2.64Y</t>
   </si>
   <si>
-    <t>2.71Y</t>
-  </si>
-  <si>
-    <t>2.79Y</t>
-  </si>
-  <si>
-    <t>2.8Y</t>
+    <t>2.65Y+2Y</t>
+  </si>
+  <si>
+    <t>2.66Y</t>
+  </si>
+  <si>
+    <t>2.7Y</t>
+  </si>
+  <si>
+    <t>2.81Y</t>
+  </si>
+  <si>
+    <t>2.81Y+2Y</t>
+  </si>
+  <si>
+    <t>2.83Y+N</t>
+  </si>
+  <si>
+    <t>2.84Y+N</t>
+  </si>
+  <si>
+    <t>2.84Y</t>
   </si>
   <si>
     <t>2.85Y</t>
   </si>
   <si>
-    <t>2.85Y+N</t>
+    <t>2.88Y</t>
   </si>
   <si>
     <t>2.89Y</t>
@@ -328,7 +355,13 @@
     <t>2.91Y+N</t>
   </si>
   <si>
-    <t>2.91Y</t>
+    <t>2.92Y</t>
+  </si>
+  <si>
+    <t>2.93Y</t>
+  </si>
+  <si>
+    <t>2.94Y</t>
   </si>
   <si>
     <t>2.95Y</t>
@@ -337,79 +370,70 @@
     <t>2.96Y</t>
   </si>
   <si>
-    <t>3.15Y+5Y</t>
-  </si>
-  <si>
-    <t>3.47Y</t>
-  </si>
-  <si>
-    <t>3.54Y</t>
+    <t>3.07Y+N</t>
+  </si>
+  <si>
+    <t>3.41Y+N</t>
+  </si>
+  <si>
+    <t>3.42Y+N</t>
   </si>
   <si>
     <t>3.56Y+N</t>
   </si>
   <si>
+    <t>3.60Y</t>
+  </si>
+  <si>
     <t>3.61Y+5Y</t>
   </si>
   <si>
-    <t>3.62Y</t>
-  </si>
-  <si>
     <t>3.62Y+N</t>
   </si>
   <si>
-    <t>3.67Y+N</t>
-  </si>
-  <si>
-    <t>3.72Y+N</t>
+    <t>3.63Y+N</t>
+  </si>
+  <si>
+    <t>3.66Y</t>
   </si>
   <si>
     <t>3.82Y+3Y</t>
   </si>
   <si>
-    <t>3.86Y+2Y</t>
-  </si>
-  <si>
-    <t>3.87Y+N</t>
-  </si>
-  <si>
-    <t>3.93Y+N</t>
-  </si>
-  <si>
-    <t>4.03Y+3Y</t>
-  </si>
-  <si>
-    <t>4.17Y</t>
-  </si>
-  <si>
-    <t>4.18Y+5Y</t>
-  </si>
-  <si>
-    <t>4.19Y</t>
+    <t>3.84Y+N</t>
+  </si>
+  <si>
+    <t>3.86Y+N</t>
+  </si>
+  <si>
+    <t>4.14Y</t>
+  </si>
+  <si>
+    <t>4.19Y+N</t>
+  </si>
+  <si>
+    <t>4.20Y</t>
   </si>
   <si>
     <t>4.2Y+N</t>
   </si>
   <si>
-    <t>4.25Y+3Y</t>
-  </si>
-  <si>
-    <t>4.27Y+5Y</t>
-  </si>
-  <si>
     <t>4.28Y</t>
   </si>
   <si>
-    <t>4.29Y</t>
-  </si>
-  <si>
-    <t>4.31Y+N</t>
-  </si>
-  <si>
-    <t>4.32Y</t>
-  </si>
-  <si>
-    <t>4.5Y+N</t>
+    <t>4.29Y+N</t>
+  </si>
+  <si>
+    <t>4.3Y</t>
+  </si>
+  <si>
+    <t>4.31Y</t>
+  </si>
+  <si>
+    <t>4.35Y+N</t>
+  </si>
+  <si>
+    <t>4.68Y+2Y</t>
   </si>
   <si>
     <t>4.71Y+N</t>
@@ -418,469 +442,460 @@
     <t>4.73Y+5Y</t>
   </si>
   <si>
-    <t>4.81Y+3Y</t>
-  </si>
-  <si>
-    <t>4.88Y+N</t>
-  </si>
-  <si>
-    <t>4.91Y+5Y</t>
+    <t>4.78Y+N</t>
+  </si>
+  <si>
+    <t>4.87Y+N</t>
+  </si>
+  <si>
+    <t>4.93Y</t>
   </si>
   <si>
     <t>4.94Y+N</t>
   </si>
   <si>
-    <t>4.96Y</t>
-  </si>
-  <si>
-    <t>9.18Y</t>
-  </si>
-  <si>
-    <t>18龙湖06</t>
-  </si>
-  <si>
-    <t>16交行绿色金融债02</t>
+    <t>5.14Y</t>
+  </si>
+  <si>
+    <t>5.78Y</t>
+  </si>
+  <si>
+    <t>18兴杭02</t>
+  </si>
+  <si>
+    <t>18邮政01</t>
+  </si>
+  <si>
+    <t>18蒙电Y1</t>
   </si>
   <si>
     <t>18民生银行01</t>
   </si>
   <si>
-    <t>18元禾02</t>
-  </si>
-  <si>
     <t>19荣盛G1</t>
   </si>
   <si>
-    <t>18深能Y1</t>
-  </si>
-  <si>
-    <t>20航租Y1</t>
-  </si>
-  <si>
-    <t>18天马01</t>
-  </si>
-  <si>
-    <t>18晋商银行</t>
-  </si>
-  <si>
-    <t>18中电Y1</t>
-  </si>
-  <si>
-    <t>12中石油02</t>
-  </si>
-  <si>
-    <t>19新燃01</t>
-  </si>
-  <si>
-    <t>20复地01</t>
+    <t>18交通银行小微债</t>
+  </si>
+  <si>
+    <t>17绍交03</t>
+  </si>
+  <si>
+    <t>16中关02</t>
+  </si>
+  <si>
+    <t>18粤控02</t>
+  </si>
+  <si>
+    <t>18民生银行02</t>
+  </si>
+  <si>
+    <t>20航控Y5</t>
+  </si>
+  <si>
+    <t>18卓越06</t>
+  </si>
+  <si>
+    <t>18化学Y1</t>
+  </si>
+  <si>
+    <t>19中海01</t>
+  </si>
+  <si>
+    <t>12鲁高速</t>
+  </si>
+  <si>
+    <t>19南航01</t>
+  </si>
+  <si>
+    <t>19南京银行01</t>
   </si>
   <si>
     <t>19亚迪01</t>
   </si>
   <si>
-    <t>19招商G1</t>
-  </si>
-  <si>
-    <t>17杭旅01</t>
-  </si>
-  <si>
-    <t>19永赢租赁债</t>
-  </si>
-  <si>
-    <t>19华股01</t>
+    <t>20国金01</t>
+  </si>
+  <si>
+    <t>19华融湘江银行01</t>
+  </si>
+  <si>
+    <t>20湘高01</t>
+  </si>
+  <si>
+    <t>12石油05</t>
+  </si>
+  <si>
+    <t>12中石油05</t>
+  </si>
+  <si>
+    <t>19洪政G1</t>
+  </si>
+  <si>
+    <t>17重庆银行二级</t>
   </si>
   <si>
     <t>17邮储银行二级01</t>
   </si>
   <si>
+    <t>19杭纾01</t>
+  </si>
+  <si>
     <t>19浦发银行小微债01</t>
   </si>
   <si>
-    <t>19平证03</t>
-  </si>
-  <si>
-    <t>19电投Y3</t>
+    <t>19新兴绿色债02</t>
+  </si>
+  <si>
+    <t>15国网01</t>
+  </si>
+  <si>
+    <t>19新工01</t>
   </si>
   <si>
     <t>19大唐Y1</t>
   </si>
   <si>
-    <t>19华融湘江小微债02</t>
+    <t>19朝纾01</t>
+  </si>
+  <si>
+    <t>19国科01</t>
   </si>
   <si>
     <t>17穗发01</t>
   </si>
   <si>
-    <t>19浦集01</t>
-  </si>
-  <si>
-    <t>19华电01</t>
-  </si>
-  <si>
-    <t>19兵装03</t>
-  </si>
-  <si>
-    <t>15建发债</t>
-  </si>
-  <si>
-    <t>电投Y11</t>
-  </si>
-  <si>
-    <t>19大唐Y3</t>
+    <t>19中银01</t>
+  </si>
+  <si>
+    <t>17广州银行二级</t>
+  </si>
+  <si>
+    <t>19华电02</t>
+  </si>
+  <si>
+    <t>19联通01</t>
+  </si>
+  <si>
+    <t>19华能02</t>
+  </si>
+  <si>
+    <t>19招商银行小微债01</t>
+  </si>
+  <si>
+    <t>19中交Y1</t>
+  </si>
+  <si>
+    <t>17光控02</t>
   </si>
   <si>
     <t>19华电04</t>
   </si>
   <si>
-    <t>G19广铁2</t>
-  </si>
-  <si>
-    <t>19鲁能01</t>
-  </si>
-  <si>
-    <t>17皖交03</t>
-  </si>
-  <si>
-    <t>20国药01</t>
-  </si>
-  <si>
-    <t>17京资02</t>
-  </si>
-  <si>
-    <t>17广铁01</t>
-  </si>
-  <si>
-    <t>19兴港02</t>
-  </si>
-  <si>
-    <t>19国泰君安金融债01</t>
-  </si>
-  <si>
-    <t>17海通02</t>
-  </si>
-  <si>
-    <t>19华润02</t>
-  </si>
-  <si>
-    <t>20美置06</t>
-  </si>
-  <si>
-    <t>19深能Y1</t>
-  </si>
-  <si>
-    <t>19保利01</t>
-  </si>
-  <si>
-    <t>19海康01</t>
-  </si>
-  <si>
-    <t>20漳九Y1</t>
-  </si>
-  <si>
-    <t>15际华03</t>
+    <t>20复地02</t>
+  </si>
+  <si>
+    <t>19宁安01</t>
+  </si>
+  <si>
+    <t>19中核03</t>
+  </si>
+  <si>
+    <t>19宇通02</t>
+  </si>
+  <si>
+    <t>PR中关村</t>
+  </si>
+  <si>
+    <t>17涪陵01</t>
+  </si>
+  <si>
+    <t>19鲁资03</t>
+  </si>
+  <si>
+    <t>17联投01</t>
   </si>
   <si>
     <t>19上汽01</t>
   </si>
   <si>
-    <t>19通用01</t>
-  </si>
-  <si>
     <t>20招证G4</t>
   </si>
   <si>
-    <t>20中核Y5</t>
-  </si>
-  <si>
-    <t>19保利03</t>
-  </si>
-  <si>
-    <t>20阳城04</t>
-  </si>
-  <si>
-    <t>19国君G4</t>
-  </si>
-  <si>
-    <t>17建材Y2</t>
-  </si>
-  <si>
-    <t>19东风03</t>
-  </si>
-  <si>
-    <t>17蓉工01</t>
-  </si>
-  <si>
-    <t>19环球03</t>
-  </si>
-  <si>
-    <t>19通用Y1</t>
-  </si>
-  <si>
-    <t>20环球07</t>
-  </si>
-  <si>
-    <t>19润药Y1</t>
-  </si>
-  <si>
-    <t>19北汽11</t>
+    <t>19邮政03</t>
+  </si>
+  <si>
+    <t>19住总Y1</t>
+  </si>
+  <si>
+    <t>17电投Y3</t>
+  </si>
+  <si>
+    <t>19信保Y1</t>
+  </si>
+  <si>
+    <t>20招证G6</t>
+  </si>
+  <si>
+    <t>18新控05</t>
+  </si>
+  <si>
+    <t>17建集Y1</t>
+  </si>
+  <si>
+    <t>19长发01</t>
+  </si>
+  <si>
+    <t>20中化Y7</t>
   </si>
   <si>
     <t>18龙控05</t>
   </si>
   <si>
-    <t>19海康02</t>
+    <t>12国网04</t>
+  </si>
+  <si>
+    <t>17工商银行二级02</t>
+  </si>
+  <si>
+    <t>19广核01</t>
   </si>
   <si>
     <t>20银河G3</t>
   </si>
   <si>
-    <t>19交通银行01</t>
-  </si>
-  <si>
-    <t>15洪市政</t>
-  </si>
-  <si>
-    <t>19交通银行02</t>
-  </si>
-  <si>
-    <t>G19广铁4</t>
+    <t>17贵产01</t>
+  </si>
+  <si>
+    <t>20华泰G8</t>
+  </si>
+  <si>
+    <t>20国信04</t>
+  </si>
+  <si>
+    <t>20首股Y2</t>
+  </si>
+  <si>
+    <t>12甬交投债</t>
   </si>
   <si>
     <t>19诚通01</t>
   </si>
   <si>
-    <t>20深投01</t>
-  </si>
-  <si>
-    <t>20江城01</t>
-  </si>
-  <si>
-    <t>20国信01</t>
-  </si>
-  <si>
-    <t>20招联消费金融债01</t>
-  </si>
-  <si>
-    <t>20中证G1</t>
-  </si>
-  <si>
-    <t>20华股01</t>
-  </si>
-  <si>
-    <t>20厦贸Y1</t>
-  </si>
-  <si>
-    <t>20中证G3</t>
-  </si>
-  <si>
-    <t>20国电01</t>
-  </si>
-  <si>
-    <t>20邮政01</t>
-  </si>
-  <si>
-    <t>20华泰G1</t>
-  </si>
-  <si>
-    <t>20信达01</t>
-  </si>
-  <si>
-    <t>20信投G3</t>
+    <t>19兴信01</t>
+  </si>
+  <si>
+    <t>19天津银行债</t>
+  </si>
+  <si>
+    <t>18铁道03</t>
+  </si>
+  <si>
+    <t>20奥园01</t>
+  </si>
+  <si>
+    <t>20铁投G1</t>
+  </si>
+  <si>
+    <t>20建工01</t>
+  </si>
+  <si>
+    <t>20中国信达债02BC(品种一)</t>
+  </si>
+  <si>
+    <t>PR渝产债</t>
+  </si>
+  <si>
+    <t>20华电Y1</t>
+  </si>
+  <si>
+    <t>20浙商银行小微债02</t>
   </si>
   <si>
     <t>20中证G6</t>
   </si>
   <si>
-    <t>18蛇口01</t>
-  </si>
-  <si>
-    <t>20上汽通用债</t>
-  </si>
-  <si>
-    <t>20光大Y2</t>
-  </si>
-  <si>
-    <t>20徽商银行小微债01</t>
-  </si>
-  <si>
-    <t>13同煤债</t>
-  </si>
-  <si>
-    <t>18甬投01</t>
-  </si>
-  <si>
-    <t>20东航01</t>
+    <t>18创投S2</t>
+  </si>
+  <si>
+    <t>20深资01</t>
   </si>
   <si>
     <t>20浦发银行01</t>
   </si>
   <si>
-    <t>20中金G3</t>
-  </si>
-  <si>
-    <t>20北汽05</t>
-  </si>
-  <si>
-    <t>20招证C1</t>
-  </si>
-  <si>
-    <t>20际华01</t>
-  </si>
-  <si>
-    <t>20中金G5</t>
-  </si>
-  <si>
-    <t>20光证G1</t>
+    <t>20一汽01</t>
+  </si>
+  <si>
+    <t>20西咸03</t>
+  </si>
+  <si>
+    <t>20融创02</t>
+  </si>
+  <si>
+    <t>20平安银行小微债01</t>
+  </si>
+  <si>
+    <t>20浦土01</t>
+  </si>
+  <si>
+    <t>PR海发债</t>
   </si>
   <si>
     <t>20湘路02</t>
   </si>
   <si>
-    <t>16苏南通一带债</t>
+    <t>20诚通15</t>
   </si>
   <si>
     <t>20信达G1</t>
   </si>
   <si>
+    <t>20招商G1</t>
+  </si>
+  <si>
+    <t>08大唐债</t>
+  </si>
+  <si>
     <t>20龙控03</t>
   </si>
   <si>
-    <t>20晋金01</t>
-  </si>
-  <si>
-    <t>20浦土02</t>
-  </si>
-  <si>
-    <t>20电投Y6</t>
-  </si>
-  <si>
     <t>20华夏银行小微债01</t>
   </si>
   <si>
+    <t>20交通银行01</t>
+  </si>
+  <si>
     <t>20兴业银行小微债05</t>
   </si>
   <si>
-    <t>20新望01</t>
-  </si>
-  <si>
-    <t>20延长Y1</t>
-  </si>
-  <si>
-    <t>20金街03</t>
-  </si>
-  <si>
-    <t>20光证G5</t>
-  </si>
-  <si>
-    <t>20凤凰01</t>
-  </si>
-  <si>
-    <t>18电投09</t>
-  </si>
-  <si>
-    <t>18苏交04</t>
-  </si>
-  <si>
-    <t>18电投11</t>
-  </si>
-  <si>
-    <t>20大唐Y5</t>
-  </si>
-  <si>
-    <t>20华安G2</t>
+    <t>20电投Y7</t>
+  </si>
+  <si>
+    <t>G18广业2</t>
+  </si>
+  <si>
+    <t>20北京银行小微债03</t>
+  </si>
+  <si>
+    <t>18粤财03</t>
+  </si>
+  <si>
+    <t>20苏交G2</t>
+  </si>
+  <si>
+    <t>20中交01</t>
+  </si>
+  <si>
+    <t>20国君G5</t>
+  </si>
+  <si>
+    <t>18中铝02</t>
+  </si>
+  <si>
+    <t>20青港01</t>
+  </si>
+  <si>
+    <t>20湘路08</t>
+  </si>
+  <si>
+    <t>20信保Y1</t>
+  </si>
+  <si>
+    <t>20邮政Y5</t>
+  </si>
+  <si>
+    <t>20深铁06</t>
+  </si>
+  <si>
+    <t>20中海03</t>
+  </si>
+  <si>
+    <t>20交通银行02</t>
+  </si>
+  <si>
+    <t>16光控04</t>
+  </si>
+  <si>
+    <t>G18首股</t>
   </si>
   <si>
     <t>20鲁金Y1</t>
   </si>
   <si>
-    <t>18首置04</t>
+    <t>20国君G9</t>
+  </si>
+  <si>
+    <t>20华泰G9</t>
+  </si>
+  <si>
+    <t>20安纾03</t>
   </si>
   <si>
     <t>20华夏银行</t>
   </si>
   <si>
-    <t>15投资01</t>
-  </si>
-  <si>
     <t>20路桥02</t>
   </si>
   <si>
-    <t>19民生银行二级01</t>
-  </si>
-  <si>
-    <t>19蛇口01</t>
-  </si>
-  <si>
-    <t>17桂阳城投债</t>
+    <t>19中国银行永续债01</t>
+  </si>
+  <si>
+    <t>19民生银行永续债</t>
+  </si>
+  <si>
+    <t>行权</t>
   </si>
   <si>
     <t>19工商银行永续债</t>
   </si>
   <si>
-    <t>14建行二级01</t>
-  </si>
-  <si>
-    <t>19东航01</t>
+    <t>19扬子02</t>
+  </si>
+  <si>
+    <t>19交通银行二级01</t>
   </si>
   <si>
     <t>19农业银行永续债01</t>
   </si>
   <si>
-    <t>19华电Y2</t>
-  </si>
-  <si>
-    <t>19广发银行永续债</t>
+    <t>电投Y22</t>
+  </si>
+  <si>
+    <t>19长电02</t>
   </si>
   <si>
     <t>19青城G2</t>
   </si>
   <si>
-    <t>19蓉产01</t>
-  </si>
-  <si>
-    <t>19铁建Y4</t>
-  </si>
-  <si>
-    <t>19青岛地铁绿色债02</t>
-  </si>
-  <si>
-    <t>19中信银行永续债</t>
-  </si>
-  <si>
-    <t>20青城G1</t>
-  </si>
-  <si>
-    <t>20建材01</t>
-  </si>
-  <si>
-    <t>20武金02</t>
-  </si>
-  <si>
-    <t>20济轨01</t>
+    <t>19建设银行永续债</t>
+  </si>
+  <si>
+    <t>20航控02</t>
+  </si>
+  <si>
+    <t>18钱投债</t>
   </si>
   <si>
     <t>20新际Y2</t>
   </si>
   <si>
-    <t>20青城G3</t>
-  </si>
-  <si>
-    <t>20京保01</t>
-  </si>
-  <si>
-    <t>20北汽01</t>
-  </si>
-  <si>
-    <t>20南京地铁绿色债01</t>
-  </si>
-  <si>
-    <t>20中国银行永续债01</t>
-  </si>
-  <si>
-    <t>20北汽03</t>
-  </si>
-  <si>
-    <t>20招商银行永续债01</t>
+    <t>20京洁02</t>
+  </si>
+  <si>
+    <t>20华融湘江永续债</t>
+  </si>
+  <si>
+    <t>20厦轨01</t>
+  </si>
+  <si>
+    <t>20华泰G3</t>
+  </si>
+  <si>
+    <t>20农业银行永续债01</t>
+  </si>
+  <si>
+    <t>20粤科01</t>
   </si>
   <si>
     <t>20光大银行永续债</t>
@@ -889,331 +904,355 @@
     <t>20徽商银行二级01</t>
   </si>
   <si>
-    <t>20青城04</t>
-  </si>
-  <si>
-    <t>20浦发银行永续债</t>
-  </si>
-  <si>
-    <t>20长沙银行二级</t>
+    <t>20兴业银行永续债</t>
+  </si>
+  <si>
+    <t>20中国银行永续债02</t>
+  </si>
+  <si>
+    <t>20赣速03</t>
   </si>
   <si>
     <t>20东方资本债01</t>
   </si>
   <si>
-    <t>PR长轨03</t>
-  </si>
-  <si>
-    <t>20武金01</t>
-  </si>
-  <si>
-    <t>3.57</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>2.89</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>4.9</t>
+    <t>16保利04</t>
+  </si>
+  <si>
+    <t>16长电01</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>3.02行权</t>
+  </si>
+  <si>
+    <t>3.68</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>3.07行权</t>
+  </si>
+  <si>
+    <t>2.91</t>
+  </si>
+  <si>
+    <t>3.74</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>3.63行权</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>4.00行权</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>3.70</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>3.39</t>
+  </si>
+  <si>
+    <t>3.51</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>4.06</t>
+  </si>
+  <si>
+    <t>3.25行权</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>4.22</t>
+  </si>
+  <si>
+    <t>3.42</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>4.30</t>
+  </si>
+  <si>
+    <t>3.66</t>
+  </si>
+  <si>
+    <t>4.09</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>6.04</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.51</t>
+  </si>
+  <si>
+    <t>3.73</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>3.68行权</t>
+  </si>
+  <si>
+    <t>3.28</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>3.85</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
   <si>
     <t>3.45</t>
   </si>
   <si>
+    <t>4.65</t>
+  </si>
+  <si>
+    <t>3.78</t>
+  </si>
+  <si>
+    <t>6.72行权</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.58</t>
+  </si>
+  <si>
+    <t>3.54</t>
+  </si>
+  <si>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>3.62</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>4.19</t>
+  </si>
+  <si>
+    <t>5.9</t>
+  </si>
+  <si>
+    <t>4.55</t>
+  </si>
+  <si>
+    <t>3.385</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>3.77</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>3.69</t>
+  </si>
+  <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>4.45</t>
+  </si>
+  <si>
+    <t>3.52</t>
+  </si>
+  <si>
+    <t>3.40</t>
+  </si>
+  <si>
+    <t>3.405</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>4.36</t>
+  </si>
+  <si>
+    <t>3.43</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>4.21</t>
+  </si>
+  <si>
+    <t>3.87</t>
+  </si>
+  <si>
+    <t>4.24</t>
+  </si>
+  <si>
     <t>4.05</t>
   </si>
   <si>
-    <t>3.41</t>
-  </si>
-  <si>
-    <t>3.33</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>3.02</t>
-  </si>
-  <si>
-    <t>3.60</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.01</t>
-  </si>
-  <si>
-    <t>3.09</t>
-  </si>
-  <si>
-    <t>3.28</t>
-  </si>
-  <si>
-    <t>3.44</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>3.48行权</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.22</t>
-  </si>
-  <si>
-    <t>3.51</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>3.52</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>3.56</t>
-  </si>
-  <si>
-    <t>3.16</t>
-  </si>
-  <si>
-    <t>3.24</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>4.18</t>
-  </si>
-  <si>
-    <t>3.21</t>
-  </si>
-  <si>
-    <t>3.23</t>
-  </si>
-  <si>
-    <t>3.17</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>3.30</t>
+    <t>4.28</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>3.95</t>
   </si>
   <si>
     <t>3.61</t>
   </si>
   <si>
-    <t>6.90行权</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>3.53</t>
-  </si>
-  <si>
-    <t>4.95</t>
-  </si>
-  <si>
-    <t>3.80</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>3.29</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>3.65</t>
-  </si>
-  <si>
-    <t>3.74</t>
-  </si>
-  <si>
-    <t>5.03</t>
-  </si>
-  <si>
-    <t>3.31</t>
-  </si>
-  <si>
-    <t>3.34</t>
-  </si>
-  <si>
-    <t>3.40</t>
+    <t>3.95行权</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.33</t>
+  </si>
+  <si>
+    <t>4.04</t>
+  </si>
+  <si>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>4.07</t>
+  </si>
+  <si>
+    <t>4.58</t>
+  </si>
+  <si>
+    <t>4.99行权</t>
+  </si>
+  <si>
+    <t>4.60</t>
+  </si>
+  <si>
+    <t>4.49</t>
+  </si>
+  <si>
+    <t>3.83</t>
+  </si>
+  <si>
+    <t>4.86</t>
   </si>
   <si>
     <t>3.82</t>
   </si>
   <si>
-    <t>3.46</t>
-  </si>
-  <si>
-    <t>7.7</t>
-  </si>
-  <si>
-    <t>3.58</t>
-  </si>
-  <si>
-    <t>3.38</t>
-  </si>
-  <si>
-    <t>3.37</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>3.47</t>
-  </si>
-  <si>
-    <t>4.60</t>
-  </si>
-  <si>
-    <t>3.68</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>3.77</t>
-  </si>
-  <si>
-    <t>4.45</t>
-  </si>
-  <si>
-    <t>4.22</t>
-  </si>
-  <si>
-    <t>3.49</t>
-  </si>
-  <si>
-    <t>3.83</t>
-  </si>
-  <si>
-    <t>4.35</t>
-  </si>
-  <si>
-    <t>3.81</t>
-  </si>
-  <si>
-    <t>4.20</t>
-  </si>
-  <si>
-    <t>3.73</t>
-  </si>
-  <si>
-    <t>6.35</t>
-  </si>
-  <si>
-    <t>4.21</t>
-  </si>
-  <si>
-    <t>4.00行权</t>
-  </si>
-  <si>
-    <t>3.95</t>
-  </si>
-  <si>
-    <t>3.93</t>
-  </si>
-  <si>
-    <t>3.96</t>
-  </si>
-  <si>
-    <t>4.76</t>
-  </si>
-  <si>
-    <t>3.76</t>
-  </si>
-  <si>
-    <t>4.53</t>
-  </si>
-  <si>
-    <t>4.36</t>
-  </si>
-  <si>
-    <t>3.86</t>
-  </si>
-  <si>
-    <t>3.92</t>
-  </si>
-  <si>
-    <t>4.40</t>
-  </si>
-  <si>
-    <t>4.97行权</t>
-  </si>
-  <si>
-    <t>4.06</t>
-  </si>
-  <si>
-    <t>4.55</t>
-  </si>
-  <si>
-    <t>4.96行权</t>
-  </si>
-  <si>
-    <t>4.86</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>5.35</t>
-  </si>
-  <si>
     <t>AAA</t>
   </si>
   <si>
     <t>AA+/AAA</t>
   </si>
   <si>
-    <t>AA/AAA</t>
+    <t>AAA/AA+</t>
   </si>
 </sst>
 </file>
@@ -1571,7 +1610,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F242"/>
+  <dimension ref="A1:F267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1602,16 +1641,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F2">
-        <v>0.8328767123287671</v>
+        <v>0.821917808219178</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1622,16 +1661,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="E3" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F3">
-        <v>0.8767123287671232</v>
+        <v>0.8547945205479452</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1639,19 +1678,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E4" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F4">
-        <v>0.8767123287671232</v>
+        <v>0.873972602739726</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1659,19 +1698,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E5" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F5">
-        <v>0.8876712328767123</v>
+        <v>0.8794520547945206</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1679,19 +1718,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E6" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F6">
-        <v>0.8876712328767123</v>
+        <v>0.8904109589041096</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1699,19 +1738,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="E7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F7">
-        <v>0.8958904109589041</v>
+        <v>0.9013698630136986</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1719,19 +1758,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E8" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F8">
-        <v>0.9287671232876712</v>
+        <v>0.9041095890410958</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1739,19 +1778,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E9" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F9">
-        <v>0.9287671232876712</v>
+        <v>0.9205479452054794</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1759,19 +1798,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E10" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F10">
-        <v>0.9301369863013699</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1779,19 +1818,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D11" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E11" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F11">
-        <v>0.9301369863013699</v>
+        <v>0.9315068493150684</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1799,19 +1838,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E12" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F12">
-        <v>0.9452054794520548</v>
+        <v>0.9397260273972603</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1819,19 +1858,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E13" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F13">
-        <v>0.9726027397260274</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1839,19 +1878,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E14" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F14">
-        <v>1.00986301369863</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1859,19 +1898,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E15" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F15">
-        <v>1.04</v>
+        <v>0.9506849315068493</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1879,19 +1918,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E16" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F16">
-        <v>1.04</v>
+        <v>0.9671232876712329</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1899,19 +1938,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="E17" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F17">
-        <v>1.11013698630137</v>
+        <v>0.9671232876712329</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1919,19 +1958,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D18" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E18" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F18">
-        <v>1.12986301369863</v>
+        <v>0.9671232876712329</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1939,19 +1978,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D19" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="E19" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F19">
-        <v>1.16986301369863</v>
+        <v>1.04986301369863</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1959,19 +1998,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E20" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F20">
-        <v>1.18986301369863</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1979,19 +2018,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D21" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E21" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F21">
-        <v>1.18986301369863</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1999,19 +2038,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D22" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E22" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F22">
-        <v>1.2</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2022,16 +2061,16 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D23" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E23" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F23">
-        <v>1.20986301369863</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2039,19 +2078,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D24" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E24" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F24">
-        <v>1.22</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2059,19 +2098,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E25" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F25">
-        <v>1.24</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2079,19 +2118,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E26" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F26">
-        <v>1.24</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2099,19 +2138,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
         <v>318</v>
       </c>
       <c r="E27" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F27">
-        <v>1.26</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2119,19 +2158,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E28" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F28">
-        <v>1.26</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2139,19 +2178,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
         <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E29" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F29">
-        <v>1.3</v>
+        <v>1.12986301369863</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2159,19 +2198,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D30" t="s">
         <v>320</v>
       </c>
       <c r="E30" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F30">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2179,19 +2218,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E31" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F31">
-        <v>1.3</v>
+        <v>1.16986301369863</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2199,19 +2238,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D32" t="s">
         <v>321</v>
       </c>
       <c r="E32" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F32">
-        <v>1.3</v>
+        <v>1.16986301369863</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2222,16 +2261,16 @@
         <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E33" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F33">
-        <v>1.3</v>
+        <v>1.16986301369863</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2242,16 +2281,16 @@
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E34" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F34">
-        <v>1.31013698630137</v>
+        <v>1.18986301369863</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2259,19 +2298,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E35" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F35">
-        <v>1.33013698630137</v>
+        <v>1.18986301369863</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2279,19 +2318,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D36" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="E36" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F36">
-        <v>1.38986301369863</v>
+        <v>1.18986301369863</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2299,19 +2338,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E37" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F37">
-        <v>1.38986301369863</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2322,16 +2361,16 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="E38" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F38">
-        <v>1.38986301369863</v>
+        <v>1.20986301369863</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2342,16 +2381,16 @@
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="E39" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F39">
-        <v>1.38986301369863</v>
+        <v>1.20986301369863</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2362,16 +2401,16 @@
         <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D40" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E40" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F40">
-        <v>1.38986301369863</v>
+        <v>1.20986301369863</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2382,16 +2421,16 @@
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D41" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E41" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F41">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2399,19 +2438,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D42" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E42" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F42">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2419,19 +2458,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D43" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E43" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F43">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2439,19 +2478,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D44" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E44" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F44">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2459,19 +2498,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E45" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F45">
-        <v>1.53013698630137</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2482,16 +2521,16 @@
         <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E46" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F46">
-        <v>1.53013698630137</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2499,19 +2538,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="E47" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F47">
-        <v>1.53013698630137</v>
+        <v>1.27013698630137</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2519,19 +2558,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D48" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E48" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F48">
-        <v>1.56</v>
+        <v>1.27013698630137</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2539,19 +2578,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D49" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="E49" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F49">
-        <v>1.56</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2562,16 +2601,16 @@
         <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D50" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E50" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F50">
-        <v>1.57013698630137</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2579,19 +2618,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D51" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E51" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F51">
-        <v>1.57013698630137</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2602,16 +2641,16 @@
         <v>36</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D52" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E52" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F52">
-        <v>1.59013698630137</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2622,16 +2661,16 @@
         <v>37</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D53" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="E53" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F53">
-        <v>1.59013698630137</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2639,19 +2678,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D54" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E54" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F54">
-        <v>1.59013698630137</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2659,19 +2698,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D55" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="E55" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F55">
-        <v>1.59013698630137</v>
+        <v>1.44986301369863</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2679,19 +2718,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D56" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="E56" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F56">
-        <v>1.61013698630137</v>
+        <v>1.44986301369863</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2699,19 +2738,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D57" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="E57" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F57">
-        <v>1.62</v>
+        <v>1.50986301369863</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2722,16 +2761,16 @@
         <v>40</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D58" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E58" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F58">
-        <v>1.64</v>
+        <v>1.50986301369863</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2742,16 +2781,16 @@
         <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D59" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E59" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F59">
-        <v>1.64</v>
+        <v>1.50986301369863</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2759,19 +2798,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D60" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E60" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F60">
-        <v>1.64</v>
+        <v>1.50986301369863</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2782,16 +2821,16 @@
         <v>42</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
       <c r="E61" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F61">
-        <v>1.66</v>
+        <v>1.50986301369863</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2802,16 +2841,16 @@
         <v>43</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D62" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E62" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F62">
-        <v>1.66986301369863</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2822,16 +2861,16 @@
         <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D63" t="s">
         <v>337</v>
       </c>
       <c r="E63" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F63">
-        <v>1.69013698630137</v>
+        <v>1.53013698630137</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2842,16 +2881,16 @@
         <v>45</v>
       </c>
       <c r="C64" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D64" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E64" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F64">
-        <v>1.7</v>
+        <v>1.55013698630137</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2859,19 +2898,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D65" t="s">
         <v>338</v>
       </c>
       <c r="E65" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F65">
-        <v>1.70986301369863</v>
+        <v>1.55013698630137</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2879,19 +2918,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="E66" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F66">
-        <v>1.70986301369863</v>
+        <v>1.55013698630137</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2899,19 +2938,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D67" t="s">
         <v>338</v>
       </c>
       <c r="E67" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F67">
-        <v>1.70986301369863</v>
+        <v>1.55013698630137</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2919,19 +2958,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D68" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E68" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F68">
-        <v>1.70986301369863</v>
+        <v>1.55013698630137</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2942,16 +2981,16 @@
         <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D69" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E69" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F69">
-        <v>1.70986301369863</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2959,19 +2998,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D70" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="E70" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F70">
-        <v>1.70986301369863</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2979,19 +3018,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D71" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="E71" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F71">
-        <v>1.70986301369863</v>
+        <v>1.61013698630137</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2999,19 +3038,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D72" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="E72" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F72">
-        <v>1.70986301369863</v>
+        <v>1.61013698630137</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3019,19 +3058,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D73" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E73" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F73">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3039,19 +3078,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D74" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="E74" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F74">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3059,19 +3098,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="D75" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="E75" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F75">
-        <v>1.76986301369863</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3079,19 +3118,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D76" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E76" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F76">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3099,19 +3138,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C77" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D77" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="E77" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F77">
-        <v>1.78</v>
+        <v>1.70986301369863</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3119,19 +3158,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C78" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D78" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="E78" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F78">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3139,19 +3178,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C79" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D79" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="E79" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F79">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3159,19 +3198,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D80" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="E80" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F80">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3179,19 +3218,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D81" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E81" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F81">
-        <v>1.79013698630137</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3199,19 +3238,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D82" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E82" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F82">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3219,19 +3258,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C83" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D83" t="s">
         <v>344</v>
       </c>
       <c r="E83" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F83">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3242,16 +3281,16 @@
         <v>55</v>
       </c>
       <c r="C84" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D84" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E84" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F84">
-        <v>1.84986301369863</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3259,19 +3298,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D85" t="s">
         <v>345</v>
       </c>
       <c r="E85" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F85">
-        <v>1.84986301369863</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3282,16 +3321,16 @@
         <v>56</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D86" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E86" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F86">
-        <v>1.84986301369863</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3302,16 +3341,16 @@
         <v>57</v>
       </c>
       <c r="C87" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E87" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F87">
-        <v>1.86</v>
+        <v>1.80986301369863</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3322,16 +3361,16 @@
         <v>57</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E88" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F88">
-        <v>1.86</v>
+        <v>1.80986301369863</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3339,19 +3378,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C89" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D89" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="E89" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F89">
-        <v>1.87013698630137</v>
+        <v>1.80986301369863</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3362,16 +3401,16 @@
         <v>58</v>
       </c>
       <c r="C90" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D90" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="E90" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F90">
-        <v>1.87013698630137</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3382,16 +3421,16 @@
         <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D91" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="E91" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F91">
-        <v>1.87013698630137</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3402,16 +3441,16 @@
         <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D92" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="E92" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F92">
-        <v>1.87013698630137</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3422,16 +3461,16 @@
         <v>59</v>
       </c>
       <c r="C93" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D93" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="E93" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F93">
-        <v>1.88986301369863</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3439,19 +3478,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C94" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D94" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="E94" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F94">
-        <v>1.88986301369863</v>
+        <v>1.83013698630137</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3459,19 +3498,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C95" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D95" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="E95" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F95">
-        <v>1.88986301369863</v>
+        <v>1.87013698630137</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3479,19 +3518,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C96" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D96" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="E96" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F96">
-        <v>1.88986301369863</v>
+        <v>1.87013698630137</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3499,19 +3538,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C97" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D97" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E97" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F97">
-        <v>1.88986301369863</v>
+        <v>1.87013698630137</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3519,19 +3558,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C98" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D98" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="E98" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F98">
-        <v>1.88986301369863</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3539,19 +3578,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C99" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D99" t="s">
-        <v>347</v>
+        <v>304</v>
       </c>
       <c r="E99" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F99">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3559,19 +3598,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D100" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E100" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F100">
-        <v>1.92986301369863</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3579,19 +3618,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C101" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D101" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="E101" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F101">
-        <v>1.92986301369863</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3599,19 +3638,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D102" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
       <c r="E102" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F102">
-        <v>1.92986301369863</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3619,19 +3658,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C103" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D103" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E103" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F103">
-        <v>1.95013698630137</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3639,19 +3678,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C104" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D104" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E104" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F104">
-        <v>1.95013698630137</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3662,16 +3701,16 @@
         <v>63</v>
       </c>
       <c r="C105" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D105" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="E105" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F105">
-        <v>1.96</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3679,19 +3718,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C106" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D106" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="E106" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F106">
-        <v>2.00986301369863</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3699,19 +3738,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C107" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D107" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E107" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F107">
-        <v>2.02</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3719,19 +3758,19 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C108" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D108" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E108" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F108">
-        <v>2.02</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3739,19 +3778,19 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C109" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D109" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E109" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F109">
-        <v>2.02</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3759,19 +3798,19 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C110" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D110" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E110" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F110">
-        <v>2.02</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3779,19 +3818,19 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C111" t="s">
         <v>215</v>
       </c>
       <c r="D111" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="E111" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F111">
-        <v>2.12986301369863</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3799,19 +3838,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C112" t="s">
         <v>215</v>
       </c>
       <c r="D112" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="E112" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F112">
-        <v>2.12986301369863</v>
+        <v>1.88986301369863</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3819,19 +3858,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C113" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D113" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="E113" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F113">
-        <v>2.12986301369863</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3839,19 +3878,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C114" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D114" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="E114" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F114">
-        <v>2.12986301369863</v>
+        <v>1.92986301369863</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3859,19 +3898,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C115" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D115" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="E115" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F115">
-        <v>2.12986301369863</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3879,19 +3918,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C116" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D116" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="E116" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F116">
-        <v>2.14</v>
+        <v>1.95013698630137</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3899,19 +3938,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C117" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D117" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E117" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F117">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3919,19 +3958,19 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C118" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D118" t="s">
-        <v>305</v>
+        <v>359</v>
       </c>
       <c r="E118" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F118">
-        <v>2.16986301369863</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3939,19 +3978,19 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C119" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D119" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E119" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F119">
-        <v>2.16986301369863</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3959,19 +3998,19 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C120" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D120" t="s">
-        <v>305</v>
+        <v>360</v>
       </c>
       <c r="E120" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F120">
-        <v>2.20986301369863</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3979,19 +4018,19 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C121" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D121" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="E121" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F121">
-        <v>2.20986301369863</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3999,19 +4038,19 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C122" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D122" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="E122" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F122">
-        <v>2.22</v>
+        <v>2.06986301369863</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4019,19 +4058,19 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C123" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D123" t="s">
         <v>308</v>
       </c>
       <c r="E123" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F123">
-        <v>2.22</v>
+        <v>2.06986301369863</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4039,19 +4078,19 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C124" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D124" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E124" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F124">
-        <v>2.26986301369863</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4059,19 +4098,19 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C125" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D125" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="E125" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F125">
-        <v>2.26986301369863</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4079,19 +4118,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C126" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D126" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E126" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F126">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4099,19 +4138,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C127" t="s">
         <v>226</v>
       </c>
       <c r="D127" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="E127" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F127">
-        <v>2.29013698630137</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4119,19 +4158,19 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C128" t="s">
         <v>227</v>
       </c>
       <c r="D128" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E128" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F128">
-        <v>2.29013698630137</v>
+        <v>2.19013698630137</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -4139,19 +4178,19 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C129" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D129" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="E129" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F129">
-        <v>2.29013698630137</v>
+        <v>2.19013698630137</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -4159,19 +4198,19 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C130" t="s">
         <v>227</v>
       </c>
       <c r="D130" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="E130" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F130">
-        <v>2.29013698630137</v>
+        <v>2.19013698630137</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -4179,19 +4218,19 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C131" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D131" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E131" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F131">
-        <v>2.3</v>
+        <v>2.19013698630137</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -4199,19 +4238,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C132" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D132" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="E132" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F132">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4219,19 +4258,19 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C133" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D133" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E133" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F133">
-        <v>2.3</v>
+        <v>2.20986301369863</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4239,19 +4278,19 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C134" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D134" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E134" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F134">
-        <v>2.30986301369863</v>
+        <v>2.23013698630137</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4259,19 +4298,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C135" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D135" t="s">
-        <v>300</v>
+        <v>361</v>
       </c>
       <c r="E135" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F135">
-        <v>2.30986301369863</v>
+        <v>2.23013698630137</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4279,19 +4318,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C136" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D136" t="s">
         <v>361</v>
       </c>
       <c r="E136" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F136">
-        <v>2.33013698630137</v>
+        <v>2.23013698630137</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4299,19 +4338,19 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C137" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D137" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="E137" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F137">
-        <v>2.33013698630137</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4319,19 +4358,19 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C138" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D138" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="E138" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F138">
-        <v>2.41013698630137</v>
+        <v>2.26986301369863</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4339,19 +4378,19 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C139" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D139" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E139" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F139">
-        <v>2.41013698630137</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4365,13 +4404,13 @@
         <v>234</v>
       </c>
       <c r="D140" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
       <c r="E140" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F140">
-        <v>2.41013698630137</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4379,19 +4418,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C141" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D141" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="E141" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F141">
-        <v>2.44</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4402,16 +4441,16 @@
         <v>82</v>
       </c>
       <c r="C142" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D142" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="E142" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F142">
-        <v>2.44</v>
+        <v>2.30986301369863</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4419,19 +4458,19 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C143" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D143" t="s">
-        <v>304</v>
+        <v>359</v>
       </c>
       <c r="E143" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F143">
-        <v>2.46</v>
+        <v>2.30986301369863</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4445,13 +4484,13 @@
         <v>237</v>
       </c>
       <c r="D144" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="E144" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F144">
-        <v>2.46</v>
+        <v>2.33013698630137</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4459,19 +4498,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C145" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D145" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E145" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F145">
-        <v>2.46</v>
+        <v>2.33013698630137</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4479,19 +4518,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C146" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D146" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="E146" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F146">
-        <v>2.46</v>
+        <v>2.39013698630137</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4505,13 +4544,13 @@
         <v>239</v>
       </c>
       <c r="D147" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
       <c r="E147" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F147">
-        <v>2.46</v>
+        <v>2.39013698630137</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4519,19 +4558,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C148" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D148" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="E148" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F148">
-        <v>2.52</v>
+        <v>2.39013698630137</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4539,19 +4578,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C149" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D149" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="E149" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F149">
-        <v>2.52986301369863</v>
+        <v>2.41013698630137</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4559,19 +4598,19 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C150" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D150" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E150" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F150">
-        <v>2.54986301369863</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4579,19 +4618,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C151" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D151" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="E151" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F151">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4599,19 +4638,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C152" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D152" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="E152" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="F152">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4619,19 +4658,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C153" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D153" t="s">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="E153" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F153">
-        <v>2.58</v>
+        <v>2.47013698630137</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4639,19 +4678,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C154" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D154" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E154" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F154">
-        <v>2.58986301369863</v>
+        <v>2.47013698630137</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4659,19 +4698,19 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C155" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D155" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E155" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F155">
-        <v>2.6</v>
+        <v>2.47013698630137</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4679,19 +4718,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C156" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D156" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="E156" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F156">
-        <v>2.6</v>
+        <v>2.52986301369863</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4699,19 +4738,19 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C157" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D157" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="E157" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F157">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4722,16 +4761,16 @@
         <v>92</v>
       </c>
       <c r="C158" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D158" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="E158" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F158">
-        <v>2.6</v>
+        <v>2.54986301369863</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4742,16 +4781,16 @@
         <v>93</v>
       </c>
       <c r="C159" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D159" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E159" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F159">
-        <v>2.60986301369863</v>
+        <v>2.54986301369863</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4762,16 +4801,16 @@
         <v>94</v>
       </c>
       <c r="C160" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D160" t="s">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="E160" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F160">
-        <v>2.62</v>
+        <v>2.58986301369863</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4782,16 +4821,16 @@
         <v>94</v>
       </c>
       <c r="C161" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D161" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E161" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F161">
-        <v>2.62</v>
+        <v>2.58986301369863</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4805,13 +4844,13 @@
         <v>249</v>
       </c>
       <c r="D162" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E162" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F162">
-        <v>2.62</v>
+        <v>2.58986301369863</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4819,19 +4858,19 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C163" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D163" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E163" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F163">
-        <v>2.62986301369863</v>
+        <v>2.58986301369863</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4839,19 +4878,19 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C164" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D164" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E164" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F164">
-        <v>2.62986301369863</v>
+        <v>2.58986301369863</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4859,19 +4898,19 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C165" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D165" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="E165" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F165">
-        <v>2.64</v>
+        <v>2.58986301369863</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4879,19 +4918,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C166" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D166" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E166" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F166">
-        <v>2.64</v>
+        <v>2.58986301369863</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4899,19 +4938,19 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C167" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D167" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="E167" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F167">
-        <v>2.70986301369863</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4919,19 +4958,19 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C168" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D168" t="s">
-        <v>318</v>
+        <v>375</v>
       </c>
       <c r="E168" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F168">
-        <v>2.70986301369863</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4939,19 +4978,19 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C169" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D169" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="E169" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F169">
-        <v>2.70986301369863</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4965,13 +5004,13 @@
         <v>252</v>
       </c>
       <c r="D170" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="E170" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F170">
-        <v>2.70986301369863</v>
+        <v>2.60986301369863</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4979,19 +5018,19 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C171" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D171" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="E171" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F171">
-        <v>2.70986301369863</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4999,19 +5038,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C172" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D172" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="E172" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F172">
-        <v>2.70986301369863</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5019,19 +5058,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C173" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D173" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E173" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F173">
-        <v>2.79013698630137</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5045,13 +5084,13 @@
         <v>254</v>
       </c>
       <c r="D174" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E174" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F174">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5065,13 +5104,13 @@
         <v>254</v>
       </c>
       <c r="D175" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="E175" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F175">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5079,19 +5118,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C176" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D176" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="E176" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F176">
-        <v>2.84986301369863</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5099,19 +5138,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C177" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D177" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E177" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F177">
-        <v>2.84986301369863</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5119,19 +5158,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C178" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D178" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E178" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F178">
-        <v>2.84986301369863</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -5139,19 +5178,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C179" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D179" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="E179" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F179">
-        <v>2.89013698630137</v>
+        <v>2.64986301369863</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5159,19 +5198,19 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C180" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D180" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E180" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F180">
-        <v>2.91013698630137</v>
+        <v>2.64986301369863</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5179,19 +5218,19 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C181" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D181" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E181" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F181">
-        <v>2.91013698630137</v>
+        <v>2.64986301369863</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5199,19 +5238,19 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C182" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D182" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E182" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F182">
-        <v>2.95013698630137</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5219,19 +5258,19 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C183" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D183" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E183" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F183">
-        <v>2.95013698630137</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5239,19 +5278,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C184" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D184" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="E184" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F184">
-        <v>2.95013698630137</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5259,19 +5298,19 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C185" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D185" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E185" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F185">
-        <v>2.96</v>
+        <v>2.81013698630137</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5279,19 +5318,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C186" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D186" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E186" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F186">
-        <v>2.96</v>
+        <v>2.81013698630137</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5299,19 +5338,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C187" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D187" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E187" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F187">
-        <v>2.96</v>
+        <v>2.81013698630137</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5319,19 +5358,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C188" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D188" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E188" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F188">
-        <v>2.96</v>
+        <v>2.81013698630137</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5339,19 +5378,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C189" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D189" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E189" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F189">
-        <v>2.96</v>
+        <v>2.81013698630137</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5359,19 +5398,19 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C190" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D190" t="s">
-        <v>303</v>
+        <v>379</v>
       </c>
       <c r="E190" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F190">
-        <v>3.15013698630137</v>
+        <v>2.83013698630137</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5379,19 +5418,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C191" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D191" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="E191" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F191">
-        <v>3.47013698630137</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5399,19 +5438,19 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C192" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D192" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="E192" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F192">
-        <v>3.47013698630137</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5419,19 +5458,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C193" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D193" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="E193" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F193">
-        <v>3.47013698630137</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5439,19 +5478,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C194" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D194" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E194" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="F194">
-        <v>3.54</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5459,19 +5498,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C195" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D195" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E195" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F195">
-        <v>3.56</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5479,19 +5518,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C196" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D196" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E196" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F196">
-        <v>3.60986301369863</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5499,19 +5538,19 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C197" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D197" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E197" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F197">
-        <v>3.60986301369863</v>
+        <v>2.84986301369863</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5519,19 +5558,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C198" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D198" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="E198" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F198">
-        <v>3.62</v>
+        <v>2.84986301369863</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5539,19 +5578,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C199" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D199" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E199" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F199">
-        <v>3.62</v>
+        <v>2.84986301369863</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5559,19 +5598,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C200" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D200" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F200">
-        <v>3.62</v>
+        <v>2.84986301369863</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5579,19 +5618,19 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C201" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D201" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="E201" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F201">
-        <v>3.62</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5599,19 +5638,19 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C202" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D202" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F202">
-        <v>3.62</v>
+        <v>2.89013698630137</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5625,13 +5664,13 @@
         <v>268</v>
       </c>
       <c r="D203" t="s">
-        <v>351</v>
+        <v>384</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F203">
-        <v>3.62</v>
+        <v>2.91013698630137</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5645,13 +5684,13 @@
         <v>269</v>
       </c>
       <c r="D204" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="E204" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F204">
-        <v>3.62</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5659,19 +5698,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C205" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D205" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F205">
-        <v>3.62</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5679,19 +5718,19 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C206" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D206" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F206">
-        <v>3.62</v>
+        <v>2.93013698630137</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5699,19 +5738,19 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C207" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D207" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F207">
-        <v>3.66986301369863</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5719,19 +5758,19 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C208" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D208" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="E208" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F208">
-        <v>3.66986301369863</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5739,19 +5778,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C209" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D209" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F209">
-        <v>3.72</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5765,13 +5804,13 @@
         <v>272</v>
       </c>
       <c r="D210" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F210">
-        <v>3.82</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5779,19 +5818,19 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C211" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D211" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="E211" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F211">
-        <v>3.86</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5799,19 +5838,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D212" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="E212" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F212">
-        <v>3.86986301369863</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5819,19 +5858,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C213" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D213" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="E213" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F213">
-        <v>3.93013698630137</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5839,19 +5878,19 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C214" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D214" t="s">
-        <v>373</v>
+        <v>338</v>
       </c>
       <c r="E214" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F214">
-        <v>3.93013698630137</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5859,19 +5898,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C215" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D215" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
       <c r="E215" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F215">
-        <v>4.03013698630137</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5879,19 +5918,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C216" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D216" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E216" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F216">
-        <v>4.16986301369863</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5899,19 +5938,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C217" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D217" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E217" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F217">
-        <v>4.18</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5919,19 +5958,19 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C218" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D218" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E218" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F218">
-        <v>4.18</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5939,19 +5978,19 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C219" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D219" t="s">
         <v>386</v>
       </c>
       <c r="E219" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F219">
-        <v>4.19013698630137</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5959,19 +5998,19 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C220" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D220" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="E220" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F220">
-        <v>4.2</v>
+        <v>2.95013698630137</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5979,19 +6018,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C221" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D221" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E221" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F221">
-        <v>4.24986301369863</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5999,19 +6038,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C222" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D222" t="s">
         <v>387</v>
       </c>
       <c r="E222" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F222">
-        <v>4.26986301369863</v>
+        <v>3.06986301369863</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6019,19 +6058,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C223" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D223" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="E223" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F223">
-        <v>4.28</v>
+        <v>3.41013698630137</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6039,19 +6078,19 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C224" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D224" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="E224" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F224">
-        <v>4.28986301369863</v>
+        <v>3.41013698630137</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6059,19 +6098,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C225" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D225" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="E225" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F225">
-        <v>4.30986301369863</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6079,19 +6118,19 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C226" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D226" t="s">
-        <v>310</v>
+        <v>388</v>
       </c>
       <c r="E226" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F226">
-        <v>4.32</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6099,19 +6138,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C227" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="D227" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
       <c r="E227" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F227">
-        <v>4.32</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -6119,19 +6158,19 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C228" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D228" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="E228" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F228">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -6139,19 +6178,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C229" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D229" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="E229" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F229">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6159,19 +6198,19 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C230" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D230" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E230" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F230">
-        <v>4.71013698630137</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6179,19 +6218,19 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C231" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D231" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="E231" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F231">
-        <v>4.71013698630137</v>
+        <v>3.60986301369863</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6199,19 +6238,19 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C232" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D232" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="E232" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F232">
-        <v>4.71013698630137</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6219,19 +6258,19 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C233" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D233" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E233" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F233">
-        <v>4.73013698630137</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6239,19 +6278,19 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C234" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D234" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E234" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F234">
-        <v>4.80986301369863</v>
+        <v>3.63013698630137</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6259,19 +6298,19 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C235" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D235" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E235" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F235">
-        <v>4.88</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6279,19 +6318,19 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C236" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D236" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E236" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F236">
-        <v>4.88</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6299,19 +6338,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C237" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D237" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E237" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F237">
-        <v>4.88</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6319,19 +6358,19 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C238" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="D238" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E238" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F238">
-        <v>4.91013698630137</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6339,19 +6378,19 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C239" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D239" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="E239" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F239">
-        <v>4.94</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6359,19 +6398,19 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C240" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D240" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E240" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F240">
-        <v>4.96</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6379,19 +6418,19 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C241" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D241" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E241" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="F241">
-        <v>9.18</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6399,19 +6438,519 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
+        <v>130</v>
+      </c>
+      <c r="C242" t="s">
+        <v>285</v>
+      </c>
+      <c r="D242" t="s">
+        <v>398</v>
+      </c>
+      <c r="E242" t="s">
+        <v>410</v>
+      </c>
+      <c r="F242">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
+        <v>131</v>
+      </c>
+      <c r="C243" t="s">
+        <v>276</v>
+      </c>
+      <c r="D243" t="s">
+        <v>393</v>
+      </c>
+      <c r="E243" t="s">
+        <v>410</v>
+      </c>
+      <c r="F243">
+        <v>4.19013698630137</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
+        <v>132</v>
+      </c>
+      <c r="C244" t="s">
+        <v>286</v>
+      </c>
+      <c r="D244" t="s">
+        <v>311</v>
+      </c>
+      <c r="E244" t="s">
+        <v>410</v>
+      </c>
+      <c r="F244">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
+        <v>133</v>
+      </c>
+      <c r="C245" t="s">
+        <v>287</v>
+      </c>
+      <c r="D245" t="s">
+        <v>399</v>
+      </c>
+      <c r="E245" t="s">
+        <v>410</v>
+      </c>
+      <c r="F245">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
+        <v>133</v>
+      </c>
+      <c r="C246" t="s">
+        <v>287</v>
+      </c>
+      <c r="D246" t="s">
+        <v>399</v>
+      </c>
+      <c r="E246" t="s">
+        <v>410</v>
+      </c>
+      <c r="F246">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
+        <v>134</v>
+      </c>
+      <c r="C247" t="s">
+        <v>288</v>
+      </c>
+      <c r="D247" t="s">
+        <v>375</v>
+      </c>
+      <c r="E247" t="s">
+        <v>410</v>
+      </c>
+      <c r="F247">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
+        <v>135</v>
+      </c>
+      <c r="C248" t="s">
+        <v>289</v>
+      </c>
+      <c r="D248" t="s">
+        <v>400</v>
+      </c>
+      <c r="E248" t="s">
+        <v>412</v>
+      </c>
+      <c r="F248">
+        <v>4.28986301369863</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
+        <v>135</v>
+      </c>
+      <c r="C249" t="s">
+        <v>289</v>
+      </c>
+      <c r="D249" t="s">
+        <v>400</v>
+      </c>
+      <c r="E249" t="s">
+        <v>412</v>
+      </c>
+      <c r="F249">
+        <v>4.28986301369863</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
+        <v>136</v>
+      </c>
+      <c r="C250" t="s">
+        <v>290</v>
+      </c>
+      <c r="D250" t="s">
+        <v>356</v>
+      </c>
+      <c r="E250" t="s">
+        <v>410</v>
+      </c>
+      <c r="F250">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
+        <v>137</v>
+      </c>
+      <c r="C251" t="s">
+        <v>291</v>
+      </c>
+      <c r="D251" t="s">
+        <v>375</v>
+      </c>
+      <c r="E251" t="s">
+        <v>410</v>
+      </c>
+      <c r="F251">
+        <v>4.30986301369863</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>138</v>
+      </c>
+      <c r="C252" t="s">
+        <v>292</v>
+      </c>
+      <c r="D252" t="s">
+        <v>401</v>
+      </c>
+      <c r="E252" t="s">
+        <v>410</v>
+      </c>
+      <c r="F252">
+        <v>4.34986301369863</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
         <v>139</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C253" t="s">
+        <v>293</v>
+      </c>
+      <c r="D253" t="s">
+        <v>402</v>
+      </c>
+      <c r="E253" t="s">
+        <v>410</v>
+      </c>
+      <c r="F253">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>140</v>
+      </c>
+      <c r="C254" t="s">
+        <v>294</v>
+      </c>
+      <c r="D254" t="s">
+        <v>403</v>
+      </c>
+      <c r="E254" t="s">
+        <v>410</v>
+      </c>
+      <c r="F254">
+        <v>4.71013698630137</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>140</v>
+      </c>
+      <c r="C255" t="s">
+        <v>294</v>
+      </c>
+      <c r="D255" t="s">
+        <v>403</v>
+      </c>
+      <c r="E255" t="s">
+        <v>410</v>
+      </c>
+      <c r="F255">
+        <v>4.71013698630137</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>141</v>
+      </c>
+      <c r="C256" t="s">
+        <v>295</v>
+      </c>
+      <c r="D256" t="s">
+        <v>404</v>
+      </c>
+      <c r="E256" t="s">
+        <v>410</v>
+      </c>
+      <c r="F256">
+        <v>4.73013698630137</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257" t="s">
+        <v>142</v>
+      </c>
+      <c r="C257" t="s">
         <v>296</v>
       </c>
-      <c r="D242" t="s">
-        <v>396</v>
-      </c>
-      <c r="E242" t="s">
-        <v>397</v>
-      </c>
-      <c r="F242">
-        <v>9.18</v>
+      <c r="D257" t="s">
+        <v>405</v>
+      </c>
+      <c r="E257" t="s">
+        <v>410</v>
+      </c>
+      <c r="F257">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>143</v>
+      </c>
+      <c r="C258" t="s">
+        <v>297</v>
+      </c>
+      <c r="D258" t="s">
+        <v>406</v>
+      </c>
+      <c r="E258" t="s">
+        <v>410</v>
+      </c>
+      <c r="F258">
+        <v>4.86986301369863</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>144</v>
+      </c>
+      <c r="C259" t="s">
+        <v>298</v>
+      </c>
+      <c r="D259" t="s">
+        <v>407</v>
+      </c>
+      <c r="E259" t="s">
+        <v>410</v>
+      </c>
+      <c r="F259">
+        <v>4.929863013698631</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>144</v>
+      </c>
+      <c r="C260" t="s">
+        <v>298</v>
+      </c>
+      <c r="D260" t="s">
+        <v>407</v>
+      </c>
+      <c r="E260" t="s">
+        <v>410</v>
+      </c>
+      <c r="F260">
+        <v>4.929863013698631</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>144</v>
+      </c>
+      <c r="C261" t="s">
+        <v>298</v>
+      </c>
+      <c r="D261" t="s">
+        <v>407</v>
+      </c>
+      <c r="E261" t="s">
+        <v>410</v>
+      </c>
+      <c r="F261">
+        <v>4.929863013698631</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>144</v>
+      </c>
+      <c r="C262" t="s">
+        <v>298</v>
+      </c>
+      <c r="D262" t="s">
+        <v>407</v>
+      </c>
+      <c r="E262" t="s">
+        <v>410</v>
+      </c>
+      <c r="F262">
+        <v>4.929863013698631</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>144</v>
+      </c>
+      <c r="C263" t="s">
+        <v>298</v>
+      </c>
+      <c r="D263" t="s">
+        <v>407</v>
+      </c>
+      <c r="E263" t="s">
+        <v>410</v>
+      </c>
+      <c r="F263">
+        <v>4.929863013698631</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>144</v>
+      </c>
+      <c r="C264" t="s">
+        <v>298</v>
+      </c>
+      <c r="D264" t="s">
+        <v>407</v>
+      </c>
+      <c r="E264" t="s">
+        <v>410</v>
+      </c>
+      <c r="F264">
+        <v>4.929863013698631</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>145</v>
+      </c>
+      <c r="C265" t="s">
+        <v>299</v>
+      </c>
+      <c r="D265" t="s">
+        <v>408</v>
+      </c>
+      <c r="E265" t="s">
+        <v>410</v>
+      </c>
+      <c r="F265">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>146</v>
+      </c>
+      <c r="C266" t="s">
+        <v>300</v>
+      </c>
+      <c r="D266" t="s">
+        <v>407</v>
+      </c>
+      <c r="E266" t="s">
+        <v>410</v>
+      </c>
+      <c r="F266">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>147</v>
+      </c>
+      <c r="C267" t="s">
+        <v>301</v>
+      </c>
+      <c r="D267" t="s">
+        <v>409</v>
+      </c>
+      <c r="E267" t="s">
+        <v>410</v>
+      </c>
+      <c r="F267">
+        <v>5.779999999999999</v>
       </c>
     </row>
   </sheetData>
